--- a/hw4/ABC_alpha0.1/generated_spreadsheet.xlsx
+++ b/hw4/ABC_alpha0.1/generated_spreadsheet.xlsx
@@ -4823,62 +4823,62 @@
     </row>
     <row r="62" spans="1:11">
       <c r="D62">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="D63">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="D64">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -7039,62 +7039,62 @@
     </row>
     <row r="63" spans="1:11">
       <c r="D63">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="D64">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74">
-        <v>11444.54596090322</v>
+        <v>11100.0913648129</v>
       </c>
     </row>
   </sheetData>
@@ -9572,13 +9572,13 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>5998.537928618207</v>
+        <v>5943.363229779768</v>
       </c>
       <c r="D3">
-        <v>63.34894712920155</v>
+        <v>57.83147724535762</v>
       </c>
       <c r="E3">
-        <v>0.4172891320107603</v>
+        <v>0.4175986545536549</v>
       </c>
       <c r="F3">
         <v>2588.449924639433</v>
@@ -9613,37 +9613,37 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>6074.883946474576</v>
+        <v>6030.051729519032</v>
       </c>
       <c r="D4">
-        <v>64.6486542019183</v>
+        <v>60.71717949474831</v>
       </c>
       <c r="E4">
-        <v>0.476475297502764</v>
+        <v>0.4768424550386773</v>
       </c>
       <c r="F4">
-        <v>2876.64577273829</v>
+        <v>2847.844530786419</v>
       </c>
       <c r="G4">
-        <v>-123.3542272617096</v>
+        <v>-152.155469213581</v>
       </c>
       <c r="H4">
-        <v>123.3542272617096</v>
+        <v>152.155469213581</v>
       </c>
       <c r="I4">
-        <v>180744.7895957442</v>
+        <v>184712.3003098799</v>
       </c>
       <c r="J4">
-        <v>355.9020759505715</v>
+        <v>370.3026969265072</v>
       </c>
       <c r="K4">
-        <v>4.111807575390322</v>
+        <v>5.071848973786033</v>
       </c>
       <c r="L4">
-        <v>16.767151903681</v>
+        <v>17.24717260287886</v>
       </c>
       <c r="M4">
-        <v>1.306808048633909</v>
+        <v>1.178210310232881</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9654,37 +9654,37 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>6156.794307311377</v>
+        <v>6126.228713206215</v>
       </c>
       <c r="D5">
-        <v>66.37482486540661</v>
+        <v>64.26315991399174</v>
       </c>
       <c r="E5">
-        <v>0.4650870453292085</v>
+        <v>0.4653301572448232</v>
       </c>
       <c r="F5">
-        <v>2840.286869107766</v>
+        <v>2817.727680627593</v>
       </c>
       <c r="G5">
-        <v>-159.7131308922344</v>
+        <v>-182.2723193724073</v>
       </c>
       <c r="H5">
-        <v>159.7131308922344</v>
+        <v>182.2723193724073</v>
       </c>
       <c r="I5">
-        <v>128999.2877902961</v>
+        <v>134215.9330097189</v>
       </c>
       <c r="J5">
-        <v>290.5057609311258</v>
+        <v>307.6259044084739</v>
       </c>
       <c r="K5">
-        <v>5.323771029741147</v>
+        <v>6.075743979080244</v>
       </c>
       <c r="L5">
-        <v>12.95269161236771</v>
+        <v>13.52336306161265</v>
       </c>
       <c r="M5">
-        <v>1.05121001906014</v>
+        <v>0.825750147868392</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9695,37 +9695,37 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>6288.705560111588</v>
+        <v>6311.398396717946</v>
       </c>
       <c r="D6">
-        <v>72.928467658887</v>
+        <v>76.35381227376567</v>
       </c>
       <c r="E6">
-        <v>0.4060848025505603</v>
+        <v>0.4059132792265963</v>
       </c>
       <c r="F6">
-        <v>2478.06755049886</v>
+        <v>2465.055457530236</v>
       </c>
       <c r="G6">
-        <v>-521.9324495011401</v>
+        <v>-534.9445424697637</v>
       </c>
       <c r="H6">
-        <v>521.9324495011401</v>
+        <v>534.9445424697637</v>
       </c>
       <c r="I6">
-        <v>164852.8363032871</v>
+        <v>172203.3656368354</v>
       </c>
       <c r="J6">
-        <v>348.3624330736294</v>
+        <v>364.4555639237964</v>
       </c>
       <c r="K6">
-        <v>17.39774831670467</v>
+        <v>17.83148474899212</v>
       </c>
       <c r="L6">
-        <v>14.06395578845195</v>
+        <v>14.60039348345752</v>
       </c>
       <c r="M6">
-        <v>-0.6216223750219388</v>
+        <v>-0.7708001584386742</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9736,37 +9736,37 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>6365.449977879326</v>
+        <v>6392.270282877734</v>
       </c>
       <c r="D7">
-        <v>73.31006266977211</v>
+        <v>76.80561966236792</v>
       </c>
       <c r="E7">
-        <v>0.6220231830861283</v>
+        <v>0.6217595259902424</v>
       </c>
       <c r="F7">
-        <v>3952.581821071373</v>
+        <v>3968.809451872494</v>
       </c>
       <c r="G7">
-        <v>-47.41817892862719</v>
+        <v>-31.19054812750619</v>
       </c>
       <c r="H7">
-        <v>47.41817892862719</v>
+        <v>31.19054812750619</v>
       </c>
       <c r="I7">
-        <v>132331.9657812112</v>
+        <v>137957.2625679672</v>
       </c>
       <c r="J7">
-        <v>288.173582244629</v>
+        <v>297.8025607645383</v>
       </c>
       <c r="K7">
-        <v>1.18545447321568</v>
+        <v>0.7797637031876548</v>
       </c>
       <c r="L7">
-        <v>11.4882555254047</v>
+        <v>11.83626752740355</v>
       </c>
       <c r="M7">
-        <v>-0.9160036804490874</v>
+        <v>-1.048053293237465</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9777,37 +9777,37 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>6476.36832655664</v>
+        <v>6534.042389774485</v>
       </c>
       <c r="D8">
-        <v>77.07089127052626</v>
+        <v>83.30226838580624</v>
       </c>
       <c r="E8">
-        <v>0.8435909406539719</v>
+        <v>0.84277319487376</v>
       </c>
       <c r="F8">
-        <v>5372.404267393573</v>
+        <v>5397.699365410037</v>
       </c>
       <c r="G8">
-        <v>-627.5957326064272</v>
+        <v>-602.300634589963</v>
       </c>
       <c r="H8">
-        <v>627.5957326064272</v>
+        <v>602.300634589963</v>
       </c>
       <c r="I8">
-        <v>175922.705415309</v>
+        <v>175425.3945445514</v>
       </c>
       <c r="J8">
-        <v>344.743940638262</v>
+        <v>348.5522397354425</v>
       </c>
       <c r="K8">
-        <v>10.45992887677379</v>
+        <v>10.03834390983272</v>
       </c>
       <c r="L8">
-        <v>11.31686775063288</v>
+        <v>11.53661359114174</v>
       </c>
       <c r="M8">
-        <v>-2.586162335152449</v>
+        <v>-2.62346209517358</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9818,37 +9818,37 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>6636.140366213672</v>
+        <v>6760.455235626022</v>
       </c>
       <c r="D9">
-        <v>85.34100610917685</v>
+        <v>97.61332613237931</v>
       </c>
       <c r="E9">
-        <v>0.873077155742622</v>
+        <v>0.8711374778628178</v>
       </c>
       <c r="F9">
-        <v>5589.312931044017</v>
+        <v>5643.816756004559</v>
       </c>
       <c r="G9">
-        <v>-1410.687068955983</v>
+        <v>-1356.183243995441</v>
       </c>
       <c r="H9">
-        <v>1410.687068955983</v>
+        <v>1356.183243995441</v>
       </c>
       <c r="I9">
-        <v>435082.0341444965</v>
+        <v>413112.1940801867</v>
       </c>
       <c r="J9">
-        <v>497.0215303979364</v>
+        <v>492.4995260582995</v>
       </c>
       <c r="K9">
-        <v>20.1526724136569</v>
+        <v>19.37404634279202</v>
       </c>
       <c r="L9">
-        <v>12.57912555963631</v>
+        <v>12.6562468413775</v>
       </c>
       <c r="M9">
-        <v>-4.632094834329227</v>
+        <v>-4.610353336381583</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9859,37 +9859,37 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>6646.01541280249</v>
+        <v>6709.936987572555</v>
       </c>
       <c r="D10">
-        <v>77.79441015714096</v>
+        <v>82.8001687137947</v>
       </c>
       <c r="E10">
-        <v>1.126318026086184</v>
+        <v>1.125457985532318</v>
       </c>
       <c r="F10">
-        <v>7737.458434018778</v>
+        <v>7894.691288256654</v>
       </c>
       <c r="G10">
-        <v>1737.458434018778</v>
+        <v>1894.691288256654</v>
       </c>
       <c r="H10">
-        <v>1737.458434018778</v>
+        <v>1894.691288256654</v>
       </c>
       <c r="I10">
-        <v>758042.0061193078</v>
+        <v>810205.0545446207</v>
       </c>
       <c r="J10">
-        <v>652.0761433505417</v>
+        <v>667.7734963330938</v>
       </c>
       <c r="K10">
-        <v>28.95764056697964</v>
+        <v>31.5781881376109</v>
       </c>
       <c r="L10">
-        <v>14.62643993555423</v>
+        <v>15.02148950340667</v>
       </c>
       <c r="M10">
-        <v>-0.8661449053876666</v>
+        <v>-0.5629237262885751</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9900,37 +9900,37 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>6676.136356341646</v>
+        <v>6700.721456374573</v>
       </c>
       <c r="D11">
-        <v>73.02706349534252</v>
+        <v>73.598598722617</v>
       </c>
       <c r="E11">
-        <v>1.709487223255612</v>
+        <v>1.708937650472951</v>
       </c>
       <c r="F11">
-        <v>11652.36234137816</v>
+        <v>11771.8134091947</v>
       </c>
       <c r="G11">
-        <v>1652.362341378155</v>
+        <v>1771.813409194696</v>
       </c>
       <c r="H11">
-        <v>1652.362341378155</v>
+        <v>1771.813409194696</v>
       </c>
       <c r="I11">
-        <v>977181.9284621291</v>
+        <v>1068995.910373233</v>
       </c>
       <c r="J11">
-        <v>763.2190542424987</v>
+        <v>790.4445977621607</v>
       </c>
       <c r="K11">
-        <v>16.52362341378155</v>
+        <v>17.71813409194696</v>
       </c>
       <c r="L11">
-        <v>14.83723809980171</v>
+        <v>15.32111667991115</v>
       </c>
       <c r="M11">
-        <v>1.424977410934359</v>
+        <v>1.765978119496415</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9941,37 +9941,37 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>6749.148202562081</v>
+        <v>6772.028566828938</v>
       </c>
       <c r="D12">
-        <v>73.02554176785172</v>
+        <v>73.36944989579182</v>
       </c>
       <c r="E12">
-        <v>1.778070702137963</v>
+        <v>1.777469976130866</v>
       </c>
       <c r="F12">
-        <v>12000.54115013184</v>
+        <v>12045.2716178742</v>
       </c>
       <c r="G12">
-        <v>0.5411501318449154</v>
+        <v>45.27161787420118</v>
       </c>
       <c r="H12">
-        <v>0.5411501318449154</v>
+        <v>45.27161787420118</v>
       </c>
       <c r="I12">
-        <v>879463.7649002627</v>
+        <v>962301.2712744044</v>
       </c>
       <c r="J12">
-        <v>686.9512638314334</v>
+        <v>715.9272997733648</v>
       </c>
       <c r="K12">
-        <v>0.004509584432040963</v>
+        <v>0.3772634822850099</v>
       </c>
       <c r="L12">
-        <v>13.35396524826474</v>
+        <v>13.82673136014853</v>
       </c>
       <c r="M12">
-        <v>1.583971264501662</v>
+        <v>2.013024901624151</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9982,37 +9982,37 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>6810.681230180669</v>
+        <v>6822.621306740525</v>
       </c>
       <c r="D13">
-        <v>71.87629035292542</v>
+        <v>71.09177889737136</v>
       </c>
       <c r="E13">
-        <v>2.116873447634368</v>
+        <v>2.11651370382668</v>
       </c>
       <c r="F13">
-        <v>14488.12895493712</v>
+        <v>14537.44992885985</v>
       </c>
       <c r="G13">
-        <v>488.1289549371177</v>
+        <v>537.4499288598454</v>
       </c>
       <c r="H13">
-        <v>488.1289549371177</v>
+        <v>537.4499288598454</v>
       </c>
       <c r="I13">
-        <v>821173.4114227846</v>
+        <v>901078.6489795907</v>
       </c>
       <c r="J13">
-        <v>668.8765084774046</v>
+        <v>699.7020842357721</v>
       </c>
       <c r="K13">
-        <v>3.486635392407984</v>
+        <v>3.83892806328461</v>
       </c>
       <c r="L13">
-        <v>12.45693526136867</v>
+        <v>12.91874924225181</v>
       </c>
       <c r="M13">
-        <v>2.356548625914936</v>
+        <v>2.827816946146822</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10023,37 +10023,37 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>6903.819859595233</v>
+        <v>6930.981295089457</v>
       </c>
       <c r="D14">
-        <v>74.0025242590892</v>
+        <v>74.81859984252746</v>
       </c>
       <c r="E14">
-        <v>1.101125937133618</v>
+        <v>1.100671829786836</v>
       </c>
       <c r="F14">
-        <v>7534.473816021619</v>
+        <v>7546.68603697735</v>
       </c>
       <c r="G14">
-        <v>-465.5261839783807</v>
+        <v>-453.3139630226497</v>
       </c>
       <c r="H14">
-        <v>465.5261839783807</v>
+        <v>453.3139630226497</v>
       </c>
       <c r="I14">
-        <v>770801.8461350086</v>
+        <v>843113.2239872332</v>
       </c>
       <c r="J14">
-        <v>651.930648102486</v>
+        <v>679.1697408013453</v>
       </c>
       <c r="K14">
-        <v>5.819077299729758</v>
+        <v>5.66642453778312</v>
       </c>
       <c r="L14">
-        <v>11.9037804312321</v>
+        <v>12.31438885021276</v>
       </c>
       <c r="M14">
-        <v>1.703730045847176</v>
+        <v>2.245853070888897</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10064,37 +10064,37 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>6988.394256849315</v>
+        <v>7021.831711628186</v>
       </c>
       <c r="D15">
-        <v>75.0597115585885</v>
+        <v>76.42178151214756</v>
       </c>
       <c r="E15">
-        <v>0.4184885352403107</v>
+        <v>0.4185626839907288</v>
       </c>
       <c r="F15">
-        <v>2911.769445883824</v>
+        <v>2925.612610195734</v>
       </c>
       <c r="G15">
-        <v>-88.23055411617588</v>
+        <v>-74.38738980426615</v>
       </c>
       <c r="H15">
-        <v>88.23055411617588</v>
+        <v>74.38738980426615</v>
       </c>
       <c r="I15">
-        <v>712108.2141769039</v>
+        <v>778684.0132006685</v>
       </c>
       <c r="J15">
-        <v>608.5691024112314</v>
+        <v>632.6480214938776</v>
       </c>
       <c r="K15">
-        <v>2.941018470539196</v>
+        <v>2.479579660142205</v>
       </c>
       <c r="L15">
-        <v>11.21433720348649</v>
+        <v>11.55786506636118</v>
       </c>
       <c r="M15">
-        <v>1.680143265265091</v>
+        <v>2.293420684068784</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10105,37 +10105,37 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>7130.030207756607</v>
+        <v>7214.377012388379</v>
       </c>
       <c r="D16">
-        <v>81.71733549345883</v>
+        <v>88.03413343695209</v>
       </c>
       <c r="E16">
-        <v>0.4849285118369725</v>
+        <v>0.4846030524246569</v>
       </c>
       <c r="F16">
-        <v>3365.561330994235</v>
+        <v>3384.748622155903</v>
       </c>
       <c r="G16">
-        <v>-634.4386690057654</v>
+        <v>-615.2513778440966</v>
       </c>
       <c r="H16">
-        <v>634.4386690057654</v>
+        <v>615.2513778440966</v>
       </c>
       <c r="I16">
-        <v>689994.229216397</v>
+        <v>750101.8878248392</v>
       </c>
       <c r="J16">
-        <v>610.4169285965553</v>
+        <v>631.4054040903219</v>
       </c>
       <c r="K16">
-        <v>15.86096672514413</v>
+        <v>15.38128444610242</v>
       </c>
       <c r="L16">
-        <v>11.54623931217632</v>
+        <v>11.83096645062841</v>
       </c>
       <c r="M16">
-        <v>0.6357042075341227</v>
+        <v>1.323518416173727</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -10146,37 +10146,37 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>7173.680437306519</v>
+        <v>7225.427329388639</v>
       </c>
       <c r="D17">
-        <v>77.91062489910416</v>
+        <v>80.33575179328291</v>
       </c>
       <c r="E17">
-        <v>0.4603978785665874</v>
+        <v>0.4603171771284471</v>
       </c>
       <c r="F17">
-        <v>3354.090356550351</v>
+        <v>3398.032126753251</v>
       </c>
       <c r="G17">
-        <v>354.0903565503513</v>
+        <v>398.0321267532509</v>
       </c>
       <c r="H17">
-        <v>354.0903565503513</v>
+        <v>398.0321267532509</v>
       </c>
       <c r="I17">
-        <v>652353.2793087676</v>
+        <v>710657.0668983643</v>
       </c>
       <c r="J17">
-        <v>593.3284904601417</v>
+        <v>615.8471856011838</v>
       </c>
       <c r="K17">
-        <v>11.80301188501171</v>
+        <v>13.2677375584417</v>
       </c>
       <c r="L17">
-        <v>11.56335748369868</v>
+        <v>11.92675119114929</v>
       </c>
       <c r="M17">
-        <v>1.250799478436798</v>
+        <v>2.00327099966215</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10187,37 +10187,37 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>7504.646466202295</v>
+        <v>7756.855585203256</v>
       </c>
       <c r="D18">
-        <v>103.2161652987714</v>
+        <v>125.4450021954163</v>
       </c>
       <c r="E18">
-        <v>0.4321017126122614</v>
+        <v>0.4297810603472692</v>
       </c>
       <c r="F18">
-        <v>2944.760924673178</v>
+        <v>2965.506249535156</v>
       </c>
       <c r="G18">
-        <v>-2055.239075326822</v>
+        <v>-2034.493750464844</v>
       </c>
       <c r="H18">
-        <v>2055.239075326822</v>
+        <v>2034.493750464844</v>
       </c>
       <c r="I18">
-        <v>875581.6778988601</v>
+        <v>924938.8015097483</v>
       </c>
       <c r="J18">
-        <v>684.6979020143092</v>
+        <v>704.5125959051625</v>
       </c>
       <c r="K18">
-        <v>41.10478150653643</v>
+        <v>40.68987500929688</v>
       </c>
       <c r="L18">
-        <v>13.40969648512604</v>
+        <v>13.72444642978352</v>
       </c>
       <c r="M18">
-        <v>-1.917786085008542</v>
+        <v>-1.136650995285024</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10228,37 +10228,37 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>7629.383780290358</v>
+        <v>7896.646016303473</v>
       </c>
       <c r="D19">
-        <v>105.3682801777006</v>
+        <v>126.8795450858963</v>
       </c>
       <c r="E19">
-        <v>0.6253569571276857</v>
+        <v>0.6229015946077824</v>
       </c>
       <c r="F19">
-        <v>4732.266930528302</v>
+        <v>4900.895476933608</v>
       </c>
       <c r="G19">
-        <v>-267.7330694716984</v>
+        <v>-99.10452306639218</v>
       </c>
       <c r="H19">
-        <v>267.7330694716984</v>
+        <v>99.10452306639218</v>
       </c>
       <c r="I19">
-        <v>828293.402521794</v>
+        <v>871108.3841557759</v>
       </c>
       <c r="J19">
-        <v>660.1705589235673</v>
+        <v>668.9003563264113</v>
       </c>
       <c r="K19">
-        <v>5.354661389433968</v>
+        <v>1.982090461327844</v>
       </c>
       <c r="L19">
-        <v>12.9358708912618</v>
+        <v>13.03371960810965</v>
       </c>
       <c r="M19">
-        <v>-2.394589030093824</v>
+        <v>-1.345326636294541</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10269,37 +10269,37 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>7822.17791833947</v>
+        <v>8155.730638912728</v>
       </c>
       <c r="D20">
-        <v>114.1108659648417</v>
+        <v>140.1000528382322</v>
       </c>
       <c r="E20">
-        <v>0.8615051531218308</v>
+        <v>0.8565864126318186</v>
       </c>
       <c r="F20">
-        <v>6524.966766415497</v>
+        <v>6762.012271523397</v>
       </c>
       <c r="G20">
-        <v>-1475.033233584503</v>
+        <v>-1237.987728476603</v>
       </c>
       <c r="H20">
-        <v>1475.033233584503</v>
+        <v>1237.987728476603</v>
       </c>
       <c r="I20">
-        <v>903150.6046138474</v>
+        <v>907858.6748059361</v>
       </c>
       <c r="J20">
-        <v>705.4407075158416</v>
+        <v>700.5163214458663</v>
       </c>
       <c r="K20">
-        <v>18.43791541980629</v>
+        <v>15.47484660595753</v>
       </c>
       <c r="L20">
-        <v>13.24154003173649</v>
+        <v>13.16933777465676</v>
       </c>
       <c r="M20">
-        <v>-4.331860040703934</v>
+        <v>-3.051859220720015</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10310,37 +10310,37 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>7711.280466705475</v>
+        <v>7859.145527847467</v>
       </c>
       <c r="D21">
-        <v>91.61003420495804</v>
+        <v>96.43153644788291</v>
       </c>
       <c r="E21">
-        <v>0.8246734848721274</v>
+        <v>0.8221958187516984</v>
       </c>
       <c r="F21">
-        <v>6928.99243895248</v>
+        <v>7226.809025588886</v>
       </c>
       <c r="G21">
-        <v>3928.99243895248</v>
+        <v>4226.809025588886</v>
       </c>
       <c r="H21">
-        <v>3928.99243895248</v>
+        <v>4226.809025588886</v>
       </c>
       <c r="I21">
-        <v>1668089.077283948</v>
+        <v>1800387.930805606</v>
       </c>
       <c r="J21">
-        <v>875.1013249598752</v>
+        <v>886.1106742954989</v>
       </c>
       <c r="K21">
-        <v>130.9664146317493</v>
+        <v>140.8936341862962</v>
       </c>
       <c r="L21">
-        <v>19.43758606331612</v>
+        <v>19.89166916474305</v>
       </c>
       <c r="M21">
-        <v>0.9977382070798814</v>
+        <v>2.357416394267291</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10351,37 +10351,37 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>7767.885457552824</v>
+        <v>7879.31469165155</v>
       </c>
       <c r="D22">
-        <v>88.10952986919712</v>
+        <v>88.80529918350291</v>
       </c>
       <c r="E22">
-        <v>1.116674353821603</v>
+        <v>1.114443859631739</v>
       </c>
       <c r="F22">
-        <v>8788.536226752074</v>
+        <v>8953.66773652896</v>
       </c>
       <c r="G22">
-        <v>788.5362267520741</v>
+        <v>953.6677365289597</v>
       </c>
       <c r="H22">
-        <v>788.5362267520741</v>
+        <v>953.6677365289597</v>
       </c>
       <c r="I22">
-        <v>1615774.092464771</v>
+        <v>1755842.641850139</v>
       </c>
       <c r="J22">
-        <v>870.7730700494852</v>
+        <v>889.4885274071719</v>
       </c>
       <c r="K22">
-        <v>9.856702834400926</v>
+        <v>11.920846706612</v>
       </c>
       <c r="L22">
-        <v>18.95854190187036</v>
+        <v>19.4931280418365</v>
       </c>
       <c r="M22">
-        <v>1.908256365388445</v>
+        <v>3.420616987739555</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10392,37 +10392,37 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>7814.177679942083</v>
+        <v>7882.96075580743</v>
       </c>
       <c r="D23">
-        <v>83.92779912120332</v>
+        <v>80.28937568074068</v>
       </c>
       <c r="E23">
-        <v>1.692105523481923</v>
+        <v>1.690270953043106</v>
       </c>
       <c r="F23">
-        <v>13429.72305695808</v>
+        <v>13617.02025582421</v>
       </c>
       <c r="G23">
-        <v>1429.723056958079</v>
+        <v>1617.020255824211</v>
       </c>
       <c r="H23">
-        <v>1429.723056958079</v>
+        <v>1617.020255824211</v>
       </c>
       <c r="I23">
-        <v>1636170.94613776</v>
+        <v>1796743.20689279</v>
       </c>
       <c r="J23">
-        <v>897.3897360927516</v>
+        <v>924.1328954270308</v>
       </c>
       <c r="K23">
-        <v>11.91435880798399</v>
+        <v>13.47516879853509</v>
       </c>
       <c r="L23">
-        <v>18.6231046116853</v>
+        <v>19.20655855406024</v>
       </c>
       <c r="M23">
-        <v>3.444859224876772</v>
+        <v>5.042153402535757</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10433,37 +10433,37 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>7840.644604412442</v>
+        <v>7854.162819462396</v>
       </c>
       <c r="D24">
-        <v>78.18171165611891</v>
+        <v>69.38064447816321</v>
       </c>
       <c r="E24">
-        <v>1.753312272762279</v>
+        <v>1.752508199245115</v>
       </c>
       <c r="F24">
-        <v>14043.38995471775</v>
+        <v>14154.43802114039</v>
       </c>
       <c r="G24">
-        <v>2043.38995471775</v>
+        <v>2154.438021140391</v>
       </c>
       <c r="H24">
-        <v>2043.38995471775</v>
+        <v>2154.438021140391</v>
       </c>
       <c r="I24">
-        <v>1751592.38072429</v>
+        <v>1926055.024167451</v>
       </c>
       <c r="J24">
-        <v>949.4806551211606</v>
+        <v>980.055855686729</v>
       </c>
       <c r="K24">
-        <v>17.02824962264792</v>
+        <v>17.95365017616993</v>
       </c>
       <c r="L24">
-        <v>18.55061120309269</v>
+        <v>19.14960817324704</v>
       </c>
       <c r="M24">
-        <v>5.407978812113201</v>
+        <v>6.952723974531408</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10474,37 +10474,37 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>7900.800836893916</v>
+        <v>7890.78867994774</v>
       </c>
       <c r="D25">
-        <v>76.37916373865443</v>
+        <v>66.10516607888127</v>
       </c>
       <c r="E25">
-        <v>2.107697219532494</v>
+        <v>2.107630404532515</v>
       </c>
       <c r="F25">
-        <v>16763.15316491382</v>
+        <v>16770.28832429651</v>
       </c>
       <c r="G25">
-        <v>763.1531649138196</v>
+        <v>770.2883242965145</v>
       </c>
       <c r="H25">
-        <v>763.1531649138196</v>
+        <v>770.2883242965145</v>
       </c>
       <c r="I25">
-        <v>1700758.049089233</v>
+        <v>1868111.071053541</v>
       </c>
       <c r="J25">
-        <v>941.3794598947545</v>
+        <v>970.9355282349806</v>
       </c>
       <c r="K25">
-        <v>4.769707280711373</v>
+        <v>4.814302026853215</v>
       </c>
       <c r="L25">
-        <v>17.95144146733698</v>
+        <v>18.52633399296905</v>
       </c>
       <c r="M25">
-        <v>6.26519345448625</v>
+        <v>7.8113797960373</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10515,37 +10515,37 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>8032.401667614898</v>
+        <v>8058.455814972745</v>
       </c>
       <c r="D26">
-        <v>81.90133043688712</v>
+        <v>76.26136297349368</v>
       </c>
       <c r="E26">
-        <v>1.11550910961579</v>
+        <v>1.114697900275149</v>
       </c>
       <c r="F26">
-        <v>8783.879803880096</v>
+        <v>8757.92890892574</v>
       </c>
       <c r="G26">
-        <v>-1216.120196119904</v>
+        <v>-1242.07109107426</v>
       </c>
       <c r="H26">
-        <v>1216.120196119904</v>
+        <v>1242.07109107426</v>
       </c>
       <c r="I26">
-        <v>1691515.977519294</v>
+        <v>1854553.96789641</v>
       </c>
       <c r="J26">
-        <v>952.8269905708024</v>
+        <v>982.232843353284</v>
       </c>
       <c r="K26">
-        <v>12.16120196119904</v>
+        <v>12.4207109107426</v>
       </c>
       <c r="L26">
-        <v>17.71018148791456</v>
+        <v>18.27193303120961</v>
       </c>
       <c r="M26">
-        <v>4.91359321317695</v>
+        <v>6.456997564633578</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10556,37 +10556,37 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>7947.543020344239</v>
+        <v>7832.635745865207</v>
       </c>
       <c r="D27">
-        <v>65.22533266613259</v>
+        <v>46.05321976539051</v>
       </c>
       <c r="E27">
-        <v>0.4018046917688251</v>
+        <v>0.4022406043997565</v>
       </c>
       <c r="F27">
-        <v>3395.742776150753</v>
+        <v>3404.889055506665</v>
       </c>
       <c r="G27">
-        <v>1395.742776150753</v>
+        <v>1404.889055506665</v>
       </c>
       <c r="H27">
-        <v>1395.742776150753</v>
+        <v>1404.889055506665</v>
       </c>
       <c r="I27">
-        <v>1701779.254305603</v>
+        <v>1859320.33951185</v>
       </c>
       <c r="J27">
-        <v>970.5436219940004</v>
+        <v>999.1390918394193</v>
       </c>
       <c r="K27">
-        <v>69.78713880753766</v>
+        <v>70.24445277533323</v>
       </c>
       <c r="L27">
-        <v>19.79325978069948</v>
+        <v>20.35083382097456</v>
       </c>
       <c r="M27">
-        <v>6.262002935905992</v>
+        <v>7.753839476623193</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10597,37 +10597,37 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>8127.669842578275</v>
+        <v>8098.202017604459</v>
       </c>
       <c r="D28">
-        <v>76.71548162292292</v>
+        <v>68.00452496277661</v>
       </c>
       <c r="E28">
-        <v>0.4979539075412898</v>
+        <v>0.4978848473314668</v>
       </c>
       <c r="F28">
-        <v>3885.619833119709</v>
+        <v>3818.03672184905</v>
       </c>
       <c r="G28">
-        <v>-1114.380166880291</v>
+        <v>-1181.96327815095</v>
       </c>
       <c r="H28">
-        <v>1114.380166880291</v>
+        <v>1181.96327815095</v>
       </c>
       <c r="I28">
-        <v>1684089.404383701</v>
+        <v>1841540.218411292</v>
       </c>
       <c r="J28">
-        <v>976.0757967973193</v>
+        <v>1006.17079131294</v>
       </c>
       <c r="K28">
-        <v>22.28760333760582</v>
+        <v>23.639265563019</v>
       </c>
       <c r="L28">
-        <v>19.88919607134973</v>
+        <v>20.47731196489934</v>
       </c>
       <c r="M28">
-        <v>5.0848170395742</v>
+        <v>6.524936831275072</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10638,37 +10638,37 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>8337.174641736907</v>
+        <v>8408.834762047776</v>
       </c>
       <c r="D29">
-        <v>89.99441337649378</v>
+        <v>92.26734691083068</v>
       </c>
       <c r="E29">
-        <v>0.4743304460324308</v>
+        <v>0.4737467301087414</v>
       </c>
       <c r="F29">
-        <v>3777.281598205075</v>
+        <v>3759.045143522405</v>
       </c>
       <c r="G29">
-        <v>-1222.718401794925</v>
+        <v>-1240.954856477595</v>
       </c>
       <c r="H29">
-        <v>1222.718401794925</v>
+        <v>1240.954856477595</v>
       </c>
       <c r="I29">
-        <v>1677087.585335709</v>
+        <v>1830370.91238922</v>
       </c>
       <c r="J29">
-        <v>985.2107080935269</v>
+        <v>1014.866497430149</v>
       </c>
       <c r="K29">
-        <v>24.4543680358985</v>
+        <v>24.81909712955189</v>
       </c>
       <c r="L29">
-        <v>20.05827651448116</v>
+        <v>20.63811882284944</v>
       </c>
       <c r="M29">
-        <v>3.796597429309471</v>
+        <v>5.246252597553942</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10679,37 +10679,37 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>8352.951091788282</v>
+        <v>8364.229765123247</v>
       </c>
       <c r="D30">
-        <v>82.57261704398191</v>
+        <v>78.58011252729474</v>
       </c>
       <c r="E30">
-        <v>0.4248069916755233</v>
+        <v>0.4226699747584565</v>
       </c>
       <c r="F30">
-        <v>3641.394181187552</v>
+        <v>3653.612678508636</v>
       </c>
       <c r="G30">
-        <v>641.3941811875525</v>
+        <v>653.6126785086362</v>
       </c>
       <c r="H30">
-        <v>641.3941811875525</v>
+        <v>653.6126785086362</v>
       </c>
       <c r="I30">
-        <v>1631883.974990193</v>
+        <v>1780258.006000577</v>
       </c>
       <c r="J30">
-        <v>972.9315464183136</v>
+        <v>1001.964575325809</v>
       </c>
       <c r="K30">
-        <v>21.37980603958508</v>
+        <v>21.78708928362121</v>
       </c>
       <c r="L30">
-        <v>20.10547399752059</v>
+        <v>20.67915348216271</v>
       </c>
       <c r="M30">
-        <v>4.50375223107384</v>
+        <v>5.966137749808373</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10720,37 +10720,37 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>8333.564865662838</v>
+        <v>8260.897393882306</v>
       </c>
       <c r="D31">
-        <v>72.37673272703937</v>
+        <v>60.38886415047108</v>
       </c>
       <c r="E31">
-        <v>0.6108199278257516</v>
+        <v>0.6090323246615289</v>
       </c>
       <c r="F31">
-        <v>5275.213438333793</v>
+        <v>5259.039735758859</v>
       </c>
       <c r="G31">
-        <v>1275.213438333793</v>
+        <v>1259.039735758859</v>
       </c>
       <c r="H31">
-        <v>1275.213438333793</v>
+        <v>1259.039735758859</v>
       </c>
       <c r="I31">
-        <v>1631686.917690776</v>
+        <v>1773531.214628824</v>
       </c>
       <c r="J31">
-        <v>983.3550599326405</v>
+        <v>1010.829236030397</v>
       </c>
       <c r="K31">
-        <v>31.88033595834484</v>
+        <v>31.47599339397147</v>
       </c>
       <c r="L31">
-        <v>20.51150372030763</v>
+        <v>21.05145830670785</v>
       </c>
       <c r="M31">
-        <v>5.752811259836198</v>
+        <v>7.159367927465902</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10761,37 +10761,37 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>8333.872267210936</v>
+        <v>8202.779747206065</v>
       </c>
       <c r="D32">
-        <v>65.16979960914523</v>
+        <v>48.53821306779989</v>
       </c>
       <c r="E32">
-        <v>0.8473499817220641</v>
+        <v>0.8440737070746839</v>
       </c>
       <c r="F32">
-        <v>7241.762003854039</v>
+        <v>7127.900744250745</v>
       </c>
       <c r="G32">
-        <v>1241.762003854039</v>
+        <v>1127.900744250745</v>
       </c>
       <c r="H32">
-        <v>1241.762003854039</v>
+        <v>1127.900744250745</v>
       </c>
       <c r="I32">
-        <v>1628696.449574937</v>
+        <v>1756818.843770576</v>
       </c>
       <c r="J32">
-        <v>991.9686247300203</v>
+        <v>1014.731619637742</v>
       </c>
       <c r="K32">
-        <v>20.69603339756732</v>
+        <v>18.79834573751242</v>
       </c>
       <c r="L32">
-        <v>20.51765470954962</v>
+        <v>20.97635455440133</v>
       </c>
       <c r="M32">
-        <v>6.95467365908781</v>
+        <v>8.243361096619671</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10802,37 +10802,37 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>8403.500359133148</v>
+        <v>8274.940165842814</v>
       </c>
       <c r="D33">
-        <v>65.61562884045189</v>
+        <v>50.90043362469485</v>
       </c>
       <c r="E33">
-        <v>0.8255047583977313</v>
+        <v>0.8245689935576525</v>
       </c>
       <c r="F33">
-        <v>6926.467290832113</v>
+        <v>6784.199126127964</v>
       </c>
       <c r="G33">
-        <v>-73.53270916788733</v>
+        <v>-215.8008738720364</v>
       </c>
       <c r="H33">
-        <v>73.53270916788733</v>
+        <v>215.8008738720364</v>
       </c>
       <c r="I33">
-        <v>1576332.275695667</v>
+        <v>1701649.526783265</v>
       </c>
       <c r="J33">
-        <v>962.3416597118871</v>
+        <v>988.9596600969129</v>
       </c>
       <c r="K33">
-        <v>1.050467273826962</v>
+        <v>3.082869626743377</v>
       </c>
       <c r="L33">
-        <v>19.88968092130051</v>
+        <v>20.39914536318656</v>
       </c>
       <c r="M33">
-        <v>7.092372326401155</v>
+        <v>8.23997035648657</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10843,37 +10843,37 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>8493.418300229268</v>
+        <v>8384.092637493026</v>
       </c>
       <c r="D34">
-        <v>68.04586006601876</v>
+        <v>56.72563742724654</v>
       </c>
       <c r="E34">
-        <v>1.122745144045616</v>
+        <v>1.122272964937981</v>
       </c>
       <c r="F34">
-        <v>9457.244623310624</v>
+        <v>9278.681932349202</v>
       </c>
       <c r="G34">
-        <v>-542.7553766893761</v>
+        <v>-721.3180676507982</v>
       </c>
       <c r="H34">
-        <v>542.7553766893761</v>
+        <v>721.3180676507982</v>
       </c>
       <c r="I34">
-        <v>1536277.623296591</v>
+        <v>1664732.346406272</v>
       </c>
       <c r="J34">
-        <v>949.2295883674335</v>
+        <v>980.5958603329718</v>
       </c>
       <c r="K34">
-        <v>5.427553766893761</v>
+        <v>7.213180676507982</v>
       </c>
       <c r="L34">
-        <v>19.43773944772529</v>
+        <v>19.98708396672785</v>
       </c>
       <c r="M34">
-        <v>6.618556834073626</v>
+        <v>7.574659975401739</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10884,37 +10884,37 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>8576.625720793476</v>
+        <v>8479.833146695766</v>
       </c>
       <c r="D35">
-        <v>69.56201611583764</v>
+        <v>60.62712460479591</v>
       </c>
       <c r="E35">
-        <v>1.697788926965725</v>
+        <v>1.69813413070183</v>
       </c>
       <c r="F35">
-        <v>14486.90079472818</v>
+        <v>14267.26995001316</v>
       </c>
       <c r="G35">
-        <v>-513.0992052718211</v>
+        <v>-732.7300499868415</v>
       </c>
       <c r="H35">
-        <v>513.0992052718211</v>
+        <v>732.7300499868415</v>
       </c>
       <c r="I35">
-        <v>1497701.658786105</v>
+        <v>1630555.406398619</v>
       </c>
       <c r="J35">
-        <v>936.0135161524149</v>
+        <v>973.084775170968</v>
       </c>
       <c r="K35">
-        <v>3.420661368478808</v>
+        <v>4.884866999912277</v>
       </c>
       <c r="L35">
-        <v>18.95237344532388</v>
+        <v>19.5294410283395</v>
       </c>
       <c r="M35">
-        <v>6.163832759208672</v>
+        <v>6.88013042249651</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -10925,37 +10925,37 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>8641.640142216482</v>
+        <v>8542.143345554336</v>
       </c>
       <c r="D36">
-        <v>69.10725664655446</v>
+        <v>60.79543203017327</v>
       </c>
       <c r="E36">
-        <v>1.751559206033624</v>
+        <v>1.752857335832767</v>
       </c>
       <c r="F36">
-        <v>15159.46707172981</v>
+        <v>14967.2266507814</v>
       </c>
       <c r="G36">
-        <v>159.4670717298104</v>
+        <v>-32.77334921860165</v>
       </c>
       <c r="H36">
-        <v>159.4670717298104</v>
+        <v>32.77334921860165</v>
       </c>
       <c r="I36">
-        <v>1454399.543732575</v>
+        <v>1582629.485399218</v>
       </c>
       <c r="J36">
-        <v>913.1739148458678</v>
+        <v>945.4285567606042</v>
       </c>
       <c r="K36">
-        <v>1.063113811532069</v>
+        <v>0.2184889947906777</v>
       </c>
       <c r="L36">
-        <v>18.42621875021236</v>
+        <v>18.96147185088219</v>
       </c>
       <c r="M36">
-        <v>6.492627252337671</v>
+        <v>7.046726871600419</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -10966,37 +10966,37 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>8702.216333079465</v>
+        <v>8597.310001205267</v>
       </c>
       <c r="D37">
-        <v>68.2541500681973</v>
+        <v>60.23255439224912</v>
       </c>
       <c r="E37">
-        <v>2.103771355638452</v>
+        <v>2.106235177935884</v>
       </c>
       <c r="F37">
-        <v>18359.61807263353</v>
+        <v>18131.8153359689</v>
       </c>
       <c r="G37">
-        <v>359.618072633526</v>
+        <v>131.8153359688986</v>
       </c>
       <c r="H37">
-        <v>359.618072633526</v>
+        <v>131.8153359688986</v>
       </c>
       <c r="I37">
-        <v>1416540.275573491</v>
+        <v>1537907.936753429</v>
       </c>
       <c r="J37">
-        <v>897.3580336398009</v>
+        <v>922.1824647379841</v>
       </c>
       <c r="K37">
-        <v>1.997878181297367</v>
+        <v>0.7323074220494366</v>
       </c>
       <c r="L37">
-        <v>17.9568375911005</v>
+        <v>18.44063858148697</v>
       </c>
       <c r="M37">
-        <v>7.007811467156146</v>
+        <v>7.367297050050284</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -11007,37 +11007,37 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>8690.527625478759</v>
+        <v>8524.2786410361</v>
       </c>
       <c r="D38">
-        <v>60.25986430130697</v>
+        <v>46.90616293610752</v>
       </c>
       <c r="E38">
-        <v>1.096012448347242</v>
+        <v>1.097077693735999</v>
       </c>
       <c r="F38">
-        <v>9783.539719567618</v>
+        <v>9650.544508267296</v>
       </c>
       <c r="G38">
-        <v>1783.539719567618</v>
+        <v>1650.544508267296</v>
       </c>
       <c r="H38">
-        <v>1783.539719567618</v>
+        <v>1650.544508267296</v>
       </c>
       <c r="I38">
-        <v>1465553.43267632</v>
+        <v>1570863.193337259</v>
       </c>
       <c r="J38">
-        <v>921.9741915822402</v>
+        <v>942.4147437249093</v>
       </c>
       <c r="K38">
-        <v>22.29424649459522</v>
+        <v>20.6318063533412</v>
       </c>
       <c r="L38">
-        <v>18.07732117175313</v>
+        <v>18.50150435292736</v>
       </c>
       <c r="M38">
-        <v>8.755186112097668</v>
+        <v>8.960531142543864</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -11048,37 +11048,37 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>8935.440949574428</v>
+        <v>8918.511574154993</v>
       </c>
       <c r="D39">
-        <v>78.72521028074317</v>
+        <v>81.63883995438599</v>
       </c>
       <c r="E39">
-        <v>0.4175811700802267</v>
+        <v>0.4180797105366963</v>
       </c>
       <c r="F39">
-        <v>3516.107470065569</v>
+        <v>3447.67855597179</v>
       </c>
       <c r="G39">
-        <v>-1483.892529934431</v>
+        <v>-1552.32144402821</v>
       </c>
       <c r="H39">
-        <v>1483.892529934431</v>
+        <v>1552.32144402821</v>
       </c>
       <c r="I39">
-        <v>1485455.692344398</v>
+        <v>1593534.508803545</v>
       </c>
       <c r="J39">
-        <v>937.1611736998672</v>
+        <v>958.8987085979714</v>
       </c>
       <c r="K39">
-        <v>29.67785059868862</v>
+        <v>31.04642888056421</v>
       </c>
       <c r="L39">
-        <v>18.39084899410274</v>
+        <v>18.84055636718782</v>
       </c>
       <c r="M39">
-        <v>7.029914696432763</v>
+        <v>7.187636352528419</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -11089,37 +11089,37 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>8965.101451744025</v>
+        <v>8913.195636168135</v>
       </c>
       <c r="D40">
-        <v>73.81873946962862</v>
+        <v>72.94336216026164</v>
       </c>
       <c r="E40">
-        <v>0.4927759706055095</v>
+        <v>0.4929736452618883</v>
       </c>
       <c r="F40">
-        <v>4488.639262526345</v>
+        <v>4481.038514889085</v>
       </c>
       <c r="G40">
-        <v>488.6392625263452</v>
+        <v>481.0385148890855</v>
       </c>
       <c r="H40">
-        <v>488.6392625263452</v>
+        <v>481.0385148890855</v>
       </c>
       <c r="I40">
-        <v>1452648.130148027</v>
+        <v>1557688.812593102</v>
       </c>
       <c r="J40">
-        <v>925.3579655110902</v>
+        <v>946.3234403424744</v>
       </c>
       <c r="K40">
-        <v>12.21598156315863</v>
+        <v>12.02596287222714</v>
       </c>
       <c r="L40">
-        <v>18.2283524827621</v>
+        <v>18.66122495942569</v>
       </c>
       <c r="M40">
-        <v>7.647637599938513</v>
+        <v>7.791473207650906</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -11130,37 +11130,37 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>9008.6211614598</v>
+        <v>8937.28619251979</v>
       </c>
       <c r="D41">
-        <v>70.7888364942432</v>
+        <v>68.05808157940101</v>
       </c>
       <c r="E41">
-        <v>0.4712993129793436</v>
+        <v>0.4711283725367514</v>
       </c>
       <c r="F41">
-        <v>4287.435045949917</v>
+        <v>4257.153966760719</v>
       </c>
       <c r="G41">
-        <v>287.4350459499174</v>
+        <v>257.1539667607185</v>
       </c>
       <c r="H41">
-        <v>287.4350459499174</v>
+        <v>257.1539667607185</v>
       </c>
       <c r="I41">
-        <v>1417519.175673468</v>
+        <v>1519443.667722016</v>
       </c>
       <c r="J41">
-        <v>909.0009675736243</v>
+        <v>928.6524281993526</v>
       </c>
       <c r="K41">
-        <v>7.185876148747934</v>
+        <v>6.428849169017963</v>
       </c>
       <c r="L41">
-        <v>17.94521206394123</v>
+        <v>18.34757429813319</v>
       </c>
       <c r="M41">
-        <v>8.101462681665046</v>
+        <v>8.216645395259905</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -11171,37 +11171,37 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>8860.840520072432</v>
+        <v>8620.727464198924</v>
       </c>
       <c r="D42">
-        <v>48.93188870608211</v>
+        <v>29.5964005893743</v>
       </c>
       <c r="E42">
-        <v>0.404897514678931</v>
+        <v>0.4036028755314049</v>
       </c>
       <c r="F42">
-        <v>3856.996847419526</v>
+        <v>3806.288637024717</v>
       </c>
       <c r="G42">
-        <v>1856.996847419526</v>
+        <v>1806.288637024717</v>
       </c>
       <c r="H42">
-        <v>1856.996847419526</v>
+        <v>1806.288637024717</v>
       </c>
       <c r="I42">
-        <v>1468292.128564783</v>
+        <v>1563024.542035081</v>
       </c>
       <c r="J42">
-        <v>932.7008645697717</v>
+        <v>950.5933334199868</v>
       </c>
       <c r="K42">
-        <v>92.84984237097629</v>
+        <v>90.31443185123582</v>
       </c>
       <c r="L42">
-        <v>19.81782782161711</v>
+        <v>20.14674573696075</v>
       </c>
       <c r="M42">
-        <v>9.886593455735836</v>
+        <v>9.927164438482947</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -11212,37 +11212,37 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>8873.569714700716</v>
+        <v>8610.671754806022</v>
       </c>
       <c r="D43">
-        <v>45.3116192983023</v>
+        <v>25.63118959114668</v>
       </c>
       <c r="E43">
-        <v>0.6060850440506886</v>
+        <v>0.6061965710446221</v>
       </c>
       <c r="F43">
-        <v>5442.266539673964</v>
+        <v>5268.326852447119</v>
       </c>
       <c r="G43">
-        <v>442.266539673964</v>
+        <v>268.3268524471187</v>
       </c>
       <c r="H43">
-        <v>442.266539673964</v>
+        <v>268.3268524471187</v>
       </c>
       <c r="I43">
-        <v>1437250.849626988</v>
+        <v>1526658.072710913</v>
       </c>
       <c r="J43">
-        <v>920.7390517674348</v>
+        <v>933.9526875425998</v>
       </c>
       <c r="K43">
-        <v>8.845330793479279</v>
+        <v>5.366537048942373</v>
       </c>
       <c r="L43">
-        <v>19.55020594288204</v>
+        <v>19.78625284213103</v>
       </c>
       <c r="M43">
-        <v>10.49537410728777</v>
+        <v>10.3913434983186</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -11253,37 +11253,37 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>8885.989733871022</v>
+        <v>8605.415995148254</v>
       </c>
       <c r="D44">
-        <v>42.02245928550265</v>
+        <v>22.54249466625521</v>
       </c>
       <c r="E44">
-        <v>0.8413906766312695</v>
+        <v>0.8410104573713204</v>
       </c>
       <c r="F44">
-        <v>7557.413935345327</v>
+        <v>7289.676241697325</v>
       </c>
       <c r="G44">
-        <v>557.4139353453265</v>
+        <v>289.6762416973252</v>
       </c>
       <c r="H44">
-        <v>557.4139353453265</v>
+        <v>289.6762416973252</v>
       </c>
       <c r="I44">
-        <v>1410428.455476754</v>
+        <v>1492306.983479793</v>
       </c>
       <c r="J44">
-        <v>912.0884537573847</v>
+        <v>918.6127721653313</v>
       </c>
       <c r="K44">
-        <v>7.96305621921895</v>
+        <v>4.138232024247503</v>
       </c>
       <c r="L44">
-        <v>19.27432142565197</v>
+        <v>19.41368091789571</v>
       </c>
       <c r="M44">
-        <v>11.20605649235936</v>
+        <v>10.88020952024327</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -11294,37 +11294,37 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>9087.301611222436</v>
+        <v>8942.92154041765</v>
       </c>
       <c r="D45">
-        <v>57.95140109209382</v>
+        <v>54.03879972656928</v>
       </c>
       <c r="E45">
-        <v>0.8529979503905568</v>
+        <v>0.8539323752454463</v>
       </c>
       <c r="F45">
-        <v>7370.116548483676</v>
+        <v>7114.347048403553</v>
       </c>
       <c r="G45">
-        <v>-2629.883451516324</v>
+        <v>-2885.652951596447</v>
       </c>
       <c r="H45">
-        <v>2629.883451516324</v>
+        <v>2885.652951596447</v>
       </c>
       <c r="I45">
-        <v>1538471.676711234</v>
+        <v>1651253.168911828</v>
       </c>
       <c r="J45">
-        <v>952.0371746354996</v>
+        <v>964.3578926172178</v>
       </c>
       <c r="K45">
-        <v>26.29883451516324</v>
+        <v>28.85652951596447</v>
       </c>
       <c r="L45">
-        <v>19.43768219517549</v>
+        <v>19.63328204808336</v>
       </c>
       <c r="M45">
-        <v>7.973461005053673</v>
+        <v>7.371792704719061</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -11335,37 +11335,37 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>9311.462218791565</v>
+        <v>9309.955421467181</v>
       </c>
       <c r="D46">
-        <v>74.57232173979733</v>
+        <v>85.33830785886541</v>
       </c>
       <c r="E46">
-        <v>1.16082295531281</v>
+        <v>1.160422328333643</v>
       </c>
       <c r="F46">
-        <v>10267.78841064468</v>
+        <v>10097.04535636308</v>
       </c>
       <c r="G46">
-        <v>-3732.211589355318</v>
+        <v>-3902.95464363692</v>
       </c>
       <c r="H46">
-        <v>3732.211589355318</v>
+        <v>3902.95464363692</v>
       </c>
       <c r="I46">
-        <v>1820083.76014321</v>
+        <v>1959930.4821249</v>
       </c>
       <c r="J46">
-        <v>1015.222956788223</v>
+        <v>1031.14418241312</v>
       </c>
       <c r="K46">
-        <v>26.65865420968084</v>
+        <v>27.87824745454943</v>
       </c>
       <c r="L46">
-        <v>19.60179519550516</v>
+        <v>19.82066762550304</v>
       </c>
       <c r="M46">
-        <v>3.8009578803952</v>
+        <v>3.109256579806253</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -11376,37 +11376,37 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>9387.933907641833</v>
+        <v>9397.706845256962</v>
       </c>
       <c r="D47">
-        <v>74.7622584508444</v>
+        <v>85.579619451957</v>
       </c>
       <c r="E47">
-        <v>1.6984415707223</v>
+        <v>1.698575017573714</v>
       </c>
       <c r="F47">
-        <v>15935.50551103197</v>
+        <v>15954.46894973744</v>
       </c>
       <c r="G47">
-        <v>-64.49448896802824</v>
+        <v>-45.53105026256162</v>
       </c>
       <c r="H47">
-        <v>64.49448896802824</v>
+        <v>45.53105026256162</v>
       </c>
       <c r="I47">
-        <v>1779729.888564633</v>
+        <v>1916422.539778525</v>
       </c>
       <c r="J47">
-        <v>994.0956575033296</v>
+        <v>1009.24166836533</v>
       </c>
       <c r="K47">
-        <v>0.4030905560501764</v>
+        <v>0.2845690641410101</v>
       </c>
       <c r="L47">
-        <v>19.17515731462838</v>
+        <v>19.38653210191722</v>
       </c>
       <c r="M47">
-        <v>3.816861265166098</v>
+        <v>3.131619395732577</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -11417,37 +11417,37 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>9446.297274703798</v>
+        <v>9451.306484863302</v>
       </c>
       <c r="D48">
-        <v>73.12236931195652</v>
+        <v>82.38162146739532</v>
       </c>
       <c r="E48">
-        <v>1.745781821111605</v>
+        <v>1.746860366989314</v>
       </c>
       <c r="F48">
-        <v>16574.4725836187</v>
+        <v>16622.84824746861</v>
       </c>
       <c r="G48">
-        <v>574.4725836187026</v>
+        <v>622.8482474686134</v>
       </c>
       <c r="H48">
-        <v>574.4725836187026</v>
+        <v>622.8482474686134</v>
       </c>
       <c r="I48">
-        <v>1748214.429016044</v>
+        <v>1883194.657161051</v>
       </c>
       <c r="J48">
-        <v>984.9734167667073</v>
+        <v>1000.841811389314</v>
       </c>
       <c r="K48">
-        <v>3.590453647616892</v>
+        <v>3.892801546678834</v>
       </c>
       <c r="L48">
-        <v>18.83635940882378</v>
+        <v>19.04971187245551</v>
       </c>
       <c r="M48">
-        <v>4.435447412331274</v>
+        <v>3.780226793134333</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -11458,37 +11458,37 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>9518.785488376388</v>
+        <v>9530.261597302815</v>
       </c>
       <c r="D49">
-        <v>73.05895374801987</v>
+        <v>82.03897056460708</v>
       </c>
       <c r="E49">
-        <v>2.103505058525819</v>
+        <v>2.105469488238644</v>
       </c>
       <c r="F49">
-        <v>20026.68236938233</v>
+        <v>20080.18926502265</v>
       </c>
       <c r="G49">
-        <v>26.68236938233167</v>
+        <v>80.18926502265458</v>
       </c>
       <c r="H49">
-        <v>26.68236938233167</v>
+        <v>80.18926502265458</v>
       </c>
       <c r="I49">
-        <v>1711033.525182423</v>
+        <v>1843263.501013473</v>
       </c>
       <c r="J49">
-        <v>964.5842455457631</v>
+        <v>981.2534593389598</v>
       </c>
       <c r="K49">
-        <v>0.1334118469116584</v>
+        <v>0.4009463251132729</v>
       </c>
       <c r="L49">
-        <v>18.43842435431501</v>
+        <v>18.65292962676738</v>
       </c>
       <c r="M49">
-        <v>4.556864972958737</v>
+        <v>3.937411134049328</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -11499,37 +11499,37 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>9659.691257690418</v>
+        <v>9731.626985935232</v>
       </c>
       <c r="D50">
-        <v>79.84363530462082</v>
+        <v>93.97161237138812</v>
       </c>
       <c r="E50">
-        <v>1.110638776422225</v>
+        <v>1.110679212905241</v>
       </c>
       <c r="F50">
-        <v>10512.78091117865</v>
+        <v>10545.44053849322</v>
       </c>
       <c r="G50">
-        <v>-1487.219088821346</v>
+        <v>-1454.55946150678</v>
       </c>
       <c r="H50">
-        <v>1487.219088821346</v>
+        <v>1454.55946150678</v>
       </c>
       <c r="I50">
-        <v>1721466.589619343</v>
+        <v>1848940.161972752</v>
       </c>
       <c r="J50">
-        <v>975.4724714473377</v>
+        <v>991.1140010507894</v>
       </c>
       <c r="K50">
-        <v>12.39349240684455</v>
+        <v>12.12132884588983</v>
       </c>
       <c r="L50">
-        <v>18.31248827207604</v>
+        <v>18.5168546104991</v>
       </c>
       <c r="M50">
-        <v>2.981387131160036</v>
+        <v>2.430637476682572</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -11540,37 +11540,37 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>9851.244147409778</v>
+        <v>10017.64449379446</v>
       </c>
       <c r="D51">
-        <v>91.01456074609473</v>
+        <v>113.1762019201724</v>
       </c>
       <c r="E51">
-        <v>0.4265780635580081</v>
+        <v>0.4261836724039574</v>
       </c>
       <c r="F51">
-        <v>4067.046376654063</v>
+        <v>4107.883417829801</v>
       </c>
       <c r="G51">
-        <v>-932.9536233459371</v>
+        <v>-892.1165821701989</v>
       </c>
       <c r="H51">
-        <v>932.9536233459371</v>
+        <v>892.1165821701989</v>
       </c>
       <c r="I51">
-        <v>1704097.933980465</v>
+        <v>1827448.974915819</v>
       </c>
       <c r="J51">
-        <v>974.6047398534316</v>
+        <v>989.0936455634305</v>
       </c>
       <c r="K51">
-        <v>18.65907246691874</v>
+        <v>17.84233164340398</v>
       </c>
       <c r="L51">
-        <v>18.31956141890957</v>
+        <v>18.50308883566042</v>
       </c>
       <c r="M51">
-        <v>2.026778004511955</v>
+        <v>1.533648769510147</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -11581,37 +11581,37 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>9648.07774582526</v>
+        <v>9584.17791410238</v>
       </c>
       <c r="D52">
-        <v>61.59646451303345</v>
+        <v>58.51192375894681</v>
       </c>
       <c r="E52">
-        <v>0.4642278914104774</v>
+        <v>0.4645440068768968</v>
       </c>
       <c r="F52">
-        <v>4899.306184922589</v>
+        <v>4994.227607861023</v>
       </c>
       <c r="G52">
-        <v>2899.306184922589</v>
+        <v>2994.227607861023</v>
       </c>
       <c r="H52">
-        <v>2899.306184922589</v>
+        <v>2994.227607861023</v>
       </c>
       <c r="I52">
-        <v>1838135.502379463</v>
+        <v>1970207.974771045</v>
       </c>
       <c r="J52">
-        <v>1013.098768754815</v>
+        <v>1029.196324809382</v>
       </c>
       <c r="K52">
-        <v>144.9653092461294</v>
+        <v>149.7113803930511</v>
       </c>
       <c r="L52">
-        <v>20.85247637545396</v>
+        <v>21.12725466680823</v>
       </c>
       <c r="M52">
-        <v>4.811587759347431</v>
+        <v>4.383177195220935</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -11622,37 +11622,37 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>9542.459582480902</v>
+        <v>9347.93996200639</v>
       </c>
       <c r="D53">
-        <v>44.87500172729435</v>
+        <v>29.03693617345319</v>
       </c>
       <c r="E53">
-        <v>0.4556078171714346</v>
+        <v>0.4561081675870187</v>
       </c>
       <c r="F53">
-        <v>4576.162784585688</v>
+        <v>4542.944770188278</v>
       </c>
       <c r="G53">
-        <v>1576.162784585688</v>
+        <v>1542.944770188278</v>
       </c>
       <c r="H53">
-        <v>1576.162784585688</v>
+        <v>1542.944770188278</v>
       </c>
       <c r="I53">
-        <v>1850805.181225217</v>
+        <v>1978256.417694189</v>
       </c>
       <c r="J53">
-        <v>1024.139239653459</v>
+        <v>1039.26982373838</v>
       </c>
       <c r="K53">
-        <v>52.53875948618961</v>
+        <v>51.43149233960928</v>
       </c>
       <c r="L53">
-        <v>21.47377604429191</v>
+        <v>21.72145540549061</v>
       </c>
       <c r="M53">
-        <v>6.29872986950395</v>
+        <v>5.825334761208254</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -11663,37 +11663,37 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>9354.943932584471</v>
+        <v>8979.031924722321</v>
       </c>
       <c r="D54">
-        <v>21.63593656492176</v>
+        <v>-10.75756117229903</v>
       </c>
       <c r="E54">
-        <v>0.385786833084816</v>
+        <v>0.385516704127616</v>
       </c>
       <c r="F54">
-        <v>3881.887945541261</v>
+        <v>3784.574839896939</v>
       </c>
       <c r="G54">
-        <v>1881.887945541261</v>
+        <v>1784.574839896939</v>
       </c>
       <c r="H54">
-        <v>1881.887945541261</v>
+        <v>1784.574839896939</v>
       </c>
       <c r="I54">
-        <v>1883318.586193454</v>
+        <v>2001457.3973384</v>
       </c>
       <c r="J54">
-        <v>1040.634407074378</v>
+        <v>1053.60261251066</v>
       </c>
       <c r="K54">
-        <v>94.09439727706304</v>
+        <v>89.22874199484697</v>
       </c>
       <c r="L54">
-        <v>22.87032645261444</v>
+        <v>23.01967245528592</v>
       </c>
       <c r="M54">
-        <v>8.007292770862609</v>
+        <v>7.439872848944355</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -11704,37 +11704,37 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>9485.227590281054</v>
+        <v>9200.396519394773</v>
       </c>
       <c r="D55">
-        <v>32.50070867808796</v>
+        <v>12.45465441217606</v>
       </c>
       <c r="E55">
-        <v>0.6192755068646297</v>
+        <v>0.6216605912604118</v>
       </c>
       <c r="F55">
-        <v>5683.00482303821</v>
+        <v>5436.537167371414</v>
       </c>
       <c r="G55">
-        <v>-1316.99517696179</v>
+        <v>-1563.462832628586</v>
       </c>
       <c r="H55">
-        <v>1316.99517696179</v>
+        <v>1563.462832628586</v>
       </c>
       <c r="I55">
-        <v>1880510.241098117</v>
+        <v>2009815.107369959</v>
       </c>
       <c r="J55">
-        <v>1045.848761223198</v>
+        <v>1063.222616663829</v>
       </c>
       <c r="K55">
-        <v>18.81421681373986</v>
+        <v>22.33518332326551</v>
       </c>
       <c r="L55">
-        <v>22.79379608206963</v>
+        <v>23.00675756600252</v>
       </c>
       <c r="M55">
-        <v>6.708110625584556</v>
+        <v>5.902062784797232</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -11745,37 +11745,37 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>9398.394444352272</v>
+        <v>9025.779330924392</v>
       </c>
       <c r="D56">
-        <v>20.56732321740097</v>
+        <v>-6.252529876079716</v>
       </c>
       <c r="E56">
-        <v>0.8210923004343914</v>
+        <v>0.8233856657061511</v>
       </c>
       <c r="F56">
-        <v>8008.127853453815</v>
+        <v>7748.104179377289</v>
       </c>
       <c r="G56">
-        <v>2008.127853453815</v>
+        <v>1748.104179377289</v>
       </c>
       <c r="H56">
-        <v>2008.127853453815</v>
+        <v>1748.104179377289</v>
       </c>
       <c r="I56">
-        <v>1920363.338037356</v>
+        <v>2029186.461343781</v>
       </c>
       <c r="J56">
-        <v>1063.668744412653</v>
+        <v>1075.90560856593</v>
       </c>
       <c r="K56">
-        <v>33.46879755756358</v>
+        <v>29.13506965628815</v>
       </c>
       <c r="L56">
-        <v>22.99148129457878</v>
+        <v>23.12024482693374</v>
       </c>
       <c r="M56">
-        <v>8.483653476489465</v>
+        <v>7.457262749878072</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -11786,37 +11786,37 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>9416.947982980379</v>
+        <v>9050.927490077662</v>
       </c>
       <c r="D57">
-        <v>20.3659447584715</v>
+        <v>-3.112460973144728</v>
       </c>
       <c r="E57">
-        <v>0.8526513696461825</v>
+        <v>0.8569278692489161</v>
       </c>
       <c r="F57">
-        <v>8034.355082543948</v>
+        <v>7702.065944809147</v>
       </c>
       <c r="G57">
-        <v>34.3550825439479</v>
+        <v>-297.9340551908526</v>
       </c>
       <c r="H57">
-        <v>34.3550825439479</v>
+        <v>297.9340551908526</v>
       </c>
       <c r="I57">
-        <v>1885469.100467524</v>
+        <v>1993906.065705575</v>
       </c>
       <c r="J57">
-        <v>1044.953950560495</v>
+        <v>1061.760671231837</v>
       </c>
       <c r="K57">
-        <v>0.4294385317993488</v>
+        <v>3.724175689885658</v>
       </c>
       <c r="L57">
-        <v>22.58126233525552</v>
+        <v>22.76758902444195</v>
       </c>
       <c r="M57">
-        <v>8.668470145555126</v>
+        <v>7.276005762192995</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -11827,37 +11827,37 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>9396.177135972219</v>
+        <v>9009.091375380074</v>
       </c>
       <c r="D58">
-        <v>16.25226558180837</v>
+        <v>-6.984826345589017</v>
       </c>
       <c r="E58">
-        <v>1.15116692075224</v>
+        <v>1.155379080673499</v>
       </c>
       <c r="F58">
-        <v>10955.05064381256</v>
+        <v>10499.28658240559</v>
       </c>
       <c r="G58">
-        <v>955.0506438125594</v>
+        <v>499.286582405588</v>
       </c>
       <c r="H58">
-        <v>955.0506438125594</v>
+        <v>499.286582405588</v>
       </c>
       <c r="I58">
-        <v>1868087.897463582</v>
+        <v>1962752.155449587</v>
       </c>
       <c r="J58">
-        <v>1043.348534368568</v>
+        <v>1051.716491074226</v>
       </c>
       <c r="K58">
-        <v>9.550506438125595</v>
+        <v>4.99286582405588</v>
       </c>
       <c r="L58">
-        <v>22.34857026566392</v>
+        <v>22.45018325300649</v>
       </c>
       <c r="M58">
-        <v>9.597179118851276</v>
+        <v>7.820228563648032</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -11868,37 +11868,37 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9530.582969274492</v>
+        <v>9251.628765916026</v>
       </c>
       <c r="D59">
-        <v>28.06762235385484</v>
+        <v>17.96739534256508</v>
       </c>
       <c r="E59">
-        <v>1.738448165324734</v>
+        <v>1.744895666778065</v>
       </c>
       <c r="F59">
-        <v>15986.46137708818</v>
+        <v>15290.7532897267</v>
       </c>
       <c r="G59">
-        <v>-4013.538622911818</v>
+        <v>-4709.246710273301</v>
       </c>
       <c r="H59">
-        <v>4013.538622911818</v>
+        <v>4709.246710273301</v>
       </c>
       <c r="I59">
-        <v>2117919.553255535</v>
+        <v>2317388.162866611</v>
       </c>
       <c r="J59">
-        <v>1095.457132413186</v>
+        <v>1115.88368790228</v>
       </c>
       <c r="K59">
-        <v>20.06769311455909</v>
+        <v>23.54623355136651</v>
       </c>
       <c r="L59">
-        <v>22.30855487704804</v>
+        <v>22.46941220560929</v>
       </c>
       <c r="M59">
-        <v>5.476858899624491</v>
+        <v>3.150343241143331</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -11909,37 +11909,37 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>9653.527326015126</v>
+        <v>9465.752587259405</v>
       </c>
       <c r="D60">
-        <v>37.55529579253279</v>
+        <v>37.58303794264647</v>
       </c>
       <c r="E60">
-        <v>1.778381796005318</v>
+        <v>1.783462337404781</v>
       </c>
       <c r="F60">
-        <v>16687.31843722246</v>
+        <v>16192.69015209892</v>
       </c>
       <c r="G60">
-        <v>-3312.681562777543</v>
+        <v>-3807.309847901079</v>
       </c>
       <c r="H60">
-        <v>3312.681562777543</v>
+        <v>3807.309847901079</v>
       </c>
       <c r="I60">
-        <v>2270608.166757444</v>
+        <v>2527357.475195195</v>
       </c>
       <c r="J60">
-        <v>1133.685139833261</v>
+        <v>1162.287587212604</v>
       </c>
       <c r="K60">
-        <v>16.56340781388771</v>
+        <v>19.03654923950539</v>
       </c>
       <c r="L60">
-        <v>22.20950061733838</v>
+        <v>22.41022491309026</v>
       </c>
       <c r="M60">
-        <v>2.370131253931699</v>
+        <v>-0.2511368245066231</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -11950,37 +11950,37 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>9729.465193693832</v>
+        <v>9588.443252464807</v>
       </c>
       <c r="D61">
-        <v>41.39355298115007</v>
+        <v>46.09380066892204</v>
       </c>
       <c r="E61">
-        <v>2.119271811556689</v>
+        <v>2.124365415810222</v>
       </c>
       <c r="F61">
-        <v>20385.24131756407</v>
+        <v>20008.98319535423</v>
       </c>
       <c r="G61">
-        <v>-1614.758682435931</v>
+        <v>-1991.016804645769</v>
       </c>
       <c r="H61">
-        <v>1614.758682435931</v>
+        <v>1991.016804645769</v>
       </c>
       <c r="I61">
-        <v>2276317.275837864</v>
+        <v>2551709.855554291</v>
       </c>
       <c r="J61">
-        <v>1141.838928690934</v>
+        <v>1176.3338451352</v>
       </c>
       <c r="K61">
-        <v>7.339812192890598</v>
+        <v>9.050076384753497</v>
       </c>
       <c r="L61">
-        <v>21.95747199997486</v>
+        <v>22.18378171769472</v>
       </c>
       <c r="M61">
-        <v>0.9390325313484144</v>
+        <v>-1.940699086320538</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -11991,37 +11991,37 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>9642.468910864074</v>
+        <v>9415.680699332477</v>
       </c>
       <c r="D62">
-        <v>28.5545694000593</v>
+        <v>24.20816528879683</v>
       </c>
       <c r="E62">
-        <v>1.082541202057231</v>
+        <v>1.084575940007766</v>
       </c>
       <c r="F62">
-        <v>10851.8946030015</v>
+        <v>10700.88003088095</v>
       </c>
       <c r="G62">
-        <v>2851.894603001496</v>
+        <v>2700.880030880951</v>
       </c>
       <c r="H62">
-        <v>2851.894603001496</v>
+        <v>2700.880030880951</v>
       </c>
       <c r="I62">
-        <v>2373933.701684385</v>
+        <v>2630760.573648578</v>
       </c>
       <c r="J62">
-        <v>1170.33985659611</v>
+        <v>1201.742948230962</v>
       </c>
       <c r="K62">
-        <v>35.6486825375187</v>
+        <v>33.76100038601189</v>
       </c>
       <c r="L62">
-        <v>22.18565884226726</v>
+        <v>22.37673536216667</v>
       </c>
       <c r="M62">
-        <v>3.352973480725042</v>
+        <v>0.347803174576078</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -12029,10 +12029,10 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>0.4265780635580081</v>
+        <v>0.4261836724039574</v>
       </c>
       <c r="F63">
-        <v>4150.376421780956</v>
+        <v>4086.437957972398</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -12040,10 +12040,10 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>0.4642278914104774</v>
+        <v>0.4645440068768968</v>
       </c>
       <c r="F64">
-        <v>4535.905153238547</v>
+        <v>4475.666447066672</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12051,10 +12051,10 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>0.4556078171714346</v>
+        <v>0.4561081675870187</v>
       </c>
       <c r="F65">
-        <v>4470.538851781719</v>
+        <v>4415.414799814283</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>0.385786833084816</v>
+        <v>0.385516704127616</v>
       </c>
       <c r="F66">
-        <v>3801.406827828269</v>
+        <v>3749.814830748705</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -12073,10 +12073,10 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>0.6192755068646297</v>
+        <v>0.6216605912604118</v>
       </c>
       <c r="F67">
-        <v>6127.755543359839</v>
+        <v>6075.376099103305</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -12084,10 +12084,10 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>0.8210923004343914</v>
+        <v>0.8233856657061511</v>
       </c>
       <c r="F68">
-        <v>8158.728596088637</v>
+        <v>8084.751604259923</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -12095,10 +12095,10 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>0.8526513696461825</v>
+        <v>0.8569278692489161</v>
       </c>
       <c r="F69">
-        <v>8507.607441191301</v>
+        <v>8453.598620105637</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -12106,10 +12106,10 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>1.15116692075224</v>
+        <v>1.155379080673499</v>
       </c>
       <c r="F70">
-        <v>11533.79471006076</v>
+        <v>11451.07744141405</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -12117,10 +12117,10 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>1.738448165324734</v>
+        <v>1.744895666778065</v>
       </c>
       <c r="F71">
-        <v>17489.85528545872</v>
+        <v>17374.26406679349</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -12128,10 +12128,10 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>1.778381796005318</v>
+        <v>1.783462337404781</v>
       </c>
       <c r="F72">
-        <v>17965.2256551754</v>
+        <v>17840.48643244178</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -12139,10 +12139,10 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>2.119271811556689</v>
+        <v>2.124365415810222</v>
       </c>
       <c r="F73">
-        <v>21496.62322664858</v>
+        <v>21348.5579972382</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -12150,10 +12150,10 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>1.082541202057231</v>
+        <v>1.084575940007766</v>
       </c>
       <c r="F74">
-        <v>11025.45943877329</v>
+        <v>10949.30935283243</v>
       </c>
     </row>
   </sheetData>

--- a/hw4/ABC_alpha0.1/generated_spreadsheet.xlsx
+++ b/hw4/ABC_alpha0.1/generated_spreadsheet.xlsx
@@ -4945,7 +4945,7 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>7595.3</v>
+        <v>7906.15</v>
       </c>
       <c r="D3">
         <v>8217</v>
@@ -4980,28 +4980,28 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>7135.77</v>
+        <v>7660.8425</v>
       </c>
       <c r="D4">
-        <v>7595.3</v>
+        <v>7906.15</v>
       </c>
       <c r="E4">
-        <v>4595.3</v>
+        <v>4906.15</v>
       </c>
       <c r="F4">
-        <v>4595.3</v>
+        <v>4906.15</v>
       </c>
       <c r="G4">
-        <v>29883935.545</v>
+        <v>31360698.41125</v>
       </c>
       <c r="H4">
-        <v>5406.15</v>
+        <v>5561.575</v>
       </c>
       <c r="I4">
-        <v>153.1766666666667</v>
+        <v>163.5383333333333</v>
       </c>
       <c r="J4">
-        <v>232.0133333333333</v>
+        <v>237.1941666666667</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5015,28 +5015,28 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>6722.193</v>
+        <v>7427.800375</v>
       </c>
       <c r="D5">
-        <v>7135.77</v>
+        <v>7660.8425</v>
       </c>
       <c r="E5">
-        <v>4135.77</v>
+        <v>4660.8425</v>
       </c>
       <c r="F5">
-        <v>4135.77</v>
+        <v>4660.8425</v>
       </c>
       <c r="G5">
-        <v>25624154.86096667</v>
+        <v>28148283.21076875</v>
       </c>
       <c r="H5">
-        <v>4982.69</v>
+        <v>5261.330833333333</v>
       </c>
       <c r="I5">
-        <v>137.859</v>
+        <v>155.3614166666667</v>
       </c>
       <c r="J5">
-        <v>200.6285555555556</v>
+        <v>209.9165833333333</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -5050,28 +5050,28 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>6349.9737</v>
+        <v>7206.410356249999</v>
       </c>
       <c r="D6">
-        <v>6722.193</v>
+        <v>7427.800375</v>
       </c>
       <c r="E6">
-        <v>3722.193</v>
+        <v>4427.800375</v>
       </c>
       <c r="F6">
-        <v>3722.193</v>
+        <v>4427.800375</v>
       </c>
       <c r="G6">
-        <v>22681796.32803725</v>
+        <v>26012566.4482891</v>
       </c>
       <c r="H6">
-        <v>4667.56575</v>
+        <v>5052.94821875</v>
       </c>
       <c r="I6">
-        <v>124.0731</v>
+        <v>147.5933458333333</v>
       </c>
       <c r="J6">
-        <v>181.4896916666667</v>
+        <v>194.3357739583333</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -5085,28 +5085,28 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>6114.97633</v>
+        <v>7046.0898384375</v>
       </c>
       <c r="D7">
-        <v>6349.9737</v>
+        <v>7206.410356249999</v>
       </c>
       <c r="E7">
-        <v>2349.9737</v>
+        <v>3206.410356249999</v>
       </c>
       <c r="F7">
-        <v>2349.9737</v>
+        <v>3206.410356249999</v>
       </c>
       <c r="G7">
-        <v>19249912.34056814</v>
+        <v>22866266.63316473</v>
       </c>
       <c r="H7">
-        <v>4204.04734</v>
+        <v>4683.64064625</v>
       </c>
       <c r="I7">
-        <v>58.74934250000001</v>
+        <v>80.16025890624999</v>
       </c>
       <c r="J7">
-        <v>156.9416218333333</v>
+        <v>171.5006709479167</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -5120,28 +5120,28 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>6103.478697</v>
+        <v>6993.785346515624</v>
       </c>
       <c r="D8">
-        <v>6114.97633</v>
+        <v>7046.0898384375</v>
       </c>
       <c r="E8">
-        <v>114.9763300000004</v>
+        <v>1046.0898384375</v>
       </c>
       <c r="F8">
-        <v>114.9763300000004</v>
+        <v>1046.0898384375</v>
       </c>
       <c r="G8">
-        <v>16043796.87655016</v>
+        <v>19237606.18598431</v>
       </c>
       <c r="H8">
-        <v>3522.535505</v>
+        <v>4077.38217828125</v>
       </c>
       <c r="I8">
-        <v>1.916272166666674</v>
+        <v>17.43483064062499</v>
       </c>
       <c r="J8">
-        <v>131.1040635555555</v>
+        <v>145.8230308967014</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -5155,31 +5155,31 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>6193.1308273</v>
+        <v>6994.096079189842</v>
       </c>
       <c r="D9">
-        <v>6103.478697</v>
+        <v>6993.785346515624</v>
       </c>
       <c r="E9">
-        <v>-896.5213029999995</v>
+        <v>-6.214653484375958</v>
       </c>
       <c r="F9">
-        <v>896.5213029999995</v>
+        <v>6.214653484375958</v>
       </c>
       <c r="G9">
-        <v>13866647.38657626</v>
+        <v>16489382.24826054</v>
       </c>
       <c r="H9">
-        <v>3147.390619</v>
+        <v>3495.786817595982</v>
       </c>
       <c r="I9">
-        <v>12.80744718571428</v>
+        <v>0.08878076406251369</v>
       </c>
       <c r="J9">
-        <v>114.2045469312925</v>
+        <v>125.0038523063244</v>
       </c>
       <c r="K9">
-        <v>6.430308206685293</v>
+        <v>6.99644448943334</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5190,31 +5190,31 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>6173.81774457</v>
+        <v>6944.39127523035</v>
       </c>
       <c r="D10">
-        <v>6193.1308273</v>
+        <v>6994.096079189842</v>
       </c>
       <c r="E10">
-        <v>193.1308273000004</v>
+        <v>994.0960791898424</v>
       </c>
       <c r="F10">
-        <v>193.1308273000004</v>
+        <v>994.0960791898424</v>
       </c>
       <c r="G10">
-        <v>12137978.90281092</v>
+        <v>14551737.84406055</v>
       </c>
       <c r="H10">
-        <v>2778.1081450375</v>
+        <v>3183.075475295214</v>
       </c>
       <c r="I10">
-        <v>3.218847121666673</v>
+        <v>16.56826798649737</v>
       </c>
       <c r="J10">
-        <v>100.3313344550893</v>
+        <v>111.449404266346</v>
       </c>
       <c r="K10">
-        <v>7.354581422900009</v>
+        <v>7.996095189364747</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5225,31 +5225,31 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>6556.435970113001</v>
+        <v>7097.171711468833</v>
       </c>
       <c r="D11">
-        <v>6173.81774457</v>
+        <v>6944.39127523035</v>
       </c>
       <c r="E11">
-        <v>-3826.18225543</v>
+        <v>-3055.60872476965</v>
       </c>
       <c r="F11">
-        <v>3826.18225543</v>
+        <v>3055.60872476965</v>
       </c>
       <c r="G11">
-        <v>12415944.65269498</v>
+        <v>13972294.15904142</v>
       </c>
       <c r="H11">
-        <v>2894.56082397</v>
+        <v>3168.912503014596</v>
       </c>
       <c r="I11">
-        <v>38.2618225543</v>
+        <v>30.5560872476965</v>
       </c>
       <c r="J11">
-        <v>93.43472202166826</v>
+        <v>102.4612579309405</v>
       </c>
       <c r="K11">
-        <v>5.736842757408268</v>
+        <v>7.067587302999813</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5260,31 +5260,31 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>7100.792373101701</v>
+        <v>7342.313125895391</v>
       </c>
       <c r="D12">
-        <v>6556.435970113001</v>
+        <v>7097.171711468833</v>
       </c>
       <c r="E12">
-        <v>-5443.564029886999</v>
+        <v>-4902.828288531167</v>
       </c>
       <c r="F12">
-        <v>5443.564029886999</v>
+        <v>4902.828288531167</v>
       </c>
       <c r="G12">
-        <v>14137589.12217344</v>
+        <v>14978837.26581942</v>
       </c>
       <c r="H12">
-        <v>3149.4611445617</v>
+        <v>3342.304081566253</v>
       </c>
       <c r="I12">
-        <v>45.36303358239166</v>
+        <v>40.85690240442639</v>
       </c>
       <c r="J12">
-        <v>88.62755317774059</v>
+        <v>96.3008223782891</v>
       </c>
       <c r="K12">
-        <v>3.544122551966391</v>
+        <v>5.234035280803751</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5295,31 +5295,31 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>7790.71313579153</v>
+        <v>7675.197469600621</v>
       </c>
       <c r="D13">
-        <v>7100.792373101701</v>
+        <v>7342.313125895391</v>
       </c>
       <c r="E13">
-        <v>-6899.207626898299</v>
+        <v>-6657.686874104609</v>
       </c>
       <c r="F13">
-        <v>6899.207626898299</v>
+        <v>6657.686874104609</v>
       </c>
       <c r="G13">
-        <v>17179541.55461691</v>
+        <v>17646651.56107446</v>
       </c>
       <c r="H13">
-        <v>3490.347188410482</v>
+        <v>3643.702517251558</v>
       </c>
       <c r="I13">
-        <v>49.28005447784499</v>
+        <v>47.55490624360435</v>
       </c>
       <c r="J13">
-        <v>85.05050784138645</v>
+        <v>91.86937545695413</v>
       </c>
       <c r="K13">
-        <v>1.221330833860694</v>
+        <v>2.973911991081304</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5330,31 +5330,31 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>7811.641822212378</v>
+        <v>7691.43759612059</v>
       </c>
       <c r="D14">
-        <v>7790.71313579153</v>
+        <v>7675.197469600621</v>
       </c>
       <c r="E14">
-        <v>-209.2868642084695</v>
+        <v>-324.8025303993791</v>
       </c>
       <c r="F14">
-        <v>209.2868642084695</v>
+        <v>324.8025303993791</v>
       </c>
       <c r="G14">
-        <v>15751563.17435969</v>
+        <v>16184888.65463107</v>
       </c>
       <c r="H14">
-        <v>3216.925494726981</v>
+        <v>3367.12751834721</v>
       </c>
       <c r="I14">
-        <v>2.616085802605869</v>
+        <v>4.060031629992238</v>
       </c>
       <c r="J14">
-        <v>78.18097267148806</v>
+        <v>84.55193013804063</v>
       </c>
       <c r="K14">
-        <v>1.260079471694528</v>
+        <v>3.121725571815504</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5365,31 +5365,31 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>7330.47763999114</v>
+        <v>7456.86571631456</v>
       </c>
       <c r="D15">
-        <v>7811.641822212378</v>
+        <v>7691.43759612059</v>
       </c>
       <c r="E15">
-        <v>4811.641822212378</v>
+        <v>4691.43759612059</v>
       </c>
       <c r="F15">
-        <v>4811.641822212378</v>
+        <v>4691.43759612059</v>
       </c>
       <c r="G15">
-        <v>16320819.62442919</v>
+        <v>16632942.35183589</v>
       </c>
       <c r="H15">
-        <v>3339.595981456626</v>
+        <v>3468.997524329777</v>
       </c>
       <c r="I15">
-        <v>160.3880607404126</v>
+        <v>156.3812532040197</v>
       </c>
       <c r="J15">
-        <v>84.50459483063611</v>
+        <v>90.07726268157748</v>
       </c>
       <c r="K15">
-        <v>2.654579670509089</v>
+        <v>4.382443506253573</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5400,31 +5400,31 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>6997.429875992026</v>
+        <v>7284.022430498831</v>
       </c>
       <c r="D16">
-        <v>7330.47763999114</v>
+        <v>7456.86571631456</v>
       </c>
       <c r="E16">
-        <v>3330.47763999114</v>
+        <v>3456.86571631456</v>
       </c>
       <c r="F16">
-        <v>3330.47763999114</v>
+        <v>3456.86571631456</v>
       </c>
       <c r="G16">
-        <v>15947338.31629003</v>
+        <v>16298440.79674983</v>
       </c>
       <c r="H16">
-        <v>3338.944671351949</v>
+        <v>3468.130966614405</v>
       </c>
       <c r="I16">
-        <v>83.26194099977849</v>
+        <v>86.421642907864</v>
       </c>
       <c r="J16">
-        <v>84.4158338427177</v>
+        <v>89.81614698345508</v>
       </c>
       <c r="K16">
-        <v>3.652561644617391</v>
+        <v>5.38029029746786</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5435,31 +5435,31 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>6597.686888392824</v>
+        <v>7069.821308973889</v>
       </c>
       <c r="D17">
-        <v>6997.429875992026</v>
+        <v>7284.022430498831</v>
       </c>
       <c r="E17">
-        <v>3997.429875992026</v>
+        <v>4284.022430498831</v>
       </c>
       <c r="F17">
-        <v>3997.429875992026</v>
+        <v>4284.022430498831</v>
       </c>
       <c r="G17">
-        <v>15949478.80276894</v>
+        <v>16435401.28930098</v>
       </c>
       <c r="H17">
-        <v>3382.843684994621</v>
+        <v>3522.523730873366</v>
       </c>
       <c r="I17">
-        <v>133.2476625330675</v>
+        <v>142.8007476832944</v>
       </c>
       <c r="J17">
-        <v>87.67128908874103</v>
+        <v>93.34845369677772</v>
       </c>
       <c r="K17">
-        <v>4.786839896830032</v>
+        <v>6.513390845157931</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5470,31 +5470,31 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>6437.918199553542</v>
+        <v>6966.330243525194</v>
       </c>
       <c r="D18">
-        <v>6597.686888392824</v>
+        <v>7069.821308973889</v>
       </c>
       <c r="E18">
-        <v>1597.686888392824</v>
+        <v>2069.821308973889</v>
       </c>
       <c r="F18">
-        <v>1597.686888392824</v>
+        <v>2069.821308973889</v>
       </c>
       <c r="G18">
-        <v>15112174.08967977</v>
+        <v>15675948.72441232</v>
       </c>
       <c r="H18">
-        <v>3271.271385207009</v>
+        <v>3431.729829504649</v>
       </c>
       <c r="I18">
-        <v>31.95373776785647</v>
+        <v>41.39642617947779</v>
       </c>
       <c r="J18">
-        <v>84.18894213118574</v>
+        <v>90.10145197694646</v>
       </c>
       <c r="K18">
-        <v>5.438502621615658</v>
+        <v>7.288859080467464</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5505,31 +5505,31 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>6294.126379598188</v>
+        <v>6868.013731348934</v>
       </c>
       <c r="D19">
-        <v>6437.918199553542</v>
+        <v>6966.330243525194</v>
       </c>
       <c r="E19">
-        <v>1437.918199553542</v>
+        <v>1966.330243525194</v>
       </c>
       <c r="F19">
-        <v>1437.918199553542</v>
+        <v>1966.330243525194</v>
       </c>
       <c r="G19">
-        <v>14344846.71667551</v>
+        <v>14981272.6010117</v>
       </c>
       <c r="H19">
-        <v>3163.427080168569</v>
+        <v>3345.529853858799</v>
       </c>
       <c r="I19">
-        <v>28.75836399107083</v>
+        <v>39.32660487050389</v>
       </c>
       <c r="J19">
-        <v>80.92831988764956</v>
+        <v>87.11469626480277</v>
       </c>
       <c r="K19">
-        <v>6.078450906791096</v>
+        <v>8.064410288224533</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5540,31 +5540,31 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>6464.713741638369</v>
+        <v>6924.613044781487</v>
       </c>
       <c r="D20">
-        <v>6294.126379598188</v>
+        <v>6868.013731348934</v>
       </c>
       <c r="E20">
-        <v>-1705.873620401812</v>
+        <v>-1131.986268651066</v>
       </c>
       <c r="F20">
-        <v>1705.873620401812</v>
+        <v>1131.986268651066</v>
       </c>
       <c r="G20">
-        <v>13709577.72179258</v>
+        <v>14220168.17386742</v>
       </c>
       <c r="H20">
-        <v>3082.451887959305</v>
+        <v>3222.555210236148</v>
       </c>
       <c r="I20">
-        <v>21.32342025502265</v>
+        <v>14.14982835813833</v>
       </c>
       <c r="J20">
-        <v>77.61693657472586</v>
+        <v>83.06109249221032</v>
       </c>
       <c r="K20">
-        <v>5.684715681066836</v>
+        <v>8.020883248878782</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5575,31 +5575,31 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>6118.242367474532</v>
+        <v>6728.382392542412</v>
       </c>
       <c r="D21">
-        <v>6464.713741638369</v>
+        <v>6924.613044781487</v>
       </c>
       <c r="E21">
-        <v>3464.713741638369</v>
+        <v>3924.613044781487</v>
       </c>
       <c r="F21">
-        <v>3464.713741638369</v>
+        <v>3924.613044781487</v>
       </c>
       <c r="G21">
-        <v>13619823.17388233</v>
+        <v>14282400.77267803</v>
       </c>
       <c r="H21">
-        <v>3102.570932889782</v>
+        <v>3259.505622580639</v>
       </c>
       <c r="I21">
-        <v>115.4904580546123</v>
+        <v>130.8204348260495</v>
       </c>
       <c r="J21">
-        <v>79.61027981050935</v>
+        <v>85.57474208872816</v>
       </c>
       <c r="K21">
-        <v>6.76457582412356</v>
+        <v>9.13400852659983</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5610,31 +5610,31 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>6306.418130727079</v>
+        <v>6791.963272915291</v>
       </c>
       <c r="D22">
-        <v>6118.242367474532</v>
+        <v>6728.382392542412</v>
       </c>
       <c r="E22">
-        <v>-1881.757632525468</v>
+        <v>-1271.617607457588</v>
       </c>
       <c r="F22">
-        <v>1881.757632525468</v>
+        <v>1271.617607457588</v>
       </c>
       <c r="G22">
-        <v>13115882.6045666</v>
+        <v>13649131.30102393</v>
       </c>
       <c r="H22">
-        <v>3041.530267871567</v>
+        <v>3160.111221824486</v>
       </c>
       <c r="I22">
-        <v>23.52197040656835</v>
+        <v>15.89522009321985</v>
       </c>
       <c r="J22">
-        <v>76.8058643403123</v>
+        <v>82.09076598895275</v>
       </c>
       <c r="K22">
-        <v>6.281646740309871</v>
+        <v>9.018902355354188</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5645,31 +5645,31 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>6875.776317654371</v>
+        <v>7052.365109269526</v>
       </c>
       <c r="D23">
-        <v>6306.418130727079</v>
+        <v>6791.963272915291</v>
       </c>
       <c r="E23">
-        <v>-5693.581869272921</v>
+        <v>-5208.036727084709</v>
       </c>
       <c r="F23">
-        <v>5693.581869272921</v>
+        <v>5208.036727084709</v>
       </c>
       <c r="G23">
-        <v>14034977.45683073</v>
+        <v>14290774.88434009</v>
       </c>
       <c r="H23">
-        <v>3167.818439366869</v>
+        <v>3257.631483979735</v>
       </c>
       <c r="I23">
-        <v>47.44651557727434</v>
+        <v>43.40030605903925</v>
       </c>
       <c r="J23">
-        <v>75.40780011350097</v>
+        <v>80.24836313514734</v>
       </c>
       <c r="K23">
-        <v>4.23390326187284</v>
+        <v>7.1501942221388</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5680,31 +5680,31 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>7388.198685888934</v>
+        <v>7299.746853806049</v>
       </c>
       <c r="D24">
-        <v>6875.776317654371</v>
+        <v>7052.365109269526</v>
       </c>
       <c r="E24">
-        <v>-5124.223682345629</v>
+        <v>-4947.634890730474</v>
       </c>
       <c r="F24">
-        <v>5124.223682345629</v>
+        <v>4947.634890730474</v>
       </c>
       <c r="G24">
-        <v>14590554.31546169</v>
+        <v>14753880.16286889</v>
       </c>
       <c r="H24">
-        <v>3256.745950411358</v>
+        <v>3334.449820650224</v>
       </c>
       <c r="I24">
-        <v>42.7018640195469</v>
+        <v>41.23029075608728</v>
       </c>
       <c r="J24">
-        <v>73.92116665468488</v>
+        <v>78.47481439064461</v>
       </c>
       <c r="K24">
-        <v>2.544875549799589</v>
+        <v>5.501676111683562</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5715,31 +5715,31 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>8249.378817300041</v>
+        <v>7734.759511115746</v>
       </c>
       <c r="D25">
-        <v>7388.198685888934</v>
+        <v>7299.746853806049</v>
       </c>
       <c r="E25">
-        <v>-8611.801314111066</v>
+        <v>-8700.253146193951</v>
       </c>
       <c r="F25">
-        <v>8611.801314111066</v>
+        <v>8700.253146193951</v>
       </c>
       <c r="G25">
-        <v>17180665.94842967</v>
+        <v>17403468.19091188</v>
       </c>
       <c r="H25">
-        <v>3489.574444485259</v>
+        <v>3567.745617412994</v>
       </c>
       <c r="I25">
-        <v>53.82375821319416</v>
+        <v>54.37658216371219</v>
       </c>
       <c r="J25">
-        <v>73.04736628766355</v>
+        <v>77.42706516338667</v>
       </c>
       <c r="K25">
-        <v>-0.09278729488407254</v>
+        <v>2.703334489603679</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5750,31 +5750,31 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>8424.440935570037</v>
+        <v>7848.021535559958</v>
       </c>
       <c r="D26">
-        <v>8249.378817300041</v>
+        <v>7734.759511115746</v>
       </c>
       <c r="E26">
-        <v>-1750.621182699959</v>
+        <v>-2265.240488884254</v>
       </c>
       <c r="F26">
-        <v>1750.621182699959</v>
+        <v>2265.240488884254</v>
       </c>
       <c r="G26">
-        <v>16592499.63913334</v>
+        <v>16892128.4526439</v>
       </c>
       <c r="H26">
-        <v>3417.118058577538</v>
+        <v>3513.474570390963</v>
       </c>
       <c r="I26">
-        <v>17.50621182699959</v>
+        <v>22.65240488884254</v>
       </c>
       <c r="J26">
-        <v>70.7331515184692</v>
+        <v>75.14478765194734</v>
       </c>
       <c r="K26">
-        <v>-0.6070639995867942</v>
+        <v>2.100362231447574</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5785,31 +5785,31 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>7781.996842013034</v>
+        <v>7555.62045878196</v>
       </c>
       <c r="D27">
-        <v>8424.440935570037</v>
+        <v>7848.021535559958</v>
       </c>
       <c r="E27">
-        <v>6424.440935570037</v>
+        <v>5848.021535559958</v>
       </c>
       <c r="F27">
-        <v>6424.440935570037</v>
+        <v>5848.021535559958</v>
       </c>
       <c r="G27">
-        <v>17579737.30695312</v>
+        <v>17584417.54975307</v>
       </c>
       <c r="H27">
-        <v>3537.410973657237</v>
+        <v>3606.856448997723</v>
       </c>
       <c r="I27">
-        <v>321.2220467785019</v>
+        <v>292.4010767779979</v>
       </c>
       <c r="J27">
-        <v>80.75270732887051</v>
+        <v>83.83503921698937</v>
       </c>
       <c r="K27">
-        <v>1.229721853712777</v>
+        <v>3.667346070297953</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5820,31 +5820,31 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>7503.79715781173</v>
+        <v>7427.839435842862</v>
       </c>
       <c r="D28">
-        <v>7781.996842013034</v>
+        <v>7555.62045878196</v>
       </c>
       <c r="E28">
-        <v>2781.996842013034</v>
+        <v>2555.62045878196</v>
       </c>
       <c r="F28">
-        <v>2781.996842013034</v>
+        <v>2555.62045878196</v>
       </c>
       <c r="G28">
-        <v>17201266.88856918</v>
+        <v>17159293.64127583</v>
       </c>
       <c r="H28">
-        <v>3508.356583978614</v>
+        <v>3566.424295527886</v>
       </c>
       <c r="I28">
-        <v>55.63993684026067</v>
+        <v>51.11240917563921</v>
       </c>
       <c r="J28">
-        <v>79.78683154084706</v>
+        <v>82.57647652309129</v>
       </c>
       <c r="K28">
-        <v>2.032868738158517</v>
+        <v>4.425500157940806</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5855,31 +5855,31 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>7253.417442030557</v>
+        <v>7306.447464050719</v>
       </c>
       <c r="D29">
-        <v>7503.79715781173</v>
+        <v>7427.839435842862</v>
       </c>
       <c r="E29">
-        <v>2503.79715781173</v>
+        <v>2427.839435842862</v>
       </c>
       <c r="F29">
-        <v>2503.79715781173</v>
+        <v>2427.839435842862</v>
       </c>
       <c r="G29">
-        <v>16796368.1226024</v>
+        <v>16742075.5184965</v>
       </c>
       <c r="H29">
-        <v>3471.150679305767</v>
+        <v>3524.254485909923</v>
       </c>
       <c r="I29">
-        <v>50.0759431562346</v>
+        <v>48.55678871685725</v>
       </c>
       <c r="J29">
-        <v>78.68642826734289</v>
+        <v>81.31648808582337</v>
       </c>
       <c r="K29">
-        <v>2.77597444476874</v>
+        <v>5.167348382982497</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5890,31 +5890,31 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>6828.075697827501</v>
+        <v>7091.125090848182</v>
       </c>
       <c r="D30">
-        <v>7253.417442030557</v>
+        <v>7306.447464050719</v>
       </c>
       <c r="E30">
-        <v>4253.417442030557</v>
+        <v>4306.447464050719</v>
       </c>
       <c r="F30">
-        <v>4253.417442030557</v>
+        <v>4306.447464050719</v>
       </c>
       <c r="G30">
-        <v>16842624.97308695</v>
+        <v>16806483.17000123</v>
       </c>
       <c r="H30">
-        <v>3499.088777974509</v>
+        <v>3552.189949414951</v>
       </c>
       <c r="I30">
-        <v>141.7805814010186</v>
+        <v>143.5482488016906</v>
       </c>
       <c r="J30">
-        <v>80.93979087925989</v>
+        <v>83.53905096853291</v>
       </c>
       <c r="K30">
-        <v>3.96938857600663</v>
+        <v>6.339046758111801</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5925,31 +5925,31 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>6545.268128044751</v>
+        <v>6936.568836305773</v>
       </c>
       <c r="D31">
-        <v>6828.075697827501</v>
+        <v>7091.125090848182</v>
       </c>
       <c r="E31">
-        <v>2828.075697827501</v>
+        <v>3091.125090848182</v>
       </c>
       <c r="F31">
-        <v>2828.075697827501</v>
+        <v>3091.125090848182</v>
       </c>
       <c r="G31">
-        <v>16537638.3241061</v>
+        <v>16556433.89956226</v>
       </c>
       <c r="H31">
-        <v>3475.950395900474</v>
+        <v>3536.291161188511</v>
       </c>
       <c r="I31">
-        <v>70.70189244568753</v>
+        <v>77.27812727120457</v>
       </c>
       <c r="J31">
-        <v>80.58675989879187</v>
+        <v>83.32315704793537</v>
       </c>
       <c r="K31">
-        <v>4.809423845423362</v>
+        <v>7.241661420570798</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5960,31 +5960,31 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>6490.741315240276</v>
+        <v>6889.740394490485</v>
       </c>
       <c r="D32">
-        <v>6545.268128044751</v>
+        <v>6936.568836305773</v>
       </c>
       <c r="E32">
-        <v>545.2681280447514</v>
+        <v>936.5688363057734</v>
       </c>
       <c r="F32">
-        <v>545.2681280447514</v>
+        <v>936.5688363057734</v>
       </c>
       <c r="G32">
-        <v>15996294.29101795</v>
+        <v>16033791.47574816</v>
       </c>
       <c r="H32">
-        <v>3378.26098697195</v>
+        <v>3449.633750359086</v>
       </c>
       <c r="I32">
-        <v>9.08780213407919</v>
+        <v>15.60948060509622</v>
       </c>
       <c r="J32">
-        <v>78.20346130663478</v>
+        <v>81.06603449984074</v>
       </c>
       <c r="K32">
-        <v>5.109903265073166</v>
+        <v>7.695075486615623</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5995,31 +5995,31 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>6541.667183716248</v>
+        <v>6895.25337476596</v>
       </c>
       <c r="D33">
-        <v>6490.741315240276</v>
+        <v>6889.740394490485</v>
       </c>
       <c r="E33">
-        <v>-509.258684759724</v>
+        <v>-110.2596055095155</v>
       </c>
       <c r="F33">
-        <v>509.258684759724</v>
+        <v>110.2596055095155</v>
       </c>
       <c r="G33">
-        <v>15488650.74640457</v>
+        <v>15516964.56300167</v>
       </c>
       <c r="H33">
-        <v>3285.712525610265</v>
+        <v>3341.912003751036</v>
       </c>
       <c r="I33">
-        <v>7.275124067996057</v>
+        <v>1.575137221564507</v>
       </c>
       <c r="J33">
-        <v>75.91545042796901</v>
+        <v>78.50181200699312</v>
       </c>
       <c r="K33">
-        <v>5.098841737448073</v>
+        <v>7.910122251875411</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6030,31 +6030,31 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>6887.500465344624</v>
+        <v>7050.490706027662</v>
       </c>
       <c r="D34">
-        <v>6541.667183716248</v>
+        <v>6895.25337476596</v>
       </c>
       <c r="E34">
-        <v>-3458.332816283752</v>
+        <v>-3104.74662523404</v>
       </c>
       <c r="F34">
-        <v>3458.332816283752</v>
+        <v>3104.74662523404</v>
       </c>
       <c r="G34">
-        <v>15378382.46896021</v>
+        <v>15333292.28312356</v>
       </c>
       <c r="H34">
-        <v>3291.106909693812</v>
+        <v>3334.500585672379</v>
       </c>
       <c r="I34">
-        <v>34.58332816283752</v>
+        <v>31.0474662523404</v>
       </c>
       <c r="J34">
-        <v>74.62382160718366</v>
+        <v>77.01886370216022</v>
       </c>
       <c r="K34">
-        <v>4.039672885555301</v>
+        <v>6.996605722515475</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6065,31 +6065,31 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>7698.750418810162</v>
+        <v>7447.966170726279</v>
       </c>
       <c r="D35">
-        <v>6887.500465344624</v>
+        <v>7050.490706027662</v>
       </c>
       <c r="E35">
-        <v>-8112.499534655376</v>
+        <v>-7949.509293972338</v>
       </c>
       <c r="F35">
-        <v>8112.499534655376</v>
+        <v>7949.509293972338</v>
       </c>
       <c r="G35">
-        <v>16906693.56686395</v>
+        <v>16783637.9113608</v>
       </c>
       <c r="H35">
-        <v>3437.209716510829</v>
+        <v>3474.349334408741</v>
       </c>
       <c r="I35">
-        <v>54.08333023103584</v>
+        <v>52.99672862648226</v>
       </c>
       <c r="J35">
-        <v>74.00138247457312</v>
+        <v>76.29092021501846</v>
       </c>
       <c r="K35">
-        <v>1.50776246994881</v>
+        <v>4.426922886869603</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6100,31 +6100,31 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>8428.875376929147</v>
+        <v>7825.567862189964</v>
       </c>
       <c r="D36">
-        <v>7698.750418810162</v>
+        <v>7447.966170726279</v>
       </c>
       <c r="E36">
-        <v>-7301.249581189838</v>
+        <v>-7552.033829273721</v>
       </c>
       <c r="F36">
-        <v>7301.249581189838</v>
+        <v>7552.033829273721</v>
       </c>
       <c r="G36">
-        <v>17977327.44568633</v>
+        <v>17967449.00098239</v>
       </c>
       <c r="H36">
-        <v>3550.857947824918</v>
+        <v>3594.281231316535</v>
       </c>
       <c r="I36">
-        <v>48.67499720793225</v>
+        <v>50.34689219515814</v>
       </c>
       <c r="J36">
-        <v>73.25648879026015</v>
+        <v>75.52786056737551</v>
       </c>
       <c r="K36">
-        <v>-0.5966878428885797</v>
+        <v>2.178082974696163</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6135,31 +6135,31 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>9385.987839236233</v>
+        <v>8334.289469080466</v>
       </c>
       <c r="D37">
-        <v>8428.875376929147</v>
+        <v>7825.567862189964</v>
       </c>
       <c r="E37">
-        <v>-9571.124623070853</v>
+        <v>-10174.43213781004</v>
       </c>
       <c r="F37">
-        <v>9571.124623070853</v>
+        <v>10174.43213781004</v>
       </c>
       <c r="G37">
-        <v>20081015.99153395</v>
+        <v>20411781.01029437</v>
       </c>
       <c r="H37">
-        <v>3722.865567117659</v>
+        <v>3782.285542930635</v>
       </c>
       <c r="I37">
-        <v>53.17291457261584</v>
+        <v>56.52462298783353</v>
       </c>
       <c r="J37">
-        <v>72.68267238404174</v>
+        <v>74.98491092224573</v>
       </c>
       <c r="K37">
-        <v>-3.140021626247677</v>
+        <v>-0.6202042006040446</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6170,31 +6170,31 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>9247.389055312611</v>
+        <v>8317.574995626443</v>
       </c>
       <c r="D38">
-        <v>9385.987839236233</v>
+        <v>8334.289469080466</v>
       </c>
       <c r="E38">
-        <v>1385.987839236233</v>
+        <v>334.289469080466</v>
       </c>
       <c r="F38">
-        <v>1385.987839236233</v>
+        <v>334.289469080466</v>
       </c>
       <c r="G38">
-        <v>19576570.05539442</v>
+        <v>19847891.24470669</v>
       </c>
       <c r="H38">
-        <v>3657.95229689873</v>
+        <v>3686.507874212575</v>
       </c>
       <c r="I38">
-        <v>17.32484799045292</v>
+        <v>4.178618363505826</v>
       </c>
       <c r="J38">
-        <v>71.14495503977538</v>
+        <v>73.01806946228074</v>
       </c>
       <c r="K38">
-        <v>-2.816846617125609</v>
+        <v>-0.5456383062680187</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6205,31 +6205,31 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>8822.65014978135</v>
+        <v>8151.69624584512</v>
       </c>
       <c r="D39">
-        <v>9247.389055312611</v>
+        <v>8317.574995626443</v>
       </c>
       <c r="E39">
-        <v>4247.389055312611</v>
+        <v>3317.574995626443</v>
       </c>
       <c r="F39">
-        <v>4247.389055312611</v>
+        <v>3317.574995626443</v>
       </c>
       <c r="G39">
-        <v>19535049.6157132</v>
+        <v>19608929.42327153</v>
       </c>
       <c r="H39">
-        <v>3673.883020099106</v>
+        <v>3676.536715331868</v>
       </c>
       <c r="I39">
-        <v>84.94778110625222</v>
+        <v>66.35149991252885</v>
       </c>
       <c r="J39">
-        <v>71.5180043929234</v>
+        <v>72.83789190688204</v>
       </c>
       <c r="K39">
-        <v>-1.648528672437167</v>
+        <v>0.3552460329447532</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6240,31 +6240,31 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>8340.385134803215</v>
+        <v>7944.111433552864</v>
       </c>
       <c r="D40">
-        <v>8822.65014978135</v>
+        <v>8151.69624584512</v>
       </c>
       <c r="E40">
-        <v>4822.65014978135</v>
+        <v>4151.69624584512</v>
       </c>
       <c r="F40">
-        <v>4822.65014978135</v>
+        <v>4151.69624584512</v>
       </c>
       <c r="G40">
-        <v>19633020.79601512</v>
+        <v>19546499.22049503</v>
       </c>
       <c r="H40">
-        <v>3704.113734038111</v>
+        <v>3689.040913503269</v>
       </c>
       <c r="I40">
-        <v>120.5662537445337</v>
+        <v>103.792406146128</v>
       </c>
       <c r="J40">
-        <v>72.80874779691314</v>
+        <v>73.6524843868622</v>
       </c>
       <c r="K40">
-        <v>-0.3331029867398189</v>
+        <v>1.479455353548673</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6275,31 +6275,31 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>7906.346621322894</v>
+        <v>7746.905861875221</v>
       </c>
       <c r="D41">
-        <v>8340.385134803215</v>
+        <v>7944.111433552864</v>
       </c>
       <c r="E41">
-        <v>4340.385134803215</v>
+        <v>3944.111433552864</v>
       </c>
       <c r="F41">
-        <v>4340.385134803215</v>
+        <v>3944.111433552864</v>
       </c>
       <c r="G41">
-        <v>19612659.82992296</v>
+        <v>19444179.11228445</v>
       </c>
       <c r="H41">
-        <v>3720.428385339781</v>
+        <v>3695.581183248131</v>
       </c>
       <c r="I41">
-        <v>108.5096283700804</v>
+        <v>98.60278583882159</v>
       </c>
       <c r="J41">
-        <v>73.72415499109692</v>
+        <v>74.2922357061432</v>
       </c>
       <c r="K41">
-        <v>0.8349935719801315</v>
+        <v>2.544087735134486</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6310,31 +6310,31 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>7315.711959190605</v>
+        <v>7459.56056878146</v>
       </c>
       <c r="D42">
-        <v>7906.346621322894</v>
+        <v>7746.905861875221</v>
       </c>
       <c r="E42">
-        <v>5906.346621322894</v>
+        <v>5746.905861875221</v>
       </c>
       <c r="F42">
-        <v>5906.346621322894</v>
+        <v>5746.905861875221</v>
       </c>
       <c r="G42">
-        <v>19994466.59445519</v>
+        <v>19783747.80910874</v>
       </c>
       <c r="H42">
-        <v>3775.076341239359</v>
+        <v>3746.864300213809</v>
       </c>
       <c r="I42">
-        <v>295.3173310661447</v>
+        <v>287.345293093761</v>
       </c>
       <c r="J42">
-        <v>79.26398439297311</v>
+        <v>79.61856214083366</v>
       </c>
       <c r="K42">
-        <v>2.38746970746957</v>
+        <v>4.043057717224012</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6345,31 +6345,31 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>7084.140763271545</v>
+        <v>7336.582540342386</v>
       </c>
       <c r="D43">
-        <v>7315.711959190605</v>
+        <v>7459.56056878146</v>
       </c>
       <c r="E43">
-        <v>2315.711959190605</v>
+        <v>2459.56056878146</v>
       </c>
       <c r="F43">
-        <v>2315.711959190605</v>
+        <v>2459.56056878146</v>
       </c>
       <c r="G43">
-        <v>19637589.89405234</v>
+        <v>19448764.64770376</v>
       </c>
       <c r="H43">
-        <v>3739.482088018658</v>
+        <v>3715.466648227654</v>
       </c>
       <c r="I43">
-        <v>46.31423918381209</v>
+        <v>49.19121137562919</v>
       </c>
       <c r="J43">
-        <v>78.46033207079844</v>
+        <v>78.87643163436526</v>
       </c>
       <c r="K43">
-        <v>3.029454908630681</v>
+        <v>4.739202598293152</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6380,31 +6380,31 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>7075.72668694439</v>
+        <v>7319.753413325267</v>
       </c>
       <c r="D44">
-        <v>7084.140763271545</v>
+        <v>7336.582540342386</v>
       </c>
       <c r="E44">
-        <v>84.14076327154453</v>
+        <v>336.582540342386</v>
       </c>
       <c r="F44">
-        <v>84.14076327154453</v>
+        <v>336.582540342386</v>
       </c>
       <c r="G44">
-        <v>19170196.79343309</v>
+        <v>18988396.15148375</v>
       </c>
       <c r="H44">
-        <v>3652.450151715155</v>
+        <v>3635.017026611338</v>
       </c>
       <c r="I44">
-        <v>1.202010903879208</v>
+        <v>4.808322004891228</v>
       </c>
       <c r="J44">
-        <v>76.62084823349085</v>
+        <v>77.11290521461588</v>
       </c>
       <c r="K44">
-        <v>3.124678683211287</v>
+        <v>4.936684368222394</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6415,31 +6415,31 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>7368.154018249951</v>
+        <v>7453.765742659003</v>
       </c>
       <c r="D45">
-        <v>7075.72668694439</v>
+        <v>7319.753413325267</v>
       </c>
       <c r="E45">
-        <v>-2924.27331305561</v>
+        <v>-2680.246586674733</v>
       </c>
       <c r="F45">
-        <v>2924.27331305561</v>
+        <v>2680.246586674733</v>
       </c>
       <c r="G45">
-        <v>18923247.43566602</v>
+        <v>18713868.84017905</v>
       </c>
       <c r="H45">
-        <v>3635.51580663005</v>
+        <v>3612.813062891882</v>
       </c>
       <c r="I45">
-        <v>29.2427331305561</v>
+        <v>26.80246586674733</v>
       </c>
       <c r="J45">
-        <v>75.51903160319003</v>
+        <v>75.94289499722359</v>
       </c>
       <c r="K45">
-        <v>2.334870832364491</v>
+        <v>4.225152223791247</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6450,31 +6450,31 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>8031.338616424956</v>
+        <v>7781.077455526052</v>
       </c>
       <c r="D46">
-        <v>7368.154018249951</v>
+        <v>7453.765742659003</v>
       </c>
       <c r="E46">
-        <v>-6631.845981750049</v>
+        <v>-6546.234257340997</v>
       </c>
       <c r="F46">
-        <v>6631.845981750049</v>
+        <v>6546.234257340997</v>
       </c>
       <c r="G46">
-        <v>19492750.47407485</v>
+        <v>19262489.61544736</v>
       </c>
       <c r="H46">
-        <v>3703.614219700959</v>
+        <v>3679.481726402089</v>
       </c>
       <c r="I46">
-        <v>47.37032844107178</v>
+        <v>46.75881612386426</v>
       </c>
       <c r="J46">
-        <v>74.87928834950553</v>
+        <v>75.27962047737451</v>
       </c>
       <c r="K46">
-        <v>0.5012978473498864</v>
+        <v>2.369477969388878</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6485,31 +6485,31 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>8828.20475478246</v>
+        <v>8192.023582749749</v>
       </c>
       <c r="D47">
-        <v>8031.338616424956</v>
+        <v>7781.077455526052</v>
       </c>
       <c r="E47">
-        <v>-7968.661383575044</v>
+        <v>-8218.922544473948</v>
       </c>
       <c r="F47">
-        <v>7968.661383575044</v>
+        <v>8218.922544473948</v>
       </c>
       <c r="G47">
-        <v>20470679.6690083</v>
+        <v>20335560.6860388</v>
       </c>
       <c r="H47">
-        <v>3798.393045564827</v>
+        <v>3780.358189025908</v>
       </c>
       <c r="I47">
-        <v>49.80413364734402</v>
+        <v>51.36826590296217</v>
       </c>
       <c r="J47">
-        <v>74.3220626894575</v>
+        <v>74.74825704238756</v>
       </c>
       <c r="K47">
-        <v>-1.609114031777523</v>
+        <v>0.1321378345720916</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -6520,31 +6520,31 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>9545.384279304215</v>
+        <v>8582.422403612261</v>
       </c>
       <c r="D48">
-        <v>8828.20475478246</v>
+        <v>8192.023582749749</v>
       </c>
       <c r="E48">
-        <v>-7171.79524521754</v>
+        <v>-7807.976417250251</v>
       </c>
       <c r="F48">
-        <v>7171.79524521754</v>
+        <v>7807.976417250251</v>
       </c>
       <c r="G48">
-        <v>21143809.39444996</v>
+        <v>21218798.40443657</v>
       </c>
       <c r="H48">
-        <v>3871.72787599206</v>
+        <v>3867.915107030785</v>
       </c>
       <c r="I48">
-        <v>44.82372028260963</v>
+        <v>48.79985260781407</v>
       </c>
       <c r="J48">
-        <v>73.68079437626514</v>
+        <v>74.18416129380988</v>
       </c>
       <c r="K48">
-        <v>-3.43098565253332</v>
+        <v>-1.889505811273051</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -6555,31 +6555,31 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>10590.84585137379</v>
+        <v>9153.301283431647</v>
       </c>
       <c r="D49">
-        <v>9545.384279304215</v>
+        <v>8582.422403612261</v>
       </c>
       <c r="E49">
-        <v>-10454.61572069579</v>
+        <v>-11417.57759638774</v>
       </c>
       <c r="F49">
-        <v>10454.61572069579</v>
+        <v>11417.57759638774</v>
       </c>
       <c r="G49">
-        <v>23019451.53217272</v>
+        <v>23540974.56965143</v>
       </c>
       <c r="H49">
-        <v>4011.789319496394</v>
+        <v>4028.546223825614</v>
       </c>
       <c r="I49">
-        <v>52.27307860347893</v>
+        <v>57.08788798193869</v>
       </c>
       <c r="J49">
-        <v>73.22531106195055</v>
+        <v>73.82041079781263</v>
       </c>
       <c r="K49">
-        <v>-5.917174762486723</v>
+        <v>-4.648333326271358</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6590,31 +6590,31 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>10731.76126623641</v>
+        <v>9295.636219260065</v>
       </c>
       <c r="D50">
-        <v>10590.84585137379</v>
+        <v>9153.301283431647</v>
       </c>
       <c r="E50">
-        <v>-1409.154148626207</v>
+        <v>-2846.698716568353</v>
       </c>
       <c r="F50">
-        <v>1409.154148626207</v>
+        <v>2846.698716568353</v>
       </c>
       <c r="G50">
-        <v>22581248.69638976</v>
+        <v>23219364.54909436</v>
       </c>
       <c r="H50">
-        <v>3957.567753436599</v>
+        <v>4003.924400757754</v>
       </c>
       <c r="I50">
-        <v>11.74295123855172</v>
+        <v>23.72248930473628</v>
       </c>
       <c r="J50">
-        <v>71.94442856562976</v>
+        <v>72.77670410004019</v>
       </c>
       <c r="K50">
-        <v>-6.35431007858977</v>
+        <v>-5.387895031464352</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -6625,31 +6625,31 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>10158.58513961277</v>
+        <v>9080.85440829706</v>
       </c>
       <c r="D51">
-        <v>10731.76126623641</v>
+        <v>9295.636219260065</v>
       </c>
       <c r="E51">
-        <v>5731.761266236414</v>
+        <v>4295.636219260065</v>
       </c>
       <c r="F51">
-        <v>5731.761266236414</v>
+        <v>4295.636219260065</v>
       </c>
       <c r="G51">
-        <v>22790878.05387422</v>
+        <v>23122081.40581119</v>
       </c>
       <c r="H51">
-        <v>3993.775784310065</v>
+        <v>4009.877703176169</v>
       </c>
       <c r="I51">
-        <v>114.6352253247283</v>
+        <v>85.91272438520129</v>
       </c>
       <c r="J51">
-        <v>72.81566931581544</v>
+        <v>73.04478614667613</v>
       </c>
       <c r="K51">
-        <v>-4.861527648198152</v>
+        <v>-4.308632194008456</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6660,31 +6660,31 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>9342.726625651496</v>
+        <v>8726.811687882207</v>
       </c>
       <c r="D52">
-        <v>10158.58513961277</v>
+        <v>9080.85440829706</v>
       </c>
       <c r="E52">
-        <v>8158.585139612773</v>
+        <v>7080.85440829706</v>
       </c>
       <c r="F52">
-        <v>8158.585139612773</v>
+        <v>7080.85440829706</v>
       </c>
       <c r="G52">
-        <v>23666310.72240294</v>
+        <v>23662409.76072497</v>
       </c>
       <c r="H52">
-        <v>4077.07197141612</v>
+        <v>4071.297237278586</v>
       </c>
       <c r="I52">
-        <v>407.9292569806387</v>
+        <v>354.042720414853</v>
       </c>
       <c r="J52">
-        <v>79.51794106911191</v>
+        <v>78.66474483203967</v>
       </c>
       <c r="K52">
-        <v>-2.761115412099237</v>
+        <v>-2.504418902231767</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6695,31 +6695,31 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>8708.453963086347</v>
+        <v>8440.471103488097</v>
       </c>
       <c r="D53">
-        <v>9342.726625651496</v>
+        <v>8726.811687882207</v>
       </c>
       <c r="E53">
-        <v>6342.726625651496</v>
+        <v>5726.811687882207</v>
       </c>
       <c r="F53">
-        <v>6342.726625651496</v>
+        <v>5726.811687882207</v>
       </c>
       <c r="G53">
-        <v>23991092.49348814</v>
+        <v>23841507.06166103</v>
       </c>
       <c r="H53">
-        <v>4121.496572479558</v>
+        <v>4103.758304937481</v>
       </c>
       <c r="I53">
-        <v>211.4242208550499</v>
+        <v>190.8937229294069</v>
       </c>
       <c r="J53">
-        <v>82.10433871197343</v>
+        <v>80.86531303002727</v>
       </c>
       <c r="K53">
-        <v>-1.192416284822167</v>
+        <v>-1.089104605499019</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6730,31 +6730,31 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>8037.608566777712</v>
+        <v>8118.447548313691</v>
       </c>
       <c r="D54">
-        <v>8708.453963086347</v>
+        <v>8440.471103488097</v>
       </c>
       <c r="E54">
-        <v>6708.453963086347</v>
+        <v>6440.471103488097</v>
       </c>
       <c r="F54">
-        <v>6708.453963086347</v>
+        <v>6440.471103488097</v>
       </c>
       <c r="G54">
-        <v>24395174.45659123</v>
+        <v>24180702.46499187</v>
       </c>
       <c r="H54">
-        <v>4171.24575306815</v>
+        <v>4148.695089524992</v>
       </c>
       <c r="I54">
-        <v>335.4226981543173</v>
+        <v>322.0235551744049</v>
       </c>
       <c r="J54">
-        <v>86.9758456243262</v>
+        <v>85.50297153280374</v>
       </c>
       <c r="K54">
-        <v>0.4300668045999126</v>
+        <v>0.4751009633613533</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6765,31 +6765,31 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>7933.847710099942</v>
+        <v>8062.525170898006</v>
       </c>
       <c r="D55">
-        <v>8037.608566777712</v>
+        <v>8118.447548313691</v>
       </c>
       <c r="E55">
-        <v>1037.608566777712</v>
+        <v>1118.447548313691</v>
       </c>
       <c r="F55">
-        <v>1037.608566777712</v>
+        <v>1118.447548313691</v>
       </c>
       <c r="G55">
-        <v>23955201.94869046</v>
+        <v>23748065.15279069</v>
       </c>
       <c r="H55">
-        <v>4112.120523138143</v>
+        <v>4091.520607615345</v>
       </c>
       <c r="I55">
-        <v>14.82297952539589</v>
+        <v>15.97782211876702</v>
       </c>
       <c r="J55">
-        <v>85.61447079227089</v>
+        <v>84.19117626084079</v>
       </c>
       <c r="K55">
-        <v>0.6885797444574476</v>
+        <v>0.7550974022443401</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6800,31 +6800,31 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>7740.462939089947</v>
+        <v>7959.398912353106</v>
       </c>
       <c r="D56">
-        <v>7933.847710099942</v>
+        <v>8062.525170898006</v>
       </c>
       <c r="E56">
-        <v>1933.847710099942</v>
+        <v>2062.525170898006</v>
       </c>
       <c r="F56">
-        <v>1933.847710099942</v>
+        <v>2062.525170898006</v>
       </c>
       <c r="G56">
-        <v>23580842.04160099</v>
+        <v>23387064.13293508</v>
       </c>
       <c r="H56">
-        <v>4071.782137711509</v>
+        <v>4053.946618046506</v>
       </c>
       <c r="I56">
-        <v>32.23079516833236</v>
+        <v>34.37541951496677</v>
       </c>
       <c r="J56">
-        <v>84.62588420664241</v>
+        <v>83.26866224702832</v>
       </c>
       <c r="K56">
-        <v>1.170340270655773</v>
+        <v>1.270865711453341</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6835,31 +6835,31 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>7766.416645180952</v>
+        <v>7961.42896673545</v>
       </c>
       <c r="D57">
-        <v>7740.462939089947</v>
+        <v>7959.398912353106</v>
       </c>
       <c r="E57">
-        <v>-259.5370609100528</v>
+        <v>-40.60108764689448</v>
       </c>
       <c r="F57">
-        <v>259.5370609100528</v>
+        <v>40.60108764689448</v>
       </c>
       <c r="G57">
-        <v>23153324.17695344</v>
+        <v>22961874.75685114</v>
       </c>
       <c r="H57">
-        <v>4002.468590860574</v>
+        <v>3980.976699311967</v>
       </c>
       <c r="I57">
-        <v>3.24421326137566</v>
+        <v>0.507513595586181</v>
       </c>
       <c r="J57">
-        <v>83.14621746218302</v>
+        <v>81.76391408972935</v>
       </c>
       <c r="K57">
-        <v>1.125763624598931</v>
+        <v>1.283961462566221</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6870,31 +6870,31 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>7989.774980662857</v>
+        <v>8063.357518398677</v>
       </c>
       <c r="D58">
-        <v>7766.416645180952</v>
+        <v>7961.42896673545</v>
       </c>
       <c r="E58">
-        <v>-2233.583354819048</v>
+        <v>-2038.57103326455</v>
       </c>
       <c r="F58">
-        <v>2233.583354819048</v>
+        <v>2038.57103326455</v>
       </c>
       <c r="G58">
-        <v>22828959.3631315</v>
+        <v>22626051.49079424</v>
       </c>
       <c r="H58">
-        <v>3970.881354502688</v>
+        <v>3946.290883846835</v>
       </c>
       <c r="I58">
-        <v>22.33583354819048</v>
+        <v>20.38571033264551</v>
       </c>
       <c r="J58">
-        <v>82.06031774943315</v>
+        <v>80.6678747369243</v>
       </c>
       <c r="K58">
-        <v>0.5722281756907598</v>
+        <v>0.7786677978057929</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6905,31 +6905,31 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9190.797482596572</v>
+        <v>8660.189642478743</v>
       </c>
       <c r="D59">
-        <v>7989.774980662857</v>
+        <v>8063.357518398677</v>
       </c>
       <c r="E59">
-        <v>-12010.22501933714</v>
+        <v>-11936.64248160132</v>
       </c>
       <c r="F59">
-        <v>12010.22501933714</v>
+        <v>11936.64248160132</v>
       </c>
       <c r="G59">
-        <v>24959074.19913115</v>
+        <v>24728812.58277275</v>
       </c>
       <c r="H59">
-        <v>4111.922471429609</v>
+        <v>4086.472490824984</v>
       </c>
       <c r="I59">
-        <v>60.05112509668572</v>
+        <v>59.68321240800663</v>
       </c>
       <c r="J59">
-        <v>81.67419156254284</v>
+        <v>80.29972276624153</v>
       </c>
       <c r="K59">
-        <v>-2.368229190512917</v>
+        <v>-2.169057266255032</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6940,31 +6940,31 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>10271.71773433691</v>
+        <v>9227.180160354805</v>
       </c>
       <c r="D60">
-        <v>9190.797482596572</v>
+        <v>8660.189642478743</v>
       </c>
       <c r="E60">
-        <v>-10809.20251740343</v>
+        <v>-11339.81035752126</v>
       </c>
       <c r="F60">
-        <v>10809.20251740343</v>
+        <v>11339.81035752126</v>
       </c>
       <c r="G60">
-        <v>26543208.4209089</v>
+        <v>26519545.10625161</v>
       </c>
       <c r="H60">
-        <v>4227.392817049847</v>
+        <v>4211.530040250782</v>
       </c>
       <c r="I60">
-        <v>54.04601258701715</v>
+        <v>56.69905178760628</v>
       </c>
       <c r="J60">
-        <v>81.19784364917172</v>
+        <v>79.89281464592024</v>
       </c>
       <c r="K60">
-        <v>-4.860484519086689</v>
+        <v>-4.797212180372679</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6975,31 +6975,31 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>11444.54596090322</v>
+        <v>9865.821152337065</v>
       </c>
       <c r="D61">
-        <v>10271.71773433691</v>
+        <v>9227.180160354805</v>
       </c>
       <c r="E61">
-        <v>-11728.28226566309</v>
+        <v>-12772.8198396452</v>
       </c>
       <c r="F61">
-        <v>11728.28226566309</v>
+        <v>12772.8198396452</v>
       </c>
       <c r="G61">
-        <v>28424723.61552176</v>
+        <v>28835229.53929877</v>
       </c>
       <c r="H61">
-        <v>4354.526536517867</v>
+        <v>4356.636647020179</v>
       </c>
       <c r="I61">
-        <v>53.3103739348322</v>
+        <v>58.05827199838726</v>
       </c>
       <c r="J61">
-        <v>80.72517467096257</v>
+        <v>79.52273765189426</v>
       </c>
       <c r="K61">
-        <v>-7.411933154698712</v>
+        <v>-7.569238777187595</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7010,91 +7010,91 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
       <c r="D62">
-        <v>11444.54596090322</v>
+        <v>9865.821152337065</v>
       </c>
       <c r="E62">
-        <v>3444.545960903224</v>
+        <v>1865.821152337065</v>
       </c>
       <c r="F62">
-        <v>3444.545960903224</v>
+        <v>1865.821152337065</v>
       </c>
       <c r="G62">
-        <v>28148726.5032093</v>
+        <v>28412663.85651893</v>
       </c>
       <c r="H62">
-        <v>4339.360193590957</v>
+        <v>4315.123055442127</v>
       </c>
       <c r="I62">
-        <v>43.0568245112903</v>
+        <v>23.32276440421331</v>
       </c>
       <c r="J62">
-        <v>80.09736883496802</v>
+        <v>78.58607143109958</v>
       </c>
       <c r="K62">
-        <v>-6.644047131812402</v>
+        <v>-7.209667370938285</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="D63">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="D64">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74">
-        <v>11100.0913648129</v>
+        <v>9772.53009472021</v>
       </c>
     </row>
   </sheetData>
@@ -7167,10 +7167,10 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>4621.7</v>
+        <v>4767.349999999999</v>
       </c>
       <c r="D3">
-        <v>82.86999999999998</v>
+        <v>97.43499999999995</v>
       </c>
       <c r="E3">
         <v>4913</v>
@@ -7205,31 +7205,31 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>4534.113</v>
+        <v>4771.545749999999</v>
       </c>
       <c r="D4">
-        <v>65.82430000000004</v>
+        <v>88.11107499999993</v>
       </c>
       <c r="E4">
-        <v>4704.57</v>
+        <v>4864.785</v>
       </c>
       <c r="F4">
-        <v>1704.57</v>
+        <v>1864.785</v>
       </c>
       <c r="G4">
-        <v>1704.57</v>
+        <v>1864.785</v>
       </c>
       <c r="H4">
-        <v>5695563.94245</v>
+        <v>5981496.0481125</v>
       </c>
       <c r="I4">
-        <v>2308.785</v>
+        <v>2388.8925</v>
       </c>
       <c r="J4">
-        <v>56.81899999999999</v>
+        <v>62.15949999999999</v>
       </c>
       <c r="K4">
-        <v>101.2345</v>
+        <v>103.90475</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -7243,31 +7243,31 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>4439.94357</v>
+        <v>4766.673983749999</v>
       </c>
       <c r="D5">
-        <v>49.82492700000005</v>
+        <v>78.81279087499991</v>
       </c>
       <c r="E5">
-        <v>4599.937300000001</v>
+        <v>4859.656824999999</v>
       </c>
       <c r="F5">
-        <v>1599.937300000001</v>
+        <v>1859.656824999999</v>
       </c>
       <c r="G5">
-        <v>1599.937300000001</v>
+        <v>1859.656824999999</v>
       </c>
       <c r="H5">
-        <v>4650309.082943764</v>
+        <v>5140438.534331359</v>
       </c>
       <c r="I5">
-        <v>2072.502433333334</v>
+        <v>2212.480608333333</v>
       </c>
       <c r="J5">
-        <v>53.33124333333335</v>
+        <v>61.98856083333331</v>
       </c>
       <c r="K5">
-        <v>85.26674777777777</v>
+        <v>89.93268694444441</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -7281,31 +7281,31 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>4340.7916473</v>
+        <v>4753.212435893749</v>
       </c>
       <c r="D6">
-        <v>34.92724203000005</v>
+        <v>69.58535700187491</v>
       </c>
       <c r="E6">
-        <v>4489.768497</v>
+        <v>4845.486774624999</v>
       </c>
       <c r="F6">
-        <v>1489.768497</v>
+        <v>1845.486774624999</v>
       </c>
       <c r="G6">
-        <v>1489.768497</v>
+        <v>1845.486774624999</v>
       </c>
       <c r="H6">
-        <v>4042584.355871232</v>
+        <v>4706784.259577465</v>
       </c>
       <c r="I6">
-        <v>1926.81894925</v>
+        <v>2120.73214990625</v>
       </c>
       <c r="J6">
-        <v>49.6589499</v>
+        <v>61.51622582083331</v>
       </c>
       <c r="K6">
-        <v>76.36479830833332</v>
+        <v>82.82857166354164</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -7319,31 +7319,31 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>4338.147000397001</v>
+        <v>4781.657903250843</v>
       </c>
       <c r="D7">
-        <v>31.17005313670007</v>
+        <v>65.47136803739677</v>
       </c>
       <c r="E7">
-        <v>4375.718889330001</v>
+        <v>4822.797792895624</v>
       </c>
       <c r="F7">
-        <v>375.7188893300008</v>
+        <v>822.7977928956243</v>
       </c>
       <c r="G7">
-        <v>375.7188893300008</v>
+        <v>822.7977928956243</v>
       </c>
       <c r="H7">
-        <v>3262300.421456859</v>
+        <v>3900826.649260754</v>
       </c>
       <c r="I7">
-        <v>1616.598937266</v>
+        <v>1861.145278504124</v>
       </c>
       <c r="J7">
-        <v>9.392972233250021</v>
+        <v>20.56994482239061</v>
       </c>
       <c r="K7">
-        <v>62.97043309331666</v>
+        <v>70.37684629531142</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -7357,34 +7357,34 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>4532.385348180331</v>
+        <v>4904.772807723827</v>
       </c>
       <c r="D8">
-        <v>47.47688260136307</v>
+        <v>71.23572168095555</v>
       </c>
       <c r="E8">
-        <v>4369.317053533701</v>
+        <v>4847.12927128824</v>
       </c>
       <c r="F8">
-        <v>-1630.682946466299</v>
+        <v>-1152.87072871176</v>
       </c>
       <c r="G8">
-        <v>1630.682946466299</v>
+        <v>1152.87072871176</v>
       </c>
       <c r="H8">
-        <v>3161771.496530051</v>
+        <v>3472207.360570693</v>
       </c>
       <c r="I8">
-        <v>1618.946272132717</v>
+        <v>1743.099520205397</v>
       </c>
       <c r="J8">
-        <v>27.17804910777165</v>
+        <v>19.21451214519601</v>
       </c>
       <c r="K8">
-        <v>57.00503576239249</v>
+        <v>61.84979060362553</v>
       </c>
       <c r="L8">
-        <v>3.985500847636999</v>
+        <v>4.677217547996442</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7395,34 +7395,34 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>4821.876007703525</v>
+        <v>5077.208102934544</v>
       </c>
       <c r="D9">
-        <v>71.67826029354617</v>
+        <v>81.35567903393165</v>
       </c>
       <c r="E9">
-        <v>4579.862230781694</v>
+        <v>4976.008529404783</v>
       </c>
       <c r="F9">
-        <v>-2420.137769218306</v>
+        <v>-2023.991470595217</v>
       </c>
       <c r="G9">
-        <v>2420.137769218306</v>
+        <v>2023.991470595217</v>
       </c>
       <c r="H9">
-        <v>3546813.685882466</v>
+        <v>3561397.948066621</v>
       </c>
       <c r="I9">
-        <v>1733.402200287801</v>
+        <v>1783.226941689657</v>
       </c>
       <c r="J9">
-        <v>34.57339670311866</v>
+        <v>28.91416386564596</v>
       </c>
       <c r="K9">
-        <v>53.80051589678194</v>
+        <v>57.14470106962845</v>
       </c>
       <c r="L9">
-        <v>2.326161793250248</v>
+        <v>3.436951321185387</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7433,34 +7433,34 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>5004.198841197364</v>
+        <v>5200.635592870051</v>
       </c>
       <c r="D10">
-        <v>82.74271761357551</v>
+        <v>85.56286012408927</v>
       </c>
       <c r="E10">
-        <v>4893.554267997071</v>
+        <v>5158.563781968475</v>
       </c>
       <c r="F10">
-        <v>-1106.445732002929</v>
+        <v>-841.4362180315247</v>
       </c>
       <c r="G10">
-        <v>1106.445732002929</v>
+        <v>841.4362180315247</v>
       </c>
       <c r="H10">
-        <v>3256489.744880595</v>
+        <v>3204725.068185193</v>
       </c>
       <c r="I10">
-        <v>1655.032641752192</v>
+        <v>1665.503101232391</v>
       </c>
       <c r="J10">
-        <v>18.44076220004881</v>
+        <v>14.02393696719208</v>
       </c>
       <c r="K10">
-        <v>49.3805466846903</v>
+        <v>51.7546055568239</v>
       </c>
       <c r="L10">
-        <v>1.767776758496427</v>
+        <v>3.174673149074104</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7471,34 +7471,34 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>5578.247402929846</v>
+        <v>5521.888530344434</v>
       </c>
       <c r="D11">
-        <v>131.8733020254661</v>
+        <v>109.1318678591186</v>
       </c>
       <c r="E11">
-        <v>5086.94155881094</v>
+        <v>5286.198452994141</v>
       </c>
       <c r="F11">
-        <v>-4913.05844118906</v>
+        <v>-4713.801547005859</v>
       </c>
       <c r="G11">
-        <v>4913.05844118906</v>
+        <v>4713.801547005859</v>
       </c>
       <c r="H11">
-        <v>5576673.467287093</v>
+        <v>5317525.063337374</v>
       </c>
       <c r="I11">
-        <v>2017.035508356288</v>
+        <v>2004.202928540554</v>
       </c>
       <c r="J11">
-        <v>49.1305844118906</v>
+        <v>47.13801547005859</v>
       </c>
       <c r="K11">
-        <v>49.35277309882367</v>
+        <v>51.24165110273887</v>
       </c>
       <c r="L11">
-        <v>-0.9852727898509318</v>
+        <v>0.2862117503210975</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7509,34 +7509,34 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>6339.108634459781</v>
+        <v>5949.469378293375</v>
       </c>
       <c r="D12">
-        <v>194.772094975913</v>
+        <v>140.9767658681008</v>
       </c>
       <c r="E12">
-        <v>5710.120704955311</v>
+        <v>5631.020398203553</v>
       </c>
       <c r="F12">
-        <v>-6289.879295044689</v>
+        <v>-6368.979601796447</v>
       </c>
       <c r="G12">
-        <v>6289.879295044689</v>
+        <v>6368.979601796447</v>
       </c>
       <c r="H12">
-        <v>8975264.275181571</v>
+        <v>8842162.673813561</v>
       </c>
       <c r="I12">
-        <v>2444.319887025128</v>
+        <v>2440.680595866143</v>
       </c>
       <c r="J12">
-        <v>52.41566079203908</v>
+        <v>53.0748300149704</v>
       </c>
       <c r="K12">
-        <v>49.65906186814521</v>
+        <v>51.42496899396203</v>
       </c>
       <c r="L12">
-        <v>-3.386303708253628</v>
+        <v>-2.374482422417729</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7547,34 +7547,34 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>7280.492656492124</v>
+        <v>6485.923836953401</v>
       </c>
       <c r="D13">
-        <v>269.4332876815561</v>
+        <v>180.5245351472934</v>
       </c>
       <c r="E13">
-        <v>6533.880729435694</v>
+        <v>6090.446144161476</v>
       </c>
       <c r="F13">
-        <v>-7466.119270564306</v>
+        <v>-7909.553855838524</v>
       </c>
       <c r="G13">
-        <v>7466.119270564306</v>
+        <v>7909.553855838524</v>
       </c>
       <c r="H13">
-        <v>13226870.88310067</v>
+        <v>13725697.17604961</v>
       </c>
       <c r="I13">
-        <v>2900.847103710508</v>
+        <v>2937.850892227269</v>
       </c>
       <c r="J13">
-        <v>53.32942336117361</v>
+        <v>56.49681325598945</v>
       </c>
       <c r="K13">
-        <v>49.99273109478415</v>
+        <v>51.88604574505542</v>
       </c>
       <c r="L13">
-        <v>-5.42714876217299</v>
+        <v>-4.66494302543334</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7585,34 +7585,34 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>7594.933349756312</v>
+        <v>6733.12595349566</v>
       </c>
       <c r="D14">
-        <v>273.9340282398193</v>
+        <v>187.1922932867899</v>
       </c>
       <c r="E14">
-        <v>7549.92594417368</v>
+        <v>6666.448372100695</v>
       </c>
       <c r="F14">
-        <v>-450.0740558263196</v>
+        <v>-1333.551627899305</v>
       </c>
       <c r="G14">
-        <v>450.0740558263196</v>
+        <v>1333.551627899305</v>
       </c>
       <c r="H14">
-        <v>12141512.19748628</v>
+        <v>12730085.74006821</v>
       </c>
       <c r="I14">
-        <v>2696.616016386826</v>
+        <v>2804.159286866605</v>
       </c>
       <c r="J14">
-        <v>5.625925697828996</v>
+        <v>16.66939534874132</v>
       </c>
       <c r="K14">
-        <v>46.29549731170456</v>
+        <v>48.95132487869591</v>
       </c>
       <c r="L14">
-        <v>-6.005082935641433</v>
+        <v>-5.362911703265665</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7623,34 +7623,34 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>7381.980640196518</v>
+        <v>6724.302334443327</v>
       </c>
       <c r="D15">
-        <v>225.2453544598579</v>
+        <v>167.5907020528776</v>
       </c>
       <c r="E15">
-        <v>7868.867377996131</v>
+        <v>6920.31824678245</v>
       </c>
       <c r="F15">
-        <v>4868.867377996131</v>
+        <v>3920.31824678245</v>
       </c>
       <c r="G15">
-        <v>4868.867377996131</v>
+        <v>3920.31824678245</v>
       </c>
       <c r="H15">
-        <v>13031078.14725771</v>
+        <v>12933071.07975954</v>
       </c>
       <c r="I15">
-        <v>2863.712274972157</v>
+        <v>2890.017668398593</v>
       </c>
       <c r="J15">
-        <v>162.2955792665377</v>
+        <v>130.6772748927483</v>
       </c>
       <c r="K15">
-        <v>55.21858053899942</v>
+        <v>55.23793641823841</v>
       </c>
       <c r="L15">
-        <v>-3.954494850952119</v>
+        <v>-3.847083888845674</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7661,34 +7661,34 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>7246.503395190738</v>
+        <v>6747.298384671394</v>
       </c>
       <c r="D16">
-        <v>189.1730945132942</v>
+        <v>153.1312368703966</v>
       </c>
       <c r="E16">
-        <v>7607.225994656375</v>
+        <v>6891.893036496204</v>
       </c>
       <c r="F16">
-        <v>3607.225994656375</v>
+        <v>2891.893036496204</v>
       </c>
       <c r="G16">
-        <v>3607.225994656375</v>
+        <v>2891.893036496204</v>
       </c>
       <c r="H16">
-        <v>13029721.09220535</v>
+        <v>12606640.66938637</v>
       </c>
       <c r="I16">
-        <v>2916.820397806744</v>
+        <v>2890.151623262708</v>
       </c>
       <c r="J16">
-        <v>90.1806498664094</v>
+        <v>72.29732591240511</v>
       </c>
       <c r="K16">
-        <v>57.71587120524298</v>
+        <v>56.45646423925031</v>
       </c>
       <c r="L16">
-        <v>-2.645795214930719</v>
+        <v>-2.846303047863179</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -7699,34 +7699,34 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>6992.108840733629</v>
+        <v>6705.408140464701</v>
       </c>
       <c r="D17">
-        <v>144.8163296162539</v>
+        <v>133.6290887626877</v>
       </c>
       <c r="E17">
-        <v>7435.676489704032</v>
+        <v>6900.429621541791</v>
       </c>
       <c r="F17">
-        <v>4435.676489704032</v>
+        <v>3900.429621541791</v>
       </c>
       <c r="G17">
-        <v>4435.676489704032</v>
+        <v>3900.429621541791</v>
       </c>
       <c r="H17">
-        <v>13472754.7474792</v>
+        <v>12780421.37360066</v>
       </c>
       <c r="I17">
-        <v>3018.077470599897</v>
+        <v>2957.503489814647</v>
       </c>
       <c r="J17">
-        <v>147.8558829901344</v>
+        <v>130.0143207180597</v>
       </c>
       <c r="K17">
-        <v>63.72520532423574</v>
+        <v>61.3603213378376</v>
       </c>
       <c r="L17">
-        <v>-1.087325621556389</v>
+        <v>-1.462658545437144</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -7737,34 +7737,34 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>6923.232653314895</v>
+        <v>6747.085367766019</v>
       </c>
       <c r="D18">
-        <v>123.4470779127551</v>
+        <v>124.4339026165507</v>
       </c>
       <c r="E18">
-        <v>7136.925170349883</v>
+        <v>6839.037229227389</v>
       </c>
       <c r="F18">
-        <v>2136.925170349883</v>
+        <v>1839.037229227389</v>
       </c>
       <c r="G18">
-        <v>2136.925170349883</v>
+        <v>1839.037229227389</v>
       </c>
       <c r="H18">
-        <v>12916110.64974143</v>
+        <v>12193023.65840589</v>
       </c>
       <c r="I18">
-        <v>2963.00545183427</v>
+        <v>2887.599348527944</v>
       </c>
       <c r="J18">
-        <v>42.73850340699767</v>
+        <v>36.78074458454778</v>
       </c>
       <c r="K18">
-        <v>62.41353645440837</v>
+        <v>59.82409779075699</v>
       </c>
       <c r="L18">
-        <v>-0.3863333395376796</v>
+        <v>-0.8611930614882239</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7775,34 +7775,34 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>6842.011758104885</v>
+        <v>6777.943306863441</v>
       </c>
       <c r="D19">
-        <v>102.9802806004786</v>
+        <v>115.0763062646378</v>
       </c>
       <c r="E19">
-        <v>7046.67973122765</v>
+        <v>6871.51927038257</v>
       </c>
       <c r="F19">
-        <v>2046.67973122765</v>
+        <v>1871.51927038257</v>
       </c>
       <c r="G19">
-        <v>2046.67973122765</v>
+        <v>1871.51927038257</v>
       </c>
       <c r="H19">
-        <v>12402745.19518124</v>
+        <v>11681821.34787691</v>
       </c>
       <c r="I19">
-        <v>2909.10393885741</v>
+        <v>2827.829932166451</v>
       </c>
       <c r="J19">
-        <v>40.933594624553</v>
+        <v>37.43038540765139</v>
       </c>
       <c r="K19">
-        <v>61.15001046441688</v>
+        <v>58.50682059175079</v>
       </c>
       <c r="L19">
-        <v>0.3100514656435505</v>
+        <v>-0.217573640454484</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7813,34 +7813,34 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>7050.492834834828</v>
+        <v>6948.368632471674</v>
       </c>
       <c r="D20">
-        <v>113.530360213425</v>
+        <v>120.6112081989973</v>
       </c>
       <c r="E20">
-        <v>6944.992038705363</v>
+        <v>6893.019613128078</v>
       </c>
       <c r="F20">
-        <v>-1055.007961294637</v>
+        <v>-1106.980386871922</v>
       </c>
       <c r="G20">
-        <v>1055.007961294637</v>
+        <v>1106.980386871922</v>
       </c>
       <c r="H20">
-        <v>11775539.45091534</v>
+        <v>11100909.36060148</v>
       </c>
       <c r="I20">
-        <v>2806.098606770589</v>
+        <v>2732.227179650088</v>
       </c>
       <c r="J20">
-        <v>13.18759951618296</v>
+        <v>13.83725483589902</v>
       </c>
       <c r="K20">
-        <v>58.48543207840388</v>
+        <v>56.02517804975902</v>
       </c>
       <c r="L20">
-        <v>-0.0545369364331046</v>
+        <v>-0.6303434987496529</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -7851,34 +7851,34 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>6747.620875543427</v>
+        <v>6865.530848637138</v>
       </c>
       <c r="D21">
-        <v>71.89012826294243</v>
+        <v>100.266308995644</v>
       </c>
       <c r="E21">
-        <v>7164.023195048252</v>
+        <v>7068.979840670671</v>
       </c>
       <c r="F21">
-        <v>4164.023195048252</v>
+        <v>4068.979840670671</v>
       </c>
       <c r="G21">
-        <v>4164.023195048252</v>
+        <v>4068.979840670671</v>
       </c>
       <c r="H21">
-        <v>12068357.85712505</v>
+        <v>11388050.81234794</v>
       </c>
       <c r="I21">
-        <v>2877.568321943098</v>
+        <v>2802.582582861698</v>
       </c>
       <c r="J21">
-        <v>138.8007731682751</v>
+        <v>135.6326613556891</v>
       </c>
       <c r="K21">
-        <v>62.71255529366027</v>
+        <v>60.21504559217639</v>
       </c>
       <c r="L21">
-        <v>1.393880778822772</v>
+        <v>0.8373484568204588</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -7889,34 +7889,34 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>6937.559903425733</v>
+        <v>7017.507299751142</v>
       </c>
       <c r="D22">
-        <v>83.69501822487875</v>
+        <v>105.4373232074801</v>
       </c>
       <c r="E22">
-        <v>6819.511003806369</v>
+        <v>6965.797157632782</v>
       </c>
       <c r="F22">
-        <v>-1180.488996193631</v>
+        <v>-1034.202842367218</v>
       </c>
       <c r="G22">
-        <v>1180.488996193631</v>
+        <v>1034.202842367218</v>
       </c>
       <c r="H22">
-        <v>11534617.67777551</v>
+        <v>10872127.04768857</v>
       </c>
       <c r="I22">
-        <v>2792.714355655624</v>
+        <v>2714.163595836974</v>
       </c>
       <c r="J22">
-        <v>14.75611245242038</v>
+        <v>12.92753552959023</v>
       </c>
       <c r="K22">
-        <v>60.31473315159828</v>
+        <v>57.85067008904709</v>
       </c>
       <c r="L22">
-        <v>1.013529425872005</v>
+        <v>0.4835874154811844</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -7927,34 +7927,34 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>7519.129429485551</v>
+        <v>7366.797391810692</v>
       </c>
       <c r="D23">
-        <v>133.4824690083726</v>
+        <v>129.822600092687</v>
       </c>
       <c r="E23">
-        <v>7021.254921650611</v>
+        <v>7122.944622958623</v>
       </c>
       <c r="F23">
-        <v>-4978.745078349389</v>
+        <v>-4877.055377041377</v>
       </c>
       <c r="G23">
-        <v>4978.745078349389</v>
+        <v>4877.055377041377</v>
       </c>
       <c r="H23">
-        <v>12165726.48146183</v>
+        <v>11487057.62402379</v>
       </c>
       <c r="I23">
-        <v>2896.81105673628</v>
+        <v>2817.158442560993</v>
       </c>
       <c r="J23">
-        <v>41.48954231957823</v>
+        <v>40.64212814201147</v>
       </c>
       <c r="K23">
-        <v>59.41829549293065</v>
+        <v>57.03121571061681</v>
       </c>
       <c r="L23">
-        <v>-0.7415902724624303</v>
+        <v>-1.26528915260338</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -7965,34 +7965,34 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>8087.350708644531</v>
+        <v>7721.788992308209</v>
       </c>
       <c r="D24">
-        <v>176.9563500234334</v>
+        <v>152.33950013317</v>
       </c>
       <c r="E24">
-        <v>7652.611898493923</v>
+        <v>7496.619991903379</v>
       </c>
       <c r="F24">
-        <v>-4347.388101506077</v>
+        <v>-4503.380008096621</v>
       </c>
       <c r="G24">
-        <v>4347.388101506077</v>
+        <v>4503.380008096621</v>
       </c>
       <c r="H24">
-        <v>12471819.97344614</v>
+        <v>11886756.43644654</v>
       </c>
       <c r="I24">
-        <v>2962.746376953089</v>
+        <v>2893.804877358067</v>
       </c>
       <c r="J24">
-        <v>36.2282341792173</v>
+        <v>37.52816673413851</v>
       </c>
       <c r="K24">
-        <v>58.36420179685277</v>
+        <v>56.14471348441325</v>
       </c>
       <c r="L24">
-        <v>-2.192437075570227</v>
+        <v>-2.787990334026862</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -8003,34 +8003,34 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>9037.876352801168</v>
+        <v>8280.422067819311</v>
       </c>
       <c r="D25">
-        <v>254.3132794367538</v>
+        <v>192.9688576709632</v>
       </c>
       <c r="E25">
-        <v>8264.307058667964</v>
+        <v>7874.128492441379</v>
       </c>
       <c r="F25">
-        <v>-7735.692941332036</v>
+        <v>-8125.871507558621</v>
       </c>
       <c r="G25">
-        <v>7735.692941332036</v>
+        <v>8125.871507558621</v>
       </c>
       <c r="H25">
-        <v>14531347.16079954</v>
+        <v>14240801.27648595</v>
       </c>
       <c r="I25">
-        <v>3170.265792795652</v>
+        <v>3121.286035192873</v>
       </c>
       <c r="J25">
-        <v>48.34808088332522</v>
+        <v>50.78669692224138</v>
       </c>
       <c r="K25">
-        <v>57.92871827887332</v>
+        <v>55.91175624257969</v>
       </c>
       <c r="L25">
-        <v>-4.489001514010491</v>
+        <v>-5.188172872209079</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -8041,34 +8041,34 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>9362.97066901413</v>
+        <v>8549.72137921576</v>
       </c>
       <c r="D26">
-        <v>261.3913831143747</v>
+        <v>200.6019030435118</v>
       </c>
       <c r="E26">
-        <v>9292.189632237922</v>
+        <v>8473.390925490274</v>
       </c>
       <c r="F26">
-        <v>-707.8103677620784</v>
+        <v>-1526.609074509726</v>
       </c>
       <c r="G26">
-        <v>707.8103677620784</v>
+        <v>1526.609074509726</v>
       </c>
       <c r="H26">
-        <v>13946749.1756292</v>
+        <v>13744540.19273135</v>
       </c>
       <c r="I26">
-        <v>3067.663483419253</v>
+        <v>3054.841161831076</v>
       </c>
       <c r="J26">
-        <v>7.078103677620784</v>
+        <v>15.26609074509726</v>
       </c>
       <c r="K26">
-        <v>55.80994267048779</v>
+        <v>54.21818684685127</v>
       </c>
       <c r="L26">
-        <v>-4.869875197257977</v>
+        <v>-5.800753515472735</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8079,34 +8079,34 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>8861.925846915654</v>
+        <v>8412.807118146307</v>
       </c>
       <c r="D27">
-        <v>185.1477625930896</v>
+        <v>166.8502866322154</v>
       </c>
       <c r="E27">
-        <v>9624.362052128505</v>
+        <v>8750.323282259271</v>
       </c>
       <c r="F27">
-        <v>7624.362052128505</v>
+        <v>6750.323282259271</v>
       </c>
       <c r="G27">
-        <v>7624.362052128505</v>
+        <v>6750.323282259271</v>
       </c>
       <c r="H27">
-        <v>15714115.07668152</v>
+        <v>15017433.16162256</v>
       </c>
       <c r="I27">
-        <v>3249.931426167623</v>
+        <v>3202.660446648204</v>
       </c>
       <c r="J27">
-        <v>381.2181026064252</v>
+        <v>337.5161641129636</v>
       </c>
       <c r="K27">
-        <v>68.82626906792528</v>
+        <v>65.55010593749576</v>
       </c>
       <c r="L27">
-        <v>-2.25074787745126</v>
+        <v>-3.425295159817535</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8117,34 +8117,34 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>8642.366248557868</v>
+        <v>8400.674534539598</v>
       </c>
       <c r="D28">
-        <v>144.677026498002</v>
+        <v>148.9519996083228</v>
       </c>
       <c r="E28">
-        <v>9047.073609508743</v>
+        <v>8579.657404778523</v>
       </c>
       <c r="F28">
-        <v>4047.073609508743</v>
+        <v>3579.657404778523</v>
       </c>
       <c r="G28">
-        <v>4047.073609508743</v>
+        <v>3579.657404778523</v>
       </c>
       <c r="H28">
-        <v>15739680.06607001</v>
+        <v>14932683.69908268</v>
       </c>
       <c r="I28">
-        <v>3280.590740911513</v>
+        <v>3217.160329653216</v>
       </c>
       <c r="J28">
-        <v>80.94147219017486</v>
+        <v>71.59314809557047</v>
       </c>
       <c r="K28">
-        <v>69.29223841878104</v>
+        <v>65.78253063588325</v>
       </c>
       <c r="L28">
-        <v>-0.9960714114837287</v>
+        <v>-2.29718110519573</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -8155,34 +8155,34 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>8408.338947550285</v>
+        <v>8372.145207440524</v>
       </c>
       <c r="D29">
-        <v>106.8065937474435</v>
+        <v>131.2038669375832</v>
       </c>
       <c r="E29">
-        <v>8787.04327505587</v>
+        <v>8549.626534147921</v>
       </c>
       <c r="F29">
-        <v>3787.04327505587</v>
+        <v>3549.626534147921</v>
       </c>
       <c r="G29">
-        <v>3787.04327505587</v>
+        <v>3549.626534147921</v>
       </c>
       <c r="H29">
-        <v>15687902.90685059</v>
+        <v>14846282.39659543</v>
       </c>
       <c r="I29">
-        <v>3299.348242176118</v>
+        <v>3229.473892782649</v>
       </c>
       <c r="J29">
-        <v>75.74086550111741</v>
+        <v>70.99253068295842</v>
       </c>
       <c r="K29">
-        <v>69.53107645886757</v>
+        <v>65.97549360058973</v>
       </c>
       <c r="L29">
-        <v>0.1574070353098442</v>
+        <v>-1.189287640968462</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8193,34 +8193,34 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>7963.630987167956</v>
+        <v>8228.181620659201</v>
       </c>
       <c r="D30">
-        <v>51.65513833446626</v>
+        <v>103.6871215656926</v>
       </c>
       <c r="E30">
-        <v>8515.145541297728</v>
+        <v>8503.349074378108</v>
       </c>
       <c r="F30">
-        <v>5515.145541297728</v>
+        <v>5503.349074378108</v>
       </c>
       <c r="G30">
-        <v>5515.145541297728</v>
+        <v>5503.349074378108</v>
       </c>
       <c r="H30">
-        <v>16213936.02952365</v>
+        <v>15397731.27651911</v>
       </c>
       <c r="I30">
-        <v>3378.48386000189</v>
+        <v>3310.683720696773</v>
       </c>
       <c r="J30">
-        <v>183.8381847099243</v>
+        <v>183.4449691459369</v>
       </c>
       <c r="K30">
-        <v>73.61347318211961</v>
+        <v>70.17083201292357</v>
       </c>
       <c r="L30">
-        <v>1.786152137056544</v>
+        <v>0.5021849947392397</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -8231,34 +8231,34 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>7613.75751295218</v>
+        <v>8115.275305113648</v>
       </c>
       <c r="D31">
-        <v>11.50227707944205</v>
+        <v>82.027777854568</v>
       </c>
       <c r="E31">
-        <v>8015.286125502422</v>
+        <v>8331.868742224893</v>
       </c>
       <c r="F31">
-        <v>4015.286125502422</v>
+        <v>4331.868742224893</v>
       </c>
       <c r="G31">
-        <v>4015.286125502422</v>
+        <v>4331.868742224893</v>
       </c>
       <c r="H31">
-        <v>16210783.8447005</v>
+        <v>15513846.98422069</v>
       </c>
       <c r="I31">
-        <v>3400.442558812253</v>
+        <v>3345.89699730119</v>
       </c>
       <c r="J31">
-        <v>100.3821531375605</v>
+        <v>108.2967185556223</v>
       </c>
       <c r="K31">
-        <v>74.53653111161758</v>
+        <v>71.48551775577525</v>
       </c>
       <c r="L31">
-        <v>2.955430688282569</v>
+        <v>1.791580683422539</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -8269,34 +8269,34 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>7462.73381102846</v>
+        <v>8087.437928819804</v>
       </c>
       <c r="D32">
-        <v>-4.750320820874173</v>
+        <v>71.04126243972684</v>
       </c>
       <c r="E32">
-        <v>7625.259790031622</v>
+        <v>8197.303082968216</v>
       </c>
       <c r="F32">
-        <v>1625.259790031622</v>
+        <v>2197.303082968216</v>
       </c>
       <c r="G32">
-        <v>1625.259790031622</v>
+        <v>2197.303082968216</v>
       </c>
       <c r="H32">
-        <v>15758473.3627136</v>
+        <v>15157656.77936072</v>
       </c>
       <c r="I32">
-        <v>3341.269799852898</v>
+        <v>3307.610533490091</v>
       </c>
       <c r="J32">
-        <v>27.0876631671937</v>
+        <v>36.62171804947026</v>
       </c>
       <c r="K32">
-        <v>72.95490218013677</v>
+        <v>70.32339109889841</v>
       </c>
       <c r="L32">
-        <v>3.494190167642692</v>
+        <v>2.476636057695347</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -8307,34 +8307,34 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>7412.185141186827</v>
+        <v>8100.555231696554</v>
       </c>
       <c r="D33">
-        <v>-9.33015572295001</v>
+        <v>65.24886648342914</v>
       </c>
       <c r="E33">
-        <v>7457.983490207585</v>
+        <v>8158.479191259531</v>
       </c>
       <c r="F33">
-        <v>457.9834902075854</v>
+        <v>1158.479191259531</v>
       </c>
       <c r="G33">
-        <v>457.9834902075854</v>
+        <v>1158.479191259531</v>
       </c>
       <c r="H33">
-        <v>15256901.6051197</v>
+        <v>14711992.81991623</v>
       </c>
       <c r="I33">
-        <v>3248.260564057888</v>
+        <v>3238.283715998783</v>
       </c>
       <c r="J33">
-        <v>6.542621288679791</v>
+        <v>16.54970273227902</v>
       </c>
       <c r="K33">
-        <v>70.81257053847686</v>
+        <v>68.58875599029778</v>
       </c>
       <c r="L33">
-        <v>3.735234699625785</v>
+        <v>2.887401946012055</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -8345,34 +8345,34 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>7662.56948691749</v>
+        <v>8257.513893270983</v>
       </c>
       <c r="D34">
-        <v>16.64129442241128</v>
+        <v>74.41984599252915</v>
       </c>
       <c r="E34">
-        <v>7402.854985463878</v>
+        <v>8165.804098179983</v>
       </c>
       <c r="F34">
-        <v>-2597.145014536122</v>
+        <v>-1834.195901820017</v>
       </c>
       <c r="G34">
-        <v>2597.145014536122</v>
+        <v>1834.195901820017</v>
       </c>
       <c r="H34">
-        <v>14990909.74953877</v>
+        <v>14357376.62573926</v>
       </c>
       <c r="I34">
-        <v>3227.913203135334</v>
+        <v>3194.405971805697</v>
       </c>
       <c r="J34">
-        <v>25.97145014536122</v>
+        <v>18.34195901820017</v>
       </c>
       <c r="K34">
-        <v>69.41128552619199</v>
+        <v>67.01854358491974</v>
       </c>
       <c r="L34">
-        <v>2.954190511844169</v>
+        <v>2.35287276189427</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -8383,34 +8383,34 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>8411.289703205912</v>
+        <v>8665.337052300336</v>
       </c>
       <c r="D35">
-        <v>89.84918660901231</v>
+        <v>107.7601772962115</v>
       </c>
       <c r="E35">
-        <v>7679.210781339902</v>
+        <v>8331.933739263512</v>
       </c>
       <c r="F35">
-        <v>-7320.789218660098</v>
+        <v>-6668.066260736488</v>
       </c>
       <c r="G35">
-        <v>7320.789218660098</v>
+        <v>6668.066260736488</v>
       </c>
       <c r="H35">
-        <v>16160698.9930088</v>
+        <v>15269671.50549178</v>
       </c>
       <c r="I35">
-        <v>3351.939749060326</v>
+        <v>3299.6684048036</v>
       </c>
       <c r="J35">
-        <v>48.80526145773399</v>
+        <v>44.45377507157659</v>
       </c>
       <c r="K35">
-        <v>68.78686055442054</v>
+        <v>66.33476272087904</v>
       </c>
       <c r="L35">
-        <v>0.6608356667866103</v>
+        <v>0.2569847744467537</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -8421,34 +8421,34 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>9151.025000833431</v>
+        <v>9084.442368116719</v>
       </c>
       <c r="D36">
-        <v>154.837797710863</v>
+        <v>138.8946911482287</v>
       </c>
       <c r="E36">
-        <v>8501.138889814923</v>
+        <v>8773.097229596548</v>
       </c>
       <c r="F36">
-        <v>-6498.861110185077</v>
+        <v>-6226.902770403452</v>
       </c>
       <c r="G36">
-        <v>6498.861110185077</v>
+        <v>6226.902770403452</v>
       </c>
       <c r="H36">
-        <v>16927595.95584607</v>
+        <v>15960984.64097902</v>
       </c>
       <c r="I36">
-        <v>3444.496259681643</v>
+        <v>3385.763533203596</v>
       </c>
       <c r="J36">
-        <v>43.32574073456718</v>
+        <v>41.51268513602302</v>
       </c>
       <c r="K36">
-        <v>68.03800408913074</v>
+        <v>65.6047016154421</v>
       </c>
       <c r="L36">
-        <v>-1.243659289524727</v>
+        <v>-1.588692824202165</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -8459,34 +8459,34 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>10175.27651868987</v>
+        <v>9662.1702063017</v>
       </c>
       <c r="D37">
-        <v>241.7791697254201</v>
+        <v>182.7780058519039</v>
       </c>
       <c r="E37">
-        <v>9305.862798544294</v>
+        <v>9223.337059264948</v>
       </c>
       <c r="F37">
-        <v>-8694.137201455706</v>
+        <v>-8776.662940735052</v>
       </c>
       <c r="G37">
-        <v>8694.137201455706</v>
+        <v>8776.662940735052</v>
       </c>
       <c r="H37">
-        <v>18603608.11932864</v>
+        <v>17705808.29053025</v>
       </c>
       <c r="I37">
-        <v>3594.486000875188</v>
+        <v>3539.789230561637</v>
       </c>
       <c r="J37">
-        <v>48.30076223030947</v>
+        <v>48.75923855963918</v>
       </c>
       <c r="K37">
-        <v>67.47408289316441</v>
+        <v>65.12340267099057</v>
       </c>
       <c r="L37">
-        <v>-3.610507029205869</v>
+        <v>-3.998995490512577</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -8497,34 +8497,34 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>10175.35011957376</v>
+        <v>9752.700801545923</v>
       </c>
       <c r="D38">
-        <v>217.6086128412673</v>
+        <v>173.5532647911358</v>
       </c>
       <c r="E38">
-        <v>10417.05568841528</v>
+        <v>9844.948212153604</v>
       </c>
       <c r="F38">
-        <v>2417.055688415285</v>
+        <v>1844.948212153604</v>
       </c>
       <c r="G38">
-        <v>2417.055688415285</v>
+        <v>1844.948212153604</v>
       </c>
       <c r="H38">
-        <v>18249123.39937231</v>
+        <v>17308531.22428021</v>
       </c>
       <c r="I38">
-        <v>3561.779603306857</v>
+        <v>3492.710313383636</v>
       </c>
       <c r="J38">
-        <v>30.21319610519106</v>
+        <v>23.06185265192005</v>
       </c>
       <c r="K38">
-        <v>66.43905826016515</v>
+        <v>63.95502628157195</v>
       </c>
       <c r="L38">
-        <v>-2.965051873036072</v>
+        <v>-3.524670486142083</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -8535,34 +8535,34 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>9853.662859173523</v>
+        <v>9679.941363020205</v>
       </c>
       <c r="D39">
-        <v>163.6790255171171</v>
+        <v>148.9219944594504</v>
       </c>
       <c r="E39">
-        <v>10392.95873241503</v>
+        <v>9926.254066337058</v>
       </c>
       <c r="F39">
-        <v>5392.958732415025</v>
+        <v>4926.254066337058</v>
       </c>
       <c r="G39">
-        <v>5392.958732415025</v>
+        <v>4926.254066337058</v>
       </c>
       <c r="H39">
-        <v>18541958.00721445</v>
+        <v>17496624.41081595</v>
       </c>
       <c r="I39">
-        <v>3611.270931120591</v>
+        <v>3531.454739139134</v>
       </c>
       <c r="J39">
-        <v>107.8591746483005</v>
+        <v>98.52508132674116</v>
       </c>
       <c r="K39">
-        <v>67.55852086524989</v>
+        <v>64.88935209360356</v>
       </c>
       <c r="L39">
-        <v>-1.431048140746401</v>
+        <v>-2.091035971677329</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -8573,34 +8573,34 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>9415.607696221576</v>
+        <v>9537.420189605671</v>
       </c>
       <c r="D40">
-        <v>103.5056066702107</v>
+        <v>119.777677672052</v>
       </c>
       <c r="E40">
-        <v>10017.34188469064</v>
+        <v>9828.863357479655</v>
       </c>
       <c r="F40">
-        <v>6017.341884690639</v>
+        <v>5828.863357479655</v>
       </c>
       <c r="G40">
-        <v>6017.341884690639</v>
+        <v>5828.863357479655</v>
       </c>
       <c r="H40">
-        <v>19006864.4637944</v>
+        <v>17930282.92737787</v>
       </c>
       <c r="I40">
-        <v>3674.588587793487</v>
+        <v>3591.912860674411</v>
       </c>
       <c r="J40">
-        <v>150.433547117266</v>
+        <v>145.7215839369914</v>
       </c>
       <c r="K40">
-        <v>69.73944260872399</v>
+        <v>67.01651608948218</v>
       </c>
       <c r="L40">
-        <v>0.2311658333128012</v>
+        <v>-0.4330660555386049</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -8611,34 +8611,34 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>8967.201972602608</v>
+        <v>9374.337973913836</v>
       </c>
       <c r="D41">
-        <v>48.31447364129293</v>
+        <v>91.49168833566333</v>
       </c>
       <c r="E41">
-        <v>9519.113302891787</v>
+        <v>9657.197867277722</v>
       </c>
       <c r="F41">
-        <v>5519.113302891787</v>
+        <v>5657.197867277722</v>
       </c>
       <c r="G41">
-        <v>5519.113302891787</v>
+        <v>5657.197867277722</v>
       </c>
       <c r="H41">
-        <v>19300550.28908575</v>
+        <v>18291144.58845874</v>
       </c>
       <c r="I41">
-        <v>3721.884093308828</v>
+        <v>3644.868886484753</v>
       </c>
       <c r="J41">
-        <v>137.9778325722947</v>
+        <v>141.4299466819431</v>
       </c>
       <c r="K41">
-        <v>71.48914491548221</v>
+        <v>68.92455277134016</v>
       </c>
       <c r="L41">
-        <v>1.711109877741789</v>
+        <v>1.125325069463024</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -8649,34 +8649,34 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>8313.96480161951</v>
+        <v>9092.538179137024</v>
       </c>
       <c r="D42">
-        <v>-21.84069082114623</v>
+        <v>54.16254002441573</v>
       </c>
       <c r="E42">
-        <v>9015.516446243901</v>
+        <v>9465.8296622495</v>
       </c>
       <c r="F42">
-        <v>7015.516446243901</v>
+        <v>7465.8296622495</v>
       </c>
       <c r="G42">
-        <v>7015.516446243901</v>
+        <v>7465.8296622495</v>
       </c>
       <c r="H42">
-        <v>20048473.30704657</v>
+        <v>19227331.28739038</v>
       </c>
       <c r="I42">
-        <v>3804.224902132205</v>
+        <v>3740.392905878871</v>
       </c>
       <c r="J42">
-        <v>350.775822312195</v>
+        <v>373.291483112475</v>
       </c>
       <c r="K42">
-        <v>78.47131185040004</v>
+        <v>76.53372602986852</v>
       </c>
       <c r="L42">
-        <v>3.518211837216336</v>
+        <v>3.09258740624164</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -8687,34 +8687,34 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>7962.911699718528</v>
+        <v>8939.365683203367</v>
       </c>
       <c r="D43">
-        <v>-54.76193192912974</v>
+        <v>33.42903642860846</v>
       </c>
       <c r="E43">
-        <v>8292.124110798364</v>
+        <v>9146.700719161439</v>
       </c>
       <c r="F43">
-        <v>3292.124110798364</v>
+        <v>4146.700719161439</v>
       </c>
       <c r="G43">
-        <v>3292.124110798364</v>
+        <v>4146.700719161439</v>
       </c>
       <c r="H43">
-        <v>19823829.59616495</v>
+        <v>19177765.32560754</v>
       </c>
       <c r="I43">
-        <v>3791.73463892894</v>
+        <v>3750.302852544299</v>
       </c>
       <c r="J43">
-        <v>65.84248221596728</v>
+        <v>82.93401438322879</v>
       </c>
       <c r="K43">
-        <v>78.16329161541388</v>
+        <v>76.68983062385291</v>
       </c>
       <c r="L43">
-        <v>4.398038043512351</v>
+        <v>4.190112994105824</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -8725,34 +8725,34 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>7817.334791010459</v>
+        <v>8874.154983650376</v>
       </c>
       <c r="D44">
-        <v>-63.84342960702375</v>
+        <v>23.56506283044859</v>
       </c>
       <c r="E44">
-        <v>7908.149767789399</v>
+        <v>8972.794719631975</v>
       </c>
       <c r="F44">
-        <v>908.1497677893985</v>
+        <v>1972.794719631975</v>
       </c>
       <c r="G44">
-        <v>908.1497677893985</v>
+        <v>1972.794719631975</v>
       </c>
       <c r="H44">
-        <v>19371470.2248452</v>
+        <v>18813816.60370754</v>
       </c>
       <c r="I44">
-        <v>3723.07785628276</v>
+        <v>3707.981230332101</v>
       </c>
       <c r="J44">
-        <v>12.97356811127712</v>
+        <v>28.18278170902821</v>
       </c>
       <c r="K44">
-        <v>76.61115534150586</v>
+        <v>75.53490088778567</v>
       </c>
       <c r="L44">
-        <v>4.723066140298021</v>
+        <v>4.769977606473986</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -8763,34 +8763,34 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>7978.142225263092</v>
+        <v>8952.834044156783</v>
       </c>
       <c r="D45">
-        <v>-41.37834322105804</v>
+        <v>29.07646259804443</v>
       </c>
       <c r="E45">
-        <v>7753.491361403435</v>
+        <v>8897.720046480825</v>
       </c>
       <c r="F45">
-        <v>-2246.508638596565</v>
+        <v>-1102.279953519175</v>
       </c>
       <c r="G45">
-        <v>2246.508638596565</v>
+        <v>1102.279953519175</v>
       </c>
       <c r="H45">
-        <v>19038338.38387878</v>
+        <v>18404542.28957319</v>
       </c>
       <c r="I45">
-        <v>3688.739037266802</v>
+        <v>3647.383526220172</v>
       </c>
       <c r="J45">
-        <v>22.46508638596565</v>
+        <v>11.02279953519175</v>
       </c>
       <c r="K45">
-        <v>75.35194443556307</v>
+        <v>74.03461946098115</v>
       </c>
       <c r="L45">
-        <v>4.158015562269365</v>
+        <v>4.547014965979664</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -8801,34 +8801,34 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>8543.087493837829</v>
+        <v>9232.814981417087</v>
       </c>
       <c r="D46">
-        <v>19.25401795852151</v>
+        <v>54.1669100642703</v>
       </c>
       <c r="E46">
-        <v>7936.763882042033</v>
+        <v>8981.910506754828</v>
       </c>
       <c r="F46">
-        <v>-6063.236117957967</v>
+        <v>-5018.089493245172</v>
       </c>
       <c r="G46">
-        <v>6063.236117957967</v>
+        <v>5018.089493245172</v>
       </c>
       <c r="H46">
-        <v>19441167.78929313</v>
+        <v>18558557.7412242</v>
       </c>
       <c r="I46">
-        <v>3742.704880009784</v>
+        <v>3678.53593456165</v>
       </c>
       <c r="J46">
-        <v>43.30882941398548</v>
+        <v>35.84349638032266</v>
       </c>
       <c r="K46">
-        <v>74.62369182143631</v>
+        <v>73.16663939096618</v>
       </c>
       <c r="L46">
-        <v>2.478046894288835</v>
+        <v>3.144353675730494</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -8839,34 +8839,34 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>9306.107360616716</v>
+        <v>9622.632796907288</v>
       </c>
       <c r="D47">
-        <v>93.630602840558</v>
+        <v>87.73200060686344</v>
       </c>
       <c r="E47">
-        <v>8562.34151179635</v>
+        <v>9286.981891481357</v>
       </c>
       <c r="F47">
-        <v>-7437.65848820365</v>
+        <v>-6713.018108518643</v>
       </c>
       <c r="G47">
-        <v>7437.65848820365</v>
+        <v>6713.018108518643</v>
       </c>
       <c r="H47">
-        <v>20238447.70035657</v>
+        <v>19147581.17198142</v>
       </c>
       <c r="I47">
-        <v>3824.81496019187</v>
+        <v>3745.968871760694</v>
       </c>
       <c r="J47">
-        <v>46.48536555127281</v>
+        <v>41.95636317824152</v>
       </c>
       <c r="K47">
-        <v>73.99839568209934</v>
+        <v>72.47307769735008</v>
       </c>
       <c r="L47">
-        <v>0.4802689110618079</v>
+        <v>1.295686121477481</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -8877,34 +8877,34 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>10059.76416711155</v>
+        <v>10024.84655763844</v>
       </c>
       <c r="D48">
-        <v>159.6332232059854</v>
+        <v>119.1801766192927</v>
       </c>
       <c r="E48">
-        <v>9399.737963457274</v>
+        <v>9710.364797514152</v>
       </c>
       <c r="F48">
-        <v>-6600.262036542726</v>
+        <v>-6289.635202485848</v>
       </c>
       <c r="G48">
-        <v>6600.262036542726</v>
+        <v>6289.635202485848</v>
       </c>
       <c r="H48">
-        <v>20745513.16232767</v>
+        <v>19591318.77651116</v>
       </c>
       <c r="I48">
-        <v>3885.150766199497</v>
+        <v>3801.265965906893</v>
       </c>
       <c r="J48">
-        <v>41.25163772839204</v>
+        <v>39.31022001553655</v>
       </c>
       <c r="K48">
-        <v>73.28650963962744</v>
+        <v>71.75214600861501</v>
       </c>
       <c r="L48">
-        <v>-1.226032812430084</v>
+        <v>-0.3777781762019525</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -8915,34 +8915,34 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>11197.45765128578</v>
+        <v>10636.82539754485</v>
       </c>
       <c r="D49">
-        <v>257.43924930281</v>
+        <v>168.460042948004</v>
       </c>
       <c r="E49">
-        <v>10219.39739031753</v>
+        <v>10144.02673425774</v>
       </c>
       <c r="F49">
-        <v>-9780.602609682468</v>
+        <v>-9855.973265742263</v>
       </c>
       <c r="G49">
-        <v>9780.602609682468</v>
+        <v>9855.973265742263</v>
       </c>
       <c r="H49">
-        <v>22339442.40160851</v>
+        <v>21241295.16456467</v>
       </c>
       <c r="I49">
-        <v>4010.585911805518</v>
+        <v>3930.089525477858</v>
       </c>
       <c r="J49">
-        <v>48.90301304841234</v>
+        <v>49.27986632871131</v>
       </c>
       <c r="K49">
-        <v>72.76771183981435</v>
+        <v>71.2740123984043</v>
       </c>
       <c r="L49">
-        <v>-3.626384087040647</v>
+        <v>-2.873219176407471</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -8953,34 +8953,34 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>11509.40721052973</v>
+        <v>10865.02116846821</v>
       </c>
       <c r="D50">
-        <v>262.8902802969241</v>
+        <v>174.4336157455396</v>
       </c>
       <c r="E50">
-        <v>11454.89690058859</v>
+        <v>10805.28544049285</v>
       </c>
       <c r="F50">
-        <v>-545.1030994114117</v>
+        <v>-1194.714559507147</v>
       </c>
       <c r="G50">
-        <v>545.1030994114117</v>
+        <v>1194.714559507147</v>
       </c>
       <c r="H50">
-        <v>21880227.71384558</v>
+        <v>20828504.49194245</v>
       </c>
       <c r="I50">
-        <v>3938.388353213973</v>
+        <v>3873.102547020135</v>
       </c>
       <c r="J50">
-        <v>4.542525828428431</v>
+        <v>9.955954662559559</v>
       </c>
       <c r="K50">
-        <v>71.34635379791048</v>
+        <v>69.99655286224086</v>
       </c>
       <c r="L50">
-        <v>-3.831269716552648</v>
+        <v>-3.223958828230673</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -8991,34 +8991,34 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>11095.06774174399</v>
+        <v>10737.48204500306</v>
       </c>
       <c r="D51">
-        <v>195.1673053886575</v>
+        <v>144.2363418244707</v>
       </c>
       <c r="E51">
-        <v>11772.29749082665</v>
+        <v>11039.45478421375</v>
       </c>
       <c r="F51">
-        <v>6772.297490826653</v>
+        <v>6039.454784213749</v>
       </c>
       <c r="G51">
-        <v>6772.297490826653</v>
+        <v>6039.454784213749</v>
       </c>
       <c r="H51">
-        <v>22369692.7258948</v>
+        <v>21147821.01436327</v>
       </c>
       <c r="I51">
-        <v>3996.223233573416</v>
+        <v>3917.313817166943</v>
       </c>
       <c r="J51">
-        <v>135.4459498165331</v>
+        <v>120.789095684275</v>
       </c>
       <c r="K51">
-        <v>72.65450881869869</v>
+        <v>71.03313536881298</v>
       </c>
       <c r="L51">
-        <v>-2.081147636847326</v>
+        <v>-1.645839130028463</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9029,34 +9029,34 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>10361.21154241938</v>
+        <v>10437.63246748616</v>
       </c>
       <c r="D52">
-        <v>102.264954917331</v>
+        <v>99.82774989033315</v>
       </c>
       <c r="E52">
-        <v>11290.23504713264</v>
+        <v>10881.71838682753</v>
       </c>
       <c r="F52">
-        <v>9290.235047132644</v>
+        <v>8881.718386827532</v>
       </c>
       <c r="G52">
-        <v>9290.235047132644</v>
+        <v>8881.718386827532</v>
       </c>
       <c r="H52">
-        <v>23648468.21599633</v>
+        <v>22302563.02413421</v>
       </c>
       <c r="I52">
-        <v>4102.103469844601</v>
+        <v>4016.601908560155</v>
       </c>
       <c r="J52">
-        <v>464.5117523566322</v>
+        <v>444.0859193413766</v>
       </c>
       <c r="K52">
-        <v>80.49165368945737</v>
+        <v>78.49419104826426</v>
       </c>
       <c r="L52">
-        <v>0.2373183698127996</v>
+        <v>0.6060969140966471</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9067,34 +9067,34 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>9717.12884760304</v>
+        <v>10160.58720650766</v>
       </c>
       <c r="D53">
-        <v>27.63018994396394</v>
+        <v>62.14044880345068</v>
       </c>
       <c r="E53">
-        <v>10463.47649733671</v>
+        <v>10537.46021737649</v>
       </c>
       <c r="F53">
-        <v>7463.476497336711</v>
+        <v>7537.460217376489</v>
       </c>
       <c r="G53">
-        <v>7463.476497336711</v>
+        <v>7537.460217376489</v>
       </c>
       <c r="H53">
-        <v>24276997.88678655</v>
+        <v>22979244.2693185</v>
       </c>
       <c r="I53">
-        <v>4168.012744893465</v>
+        <v>4085.638345987926</v>
       </c>
       <c r="J53">
-        <v>248.7825499112237</v>
+        <v>251.2486739125496</v>
       </c>
       <c r="K53">
-        <v>83.7914751840018</v>
+        <v>81.88153384952476</v>
       </c>
       <c r="L53">
-        <v>2.024221498828289</v>
+        <v>2.440722696149027</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -9105,34 +9105,34 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>8970.283133792303</v>
+        <v>9811.591272545558</v>
       </c>
       <c r="D54">
-        <v>-49.81740043150614</v>
+        <v>21.02681052689507</v>
       </c>
       <c r="E54">
-        <v>9744.759037547004</v>
+        <v>10222.72765531112</v>
       </c>
       <c r="F54">
-        <v>7744.759037547004</v>
+        <v>8222.727655311115</v>
       </c>
       <c r="G54">
-        <v>7744.759037547004</v>
+        <v>8222.727655311115</v>
       </c>
       <c r="H54">
-        <v>24963618.93799577</v>
+        <v>23837590.53516657</v>
       </c>
       <c r="I54">
-        <v>4236.796327444496</v>
+        <v>4165.197755782603</v>
       </c>
       <c r="J54">
-        <v>387.2379518773502</v>
+        <v>411.1363827655557</v>
       </c>
       <c r="K54">
-        <v>89.62698435118158</v>
+        <v>88.21335786714074</v>
       </c>
       <c r="L54">
-        <v>3.819333947759294</v>
+        <v>4.368253072584787</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -9143,34 +9143,34 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>8728.419160024718</v>
+        <v>9690.987178918831</v>
       </c>
       <c r="D55">
-        <v>-69.02205776511411</v>
+        <v>6.863720111532837</v>
       </c>
       <c r="E55">
-        <v>8920.465733360797</v>
+        <v>9832.618083072453</v>
       </c>
       <c r="F55">
-        <v>1920.465733360797</v>
+        <v>2832.618083072453</v>
       </c>
       <c r="G55">
-        <v>1920.465733360797</v>
+        <v>2832.618083072453</v>
       </c>
       <c r="H55">
-        <v>24562195.72469421</v>
+        <v>23539215.71760775</v>
       </c>
       <c r="I55">
-        <v>4193.091976612727</v>
+        <v>4140.054743089959</v>
       </c>
       <c r="J55">
-        <v>27.43522476229711</v>
+        <v>40.46597261532076</v>
       </c>
       <c r="K55">
-        <v>88.45355492497622</v>
+        <v>87.31246380578564</v>
       </c>
       <c r="L55">
-        <v>4.317149701813798</v>
+        <v>5.078980178411658</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9181,34 +9181,34 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>8393.457392033644</v>
+        <v>9512.958354078844</v>
       </c>
       <c r="D56">
-        <v>-95.61602878771005</v>
+        <v>-11.6255343836191</v>
       </c>
       <c r="E56">
-        <v>8659.397102259603</v>
+        <v>9697.850899030364</v>
       </c>
       <c r="F56">
-        <v>2659.397102259603</v>
+        <v>3697.850899030364</v>
       </c>
       <c r="G56">
-        <v>2659.397102259603</v>
+        <v>3697.850899030364</v>
       </c>
       <c r="H56">
-        <v>24238310.48807962</v>
+        <v>23356528.41304945</v>
       </c>
       <c r="I56">
-        <v>4164.690219680262</v>
+        <v>4131.865783014781</v>
       </c>
       <c r="J56">
-        <v>44.32328503766006</v>
+        <v>61.63084831717273</v>
       </c>
       <c r="K56">
-        <v>87.63632770484072</v>
+        <v>86.83687833377428</v>
       </c>
       <c r="L56">
-        <v>4.985149382938981</v>
+        <v>5.984005332013221</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -9219,34 +9219,34 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>8268.057226921341</v>
+        <v>9426.266178710464</v>
       </c>
       <c r="D57">
-        <v>-98.5944424201694</v>
+        <v>-19.1321984820952</v>
       </c>
       <c r="E57">
-        <v>8297.841363245934</v>
+        <v>9501.332819695226</v>
       </c>
       <c r="F57">
-        <v>297.8413632459342</v>
+        <v>1501.332819695226</v>
       </c>
       <c r="G57">
-        <v>297.8413632459342</v>
+        <v>1501.332819695226</v>
       </c>
       <c r="H57">
-        <v>23799226.83334472</v>
+        <v>22972846.08254844</v>
       </c>
       <c r="I57">
-        <v>4094.383876836001</v>
+        <v>4084.037910954426</v>
       </c>
       <c r="J57">
-        <v>3.723017040574177</v>
+        <v>18.76666024619033</v>
       </c>
       <c r="K57">
-        <v>86.1106311473086</v>
+        <v>85.59923800490913</v>
       </c>
       <c r="L57">
-        <v>5.143495303691703</v>
+        <v>6.421693497524275</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9257,34 +9257,34 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>8352.516506051055</v>
+        <v>9436.77728121695</v>
       </c>
       <c r="D58">
-        <v>-80.28907026518101</v>
+        <v>-16.16786838323715</v>
       </c>
       <c r="E58">
-        <v>8169.462784501171</v>
+        <v>9407.133980228369</v>
       </c>
       <c r="F58">
-        <v>-1830.537215498829</v>
+        <v>-592.8660197716308</v>
       </c>
       <c r="G58">
-        <v>1830.537215498829</v>
+        <v>592.8660197716308</v>
       </c>
       <c r="H58">
-        <v>23434077.54163012</v>
+        <v>22568893.29745651</v>
       </c>
       <c r="I58">
-        <v>4053.958043597838</v>
+        <v>4021.695555754733</v>
       </c>
       <c r="J58">
-        <v>18.30537215498829</v>
+        <v>5.928660197716308</v>
       </c>
       <c r="K58">
-        <v>84.89982295101717</v>
+        <v>84.17654911549496</v>
       </c>
       <c r="L58">
-        <v>4.743242732096149</v>
+        <v>6.373822513732395</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -9295,34 +9295,34 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9445.004692207287</v>
+        <v>9949.578942192025</v>
       </c>
       <c r="D59">
-        <v>36.98865537696027</v>
+        <v>36.72908455259414</v>
       </c>
       <c r="E59">
-        <v>8272.227435785875</v>
+        <v>9420.609412833712</v>
       </c>
       <c r="F59">
-        <v>-11727.77256421412</v>
+        <v>-10579.39058716629</v>
       </c>
       <c r="G59">
-        <v>11727.77256421412</v>
+        <v>10579.39058716629</v>
       </c>
       <c r="H59">
-        <v>25435947.22191614</v>
+        <v>24136518.06760328</v>
       </c>
       <c r="I59">
-        <v>4188.586368520931</v>
+        <v>4136.742837007568</v>
       </c>
       <c r="J59">
-        <v>58.63886282107062</v>
+        <v>52.89695293583144</v>
       </c>
       <c r="K59">
-        <v>84.43910435224618</v>
+        <v>83.62778427023771</v>
       </c>
       <c r="L59">
-        <v>1.790851089684666</v>
+        <v>3.639139217165025</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9333,34 +9333,34 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>10533.79401282582</v>
+        <v>10486.99262540739</v>
       </c>
       <c r="D60">
-        <v>142.1687219011179</v>
+        <v>86.79754441887108</v>
       </c>
       <c r="E60">
-        <v>9481.993347584248</v>
+        <v>9986.30802674462</v>
       </c>
       <c r="F60">
-        <v>-10518.00665241575</v>
+        <v>-10013.69197325538</v>
       </c>
       <c r="G60">
-        <v>10518.00665241575</v>
+        <v>10013.69197325538</v>
       </c>
       <c r="H60">
-        <v>26904783.71706004</v>
+        <v>25449233.73773494</v>
       </c>
       <c r="I60">
-        <v>4297.714304450152</v>
+        <v>4238.069546253219</v>
       </c>
       <c r="J60">
-        <v>52.59003326207876</v>
+        <v>50.0684598662769</v>
       </c>
       <c r="K60">
-        <v>83.88998243689846</v>
+        <v>83.04917522879011</v>
       </c>
       <c r="L60">
-        <v>-0.7019713215901358</v>
+        <v>1.189336574403681</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9371,34 +9371,34 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>11808.36646125425</v>
+        <v>11145.10066133495</v>
       </c>
       <c r="D61">
-        <v>255.4090945538485</v>
+        <v>143.9285935697396</v>
       </c>
       <c r="E61">
-        <v>10675.96273472694</v>
+        <v>10573.79016982626</v>
       </c>
       <c r="F61">
-        <v>-11324.03726527306</v>
+        <v>-11426.20983017374</v>
       </c>
       <c r="G61">
-        <v>11324.03726527306</v>
+        <v>11426.20983017374</v>
       </c>
       <c r="H61">
-        <v>28622225.00974195</v>
+        <v>27230742.8452845</v>
       </c>
       <c r="I61">
-        <v>4416.804524125117</v>
+        <v>4359.902432421364</v>
       </c>
       <c r="J61">
-        <v>51.47289666033208</v>
+        <v>51.93731740988063</v>
       </c>
       <c r="K61">
-        <v>83.34054030509226</v>
+        <v>82.52185560474079</v>
       </c>
       <c r="L61">
-        <v>-3.246897021829468</v>
+        <v>-1.46464715963883</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9409,94 +9409,94 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>11657.39800022729</v>
+        <v>11124.57779215945</v>
       </c>
       <c r="D62">
-        <v>214.7713389957675</v>
+        <v>127.483447295216</v>
       </c>
       <c r="E62">
-        <v>12063.7755558081</v>
+        <v>11289.02925490468</v>
       </c>
       <c r="F62">
-        <v>4063.775555808095</v>
+        <v>3289.029254904684</v>
       </c>
       <c r="G62">
-        <v>4063.775555808095</v>
+        <v>3289.029254904684</v>
       </c>
       <c r="H62">
-        <v>28420425.78904597</v>
+        <v>26957192.35519007</v>
       </c>
       <c r="I62">
-        <v>4410.9207079865</v>
+        <v>4342.05454612942</v>
       </c>
       <c r="J62">
-        <v>50.79719444760119</v>
+        <v>41.11286568630855</v>
       </c>
       <c r="K62">
-        <v>82.7981512074674</v>
+        <v>81.83170577276692</v>
       </c>
       <c r="L62">
-        <v>-2.329929413822535</v>
+        <v>-0.7131852965329817</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="E63">
-        <v>12278.54689480386</v>
+        <v>11416.5127021999</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="E64">
-        <v>12708.0895727954</v>
+        <v>11671.47959679033</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65">
-        <v>13352.4035897827</v>
+        <v>12053.92993867598</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66">
-        <v>14211.48894576577</v>
+        <v>12563.86372785684</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67">
-        <v>15285.34564074461</v>
+        <v>13201.28096433292</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68">
-        <v>16573.97367471921</v>
+        <v>13966.18164810422</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69">
-        <v>18077.37304768958</v>
+        <v>14858.56577917073</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70">
-        <v>19795.54375965572</v>
+        <v>15878.43335753246</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71">
-        <v>21728.48581061763</v>
+        <v>17025.78438318941</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72">
-        <v>23876.19920057531</v>
+        <v>18300.61885614157</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73">
-        <v>26238.68392952875</v>
+        <v>19702.93677638894</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74">
-        <v>28815.93999747796</v>
+        <v>21232.73814393154</v>
       </c>
     </row>
   </sheetData>
@@ -9572,13 +9572,13 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>5943.363229779768</v>
+        <v>5998.537928618207</v>
       </c>
       <c r="D3">
-        <v>57.83147724535762</v>
+        <v>66.79736580660398</v>
       </c>
       <c r="E3">
-        <v>0.4175986545536549</v>
+        <v>0.4219488293825183</v>
       </c>
       <c r="F3">
         <v>2588.449924639433</v>
@@ -9613,37 +9613,37 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>6030.051729519032</v>
+        <v>6078.159944218108</v>
       </c>
       <c r="D4">
-        <v>60.71717949474831</v>
+        <v>67.43859829626882</v>
       </c>
       <c r="E4">
-        <v>0.4768424550386773</v>
+        <v>0.4754974726377045</v>
       </c>
       <c r="F4">
-        <v>2847.844530786419</v>
+        <v>2878.282206940101</v>
       </c>
       <c r="G4">
-        <v>-152.155469213581</v>
+        <v>-121.7177930598987</v>
       </c>
       <c r="H4">
-        <v>152.155469213581</v>
+        <v>121.7177930598987</v>
       </c>
       <c r="I4">
-        <v>184712.3003098799</v>
+        <v>180544.2674777636</v>
       </c>
       <c r="J4">
-        <v>370.3026969265072</v>
+        <v>355.0838588496661</v>
       </c>
       <c r="K4">
-        <v>5.071848973786033</v>
+        <v>4.057259768663289</v>
       </c>
       <c r="L4">
-        <v>17.24717260287886</v>
+        <v>16.73987800031748</v>
       </c>
       <c r="M4">
-        <v>1.178210310232881</v>
+        <v>1.314427901880885</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9654,37 +9654,37 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>6126.228713206215</v>
+        <v>6162.556952057365</v>
       </c>
       <c r="D5">
-        <v>64.26315991399174</v>
+        <v>68.28651877341825</v>
       </c>
       <c r="E5">
-        <v>0.4653301572448232</v>
+        <v>0.4638320676167291</v>
       </c>
       <c r="F5">
-        <v>2817.727680627593</v>
+        <v>2843.093111222843</v>
       </c>
       <c r="G5">
-        <v>-182.2723193724073</v>
+        <v>-156.9068887771573</v>
       </c>
       <c r="H5">
-        <v>182.2723193724073</v>
+        <v>156.9068887771573</v>
       </c>
       <c r="I5">
-        <v>134215.9330097189</v>
+        <v>128569.4355670848</v>
       </c>
       <c r="J5">
-        <v>307.6259044084739</v>
+        <v>289.0248688254965</v>
       </c>
       <c r="K5">
-        <v>6.075743979080244</v>
+        <v>5.230229625905243</v>
       </c>
       <c r="L5">
-        <v>13.52336306161265</v>
+        <v>12.90332854218007</v>
       </c>
       <c r="M5">
-        <v>0.825750147868392</v>
+        <v>1.071967419486797</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9695,37 +9695,37 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>6311.398396717946</v>
+        <v>6295.996181832887</v>
       </c>
       <c r="D6">
-        <v>76.35381227376567</v>
+        <v>71.54415432352344</v>
       </c>
       <c r="E6">
-        <v>0.4059132792265963</v>
+        <v>0.4021149095840402</v>
       </c>
       <c r="F6">
-        <v>2465.055457530236</v>
+        <v>2481.123474126531</v>
       </c>
       <c r="G6">
-        <v>-534.9445424697637</v>
+        <v>-518.8765258734688</v>
       </c>
       <c r="H6">
-        <v>534.9445424697637</v>
+        <v>518.8765258734688</v>
       </c>
       <c r="I6">
-        <v>172203.3656368354</v>
+        <v>163735.2889509437</v>
       </c>
       <c r="J6">
-        <v>364.4555639237964</v>
+        <v>346.4877830874896</v>
       </c>
       <c r="K6">
-        <v>17.83148474899212</v>
+        <v>17.29588419578229</v>
       </c>
       <c r="L6">
-        <v>14.60039348345752</v>
+        <v>14.00146745558063</v>
       </c>
       <c r="M6">
-        <v>-0.7708001584386742</v>
+        <v>-0.603343878991269</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9736,37 +9736,37 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>6392.270282877734</v>
+        <v>6371.060970845966</v>
       </c>
       <c r="D7">
-        <v>76.80561966236792</v>
+        <v>71.72018605800119</v>
       </c>
       <c r="E7">
-        <v>0.6217595259902424</v>
+        <v>0.6216416698397689</v>
       </c>
       <c r="F7">
-        <v>3968.809451872494</v>
+        <v>3956.251502014034</v>
       </c>
       <c r="G7">
-        <v>-31.19054812750619</v>
+        <v>-43.74849798596597</v>
       </c>
       <c r="H7">
-        <v>31.19054812750619</v>
+        <v>43.74849798596597</v>
       </c>
       <c r="I7">
-        <v>137957.2625679672</v>
+        <v>131371.0173759606</v>
       </c>
       <c r="J7">
-        <v>297.8025607645383</v>
+        <v>285.9399260671848</v>
       </c>
       <c r="K7">
-        <v>0.7797637031876548</v>
+        <v>1.093712449649149</v>
       </c>
       <c r="L7">
-        <v>11.83626752740355</v>
+        <v>11.41991645439433</v>
       </c>
       <c r="M7">
-        <v>-1.048053293237465</v>
+        <v>-0.8841010226660656</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9777,37 +9777,37 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>6534.042389774485</v>
+        <v>6480.188387093765</v>
       </c>
       <c r="D8">
-        <v>83.30226838580624</v>
+        <v>73.59054756749104</v>
       </c>
       <c r="E8">
-        <v>0.84277319487376</v>
+        <v>0.8389606223490428</v>
       </c>
       <c r="F8">
-        <v>5397.699365410037</v>
+        <v>5375.759426232935</v>
       </c>
       <c r="G8">
-        <v>-602.300634589963</v>
+        <v>-624.2405737670651</v>
       </c>
       <c r="H8">
-        <v>602.300634589963</v>
+        <v>624.2405737670651</v>
       </c>
       <c r="I8">
-        <v>175425.3945445514</v>
+        <v>174421.8968028063</v>
       </c>
       <c r="J8">
-        <v>348.5522397354425</v>
+        <v>342.3233673504982</v>
       </c>
       <c r="K8">
-        <v>10.03834390983272</v>
+        <v>10.40400956278442</v>
       </c>
       <c r="L8">
-        <v>11.53661359114174</v>
+        <v>11.25059863912601</v>
       </c>
       <c r="M8">
-        <v>-2.62346209517358</v>
+        <v>-2.562023041582604</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9818,37 +9818,37 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>6760.455235626022</v>
+        <v>6636.463097206057</v>
       </c>
       <c r="D9">
-        <v>97.61332613237931</v>
+        <v>77.7247556947311</v>
       </c>
       <c r="E9">
-        <v>0.8711374778628178</v>
+        <v>0.8629772102071602</v>
       </c>
       <c r="F9">
-        <v>5643.816756004559</v>
+        <v>5589.602669550862</v>
       </c>
       <c r="G9">
-        <v>-1356.183243995441</v>
+        <v>-1410.397330449138</v>
       </c>
       <c r="H9">
-        <v>1356.183243995441</v>
+        <v>1410.397330449138</v>
       </c>
       <c r="I9">
-        <v>413112.1940801867</v>
+        <v>433678.8586506991</v>
       </c>
       <c r="J9">
-        <v>492.4995260582995</v>
+        <v>494.9053620788754</v>
       </c>
       <c r="K9">
-        <v>19.37404634279202</v>
+        <v>20.14853329213055</v>
       </c>
       <c r="L9">
-        <v>12.6562468413775</v>
+        <v>12.5217321609838</v>
       </c>
       <c r="M9">
-        <v>-4.610353336381583</v>
+        <v>-4.621969896759173</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9859,37 +9859,37 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>6709.936987572555</v>
+        <v>6639.086569351532</v>
       </c>
       <c r="D10">
-        <v>82.8001687137947</v>
+        <v>73.96969151726827</v>
       </c>
       <c r="E10">
-        <v>1.125457985532318</v>
+        <v>1.138782993995053</v>
       </c>
       <c r="F10">
-        <v>7894.691288256654</v>
+        <v>7729.062471843196</v>
       </c>
       <c r="G10">
-        <v>1894.691288256654</v>
+        <v>1729.062471843196</v>
       </c>
       <c r="H10">
-        <v>1894.691288256654</v>
+        <v>1729.062471843196</v>
       </c>
       <c r="I10">
-        <v>810205.0545446207</v>
+        <v>753176.1302614247</v>
       </c>
       <c r="J10">
-        <v>667.7734963330938</v>
+        <v>649.1750007994156</v>
       </c>
       <c r="K10">
-        <v>31.5781881376109</v>
+        <v>28.81770786405327</v>
       </c>
       <c r="L10">
-        <v>15.02148950340667</v>
+        <v>14.55872912386748</v>
       </c>
       <c r="M10">
-        <v>-0.5629237262885751</v>
+        <v>-0.8601304929217278</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9900,37 +9900,37 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>6700.721456374573</v>
+        <v>6665.920472355357</v>
       </c>
       <c r="D11">
-        <v>73.598598722617</v>
+        <v>71.61290209159611</v>
       </c>
       <c r="E11">
-        <v>1.708937650472951</v>
+        <v>1.721358384066744</v>
       </c>
       <c r="F11">
-        <v>11771.8134091947</v>
+        <v>11633.72641840559</v>
       </c>
       <c r="G11">
-        <v>1771.813409194696</v>
+        <v>1633.726418405586</v>
       </c>
       <c r="H11">
-        <v>1771.813409194696</v>
+        <v>1633.726418405586</v>
       </c>
       <c r="I11">
-        <v>1068995.910373233</v>
+        <v>966052.3391430823</v>
       </c>
       <c r="J11">
-        <v>790.4445977621607</v>
+        <v>758.5696027556567</v>
       </c>
       <c r="K11">
-        <v>17.71813409194696</v>
+        <v>16.33726418405586</v>
       </c>
       <c r="L11">
-        <v>15.32111667991115</v>
+        <v>14.75634413055508</v>
       </c>
       <c r="M11">
-        <v>1.765978119496415</v>
+        <v>1.417603870586287</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9941,37 +9941,37 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>6772.028566828938</v>
+        <v>6738.099659441546</v>
       </c>
       <c r="D12">
-        <v>73.36944989579182</v>
+        <v>71.64121634132579</v>
       </c>
       <c r="E12">
-        <v>1.777469976130866</v>
+        <v>1.778220281288306</v>
       </c>
       <c r="F12">
-        <v>12045.2716178742</v>
+        <v>11979.86201857151</v>
       </c>
       <c r="G12">
-        <v>45.27161787420118</v>
+        <v>-20.13798142849191</v>
       </c>
       <c r="H12">
-        <v>45.27161787420118</v>
+        <v>20.13798142849191</v>
       </c>
       <c r="I12">
-        <v>962301.2712744044</v>
+        <v>869487.6590583755</v>
       </c>
       <c r="J12">
-        <v>715.9272997733648</v>
+        <v>684.7264406229402</v>
       </c>
       <c r="K12">
-        <v>0.3772634822850099</v>
+        <v>0.1678165119040993</v>
       </c>
       <c r="L12">
-        <v>13.82673136014853</v>
+        <v>13.29749136868998</v>
       </c>
       <c r="M12">
-        <v>2.013024901624151</v>
+        <v>1.541072698444408</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9982,37 +9982,37 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>6822.621306740525</v>
+        <v>6798.870005060962</v>
       </c>
       <c r="D13">
-        <v>71.09177889737136</v>
+        <v>71.09767280523029</v>
       </c>
       <c r="E13">
-        <v>2.11651370382668</v>
+        <v>2.120456376863385</v>
       </c>
       <c r="F13">
-        <v>14537.44992885985</v>
+        <v>14461.72549329276</v>
       </c>
       <c r="G13">
-        <v>537.4499288598454</v>
+        <v>461.7254932927553</v>
       </c>
       <c r="H13">
-        <v>537.4499288598454</v>
+        <v>461.7254932927553</v>
       </c>
       <c r="I13">
-        <v>901078.6489795907</v>
+        <v>809824.2747036539</v>
       </c>
       <c r="J13">
-        <v>699.7020842357721</v>
+        <v>664.453627229287</v>
       </c>
       <c r="K13">
-        <v>3.83892806328461</v>
+        <v>3.298039237805396</v>
       </c>
       <c r="L13">
-        <v>12.91874924225181</v>
+        <v>12.38845026588229</v>
       </c>
       <c r="M13">
-        <v>2.827816946146822</v>
+        <v>2.282986584278703</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10023,37 +10023,37 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>6930.981295089457</v>
+        <v>6891.8595090612</v>
       </c>
       <c r="D14">
-        <v>74.81859984252746</v>
+        <v>72.19226436498064</v>
       </c>
       <c r="E14">
-        <v>1.100671829786836</v>
+        <v>1.098023550114759</v>
       </c>
       <c r="F14">
-        <v>7546.68603697735</v>
+        <v>7520.691462638829</v>
       </c>
       <c r="G14">
-        <v>-453.3139630226497</v>
+        <v>-479.3085373611711</v>
       </c>
       <c r="H14">
-        <v>453.3139630226497</v>
+        <v>479.3085373611711</v>
       </c>
       <c r="I14">
-        <v>843113.2239872332</v>
+        <v>761483.6413106248</v>
       </c>
       <c r="J14">
-        <v>679.1697408013453</v>
+        <v>649.0248697402774</v>
       </c>
       <c r="K14">
-        <v>5.66642453778312</v>
+        <v>5.991356717014639</v>
       </c>
       <c r="L14">
-        <v>12.31438885021276</v>
+        <v>11.85535913680999</v>
       </c>
       <c r="M14">
-        <v>2.245853070888897</v>
+        <v>1.598752571521405</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10064,37 +10064,37 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>7021.831711628186</v>
+        <v>6971.342527915725</v>
       </c>
       <c r="D15">
-        <v>76.42178151214756</v>
+        <v>72.55680208945785</v>
       </c>
       <c r="E15">
-        <v>0.4185626839907288</v>
+        <v>0.4223680469212301</v>
       </c>
       <c r="F15">
-        <v>2925.612610195734</v>
+        <v>2938.473493556427</v>
       </c>
       <c r="G15">
-        <v>-74.38738980426615</v>
+        <v>-61.52650644357254</v>
       </c>
       <c r="H15">
-        <v>74.38738980426615</v>
+        <v>61.52650644357254</v>
       </c>
       <c r="I15">
-        <v>778684.0132006685</v>
+        <v>703199.169747896</v>
       </c>
       <c r="J15">
-        <v>632.6480214938776</v>
+        <v>603.8326879482231</v>
       </c>
       <c r="K15">
-        <v>2.479579660142205</v>
+        <v>2.050883548119085</v>
       </c>
       <c r="L15">
-        <v>11.55786506636118</v>
+        <v>11.10116870691069</v>
       </c>
       <c r="M15">
-        <v>2.293420684068784</v>
+        <v>1.616513468907697</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10105,37 +10105,37 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>7214.377012388379</v>
+        <v>7112.316483461207</v>
       </c>
       <c r="D16">
-        <v>88.03413343695209</v>
+        <v>75.97765976225908</v>
       </c>
       <c r="E16">
-        <v>0.4846030524246569</v>
+        <v>0.4798428324719586</v>
       </c>
       <c r="F16">
-        <v>3384.748622155903</v>
+        <v>3349.356328931884</v>
       </c>
       <c r="G16">
-        <v>-615.2513778440966</v>
+        <v>-650.6436710681155</v>
       </c>
       <c r="H16">
-        <v>615.2513778440966</v>
+        <v>650.6436710681155</v>
       </c>
       <c r="I16">
-        <v>750101.8878248392</v>
+        <v>683209.0281016888</v>
       </c>
       <c r="J16">
-        <v>631.4054040903219</v>
+        <v>607.1763295996441</v>
       </c>
       <c r="K16">
-        <v>15.38128444610242</v>
+        <v>16.26609177670289</v>
       </c>
       <c r="L16">
-        <v>11.83096645062841</v>
+        <v>11.47009178332442</v>
       </c>
       <c r="M16">
-        <v>1.323518416173727</v>
+        <v>0.5360222164482684</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -10146,37 +10146,37 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>7225.427329388639</v>
+        <v>7152.27234153934</v>
       </c>
       <c r="D17">
-        <v>80.33575179328291</v>
+        <v>74.17656967805279</v>
       </c>
       <c r="E17">
-        <v>0.4603171771284471</v>
+        <v>0.4616128199904158</v>
       </c>
       <c r="F17">
-        <v>3398.032126753251</v>
+        <v>3334.161335088565</v>
       </c>
       <c r="G17">
-        <v>398.0321267532509</v>
+        <v>334.1613350885646</v>
       </c>
       <c r="H17">
-        <v>398.0321267532509</v>
+        <v>334.1613350885646</v>
       </c>
       <c r="I17">
-        <v>710657.0668983643</v>
+        <v>645106.0127527877</v>
       </c>
       <c r="J17">
-        <v>615.8471856011838</v>
+        <v>588.975329965572</v>
       </c>
       <c r="K17">
-        <v>13.2677375584417</v>
+        <v>11.13871116961882</v>
       </c>
       <c r="L17">
-        <v>11.92675119114929</v>
+        <v>11.44799974241071</v>
       </c>
       <c r="M17">
-        <v>2.00327099966215</v>
+        <v>1.119947311025825</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10187,37 +10187,37 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>7756.855585203256</v>
+        <v>7486.839299579065</v>
       </c>
       <c r="D18">
-        <v>125.4450021954163</v>
+        <v>87.19608909613638</v>
       </c>
       <c r="E18">
-        <v>0.4297810603472692</v>
+        <v>0.415401092259895</v>
       </c>
       <c r="F18">
-        <v>2965.506249535156</v>
+        <v>2905.862850547868</v>
       </c>
       <c r="G18">
-        <v>-2034.493750464844</v>
+        <v>-2094.137149452132</v>
       </c>
       <c r="H18">
-        <v>2034.493750464844</v>
+        <v>2094.137149452132</v>
       </c>
       <c r="I18">
-        <v>924938.8015097483</v>
+        <v>878875.0370004573</v>
       </c>
       <c r="J18">
-        <v>704.5125959051625</v>
+        <v>683.047943683482</v>
       </c>
       <c r="K18">
-        <v>40.68987500929688</v>
+        <v>41.88274298904264</v>
       </c>
       <c r="L18">
-        <v>13.72444642978352</v>
+        <v>13.35017119532521</v>
       </c>
       <c r="M18">
-        <v>-1.136650995285024</v>
+        <v>-2.100168554290214</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10228,37 +10228,37 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>7896.646016303473</v>
+        <v>7597.494561998767</v>
       </c>
       <c r="D19">
-        <v>126.8795450858963</v>
+        <v>88.36904776231471</v>
       </c>
       <c r="E19">
-        <v>0.6229015946077824</v>
+        <v>0.6234651709401607</v>
       </c>
       <c r="F19">
-        <v>4900.895476933608</v>
+        <v>4708.336006441555</v>
       </c>
       <c r="G19">
-        <v>-99.10452306639218</v>
+        <v>-291.6639935584453</v>
       </c>
       <c r="H19">
-        <v>99.10452306639218</v>
+        <v>291.6639935584453</v>
       </c>
       <c r="I19">
-        <v>871108.3841557759</v>
+        <v>832180.498655634</v>
       </c>
       <c r="J19">
-        <v>668.9003563264113</v>
+        <v>660.0253583820092</v>
       </c>
       <c r="K19">
-        <v>1.982090461327844</v>
+        <v>5.833279871168907</v>
       </c>
       <c r="L19">
-        <v>13.03371960810965</v>
+        <v>12.90800111743366</v>
       </c>
       <c r="M19">
-        <v>-1.345326636294541</v>
+        <v>-2.615323463005506</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10269,37 +10269,37 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>8155.730638912728</v>
+        <v>7778.350851791575</v>
       </c>
       <c r="D20">
-        <v>140.1000528382322</v>
+        <v>92.99340986383936</v>
       </c>
       <c r="E20">
-        <v>0.8565864126318186</v>
+        <v>0.8484373736336173</v>
       </c>
       <c r="F20">
-        <v>6762.012271523397</v>
+        <v>6448.136917335019</v>
       </c>
       <c r="G20">
-        <v>-1237.987728476603</v>
+        <v>-1551.863082664981</v>
       </c>
       <c r="H20">
-        <v>1237.987728476603</v>
+        <v>1551.863082664981</v>
       </c>
       <c r="I20">
-        <v>907858.6748059361</v>
+        <v>919741.528026902</v>
       </c>
       <c r="J20">
-        <v>700.5163214458663</v>
+        <v>709.5718986199522</v>
       </c>
       <c r="K20">
-        <v>15.47484660595753</v>
+        <v>19.39828853331227</v>
       </c>
       <c r="L20">
-        <v>13.16933777465676</v>
+        <v>13.26857264053803</v>
       </c>
       <c r="M20">
-        <v>-3.051859220720015</v>
+        <v>-4.619747336380627</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10310,37 +10310,37 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>7859.145527847467</v>
+        <v>7651.593921400598</v>
       </c>
       <c r="D21">
-        <v>96.43153644788291</v>
+        <v>82.00589285109849</v>
       </c>
       <c r="E21">
-        <v>0.8221958187516984</v>
+        <v>0.8394321082784577</v>
       </c>
       <c r="F21">
-        <v>7226.809025588886</v>
+        <v>6792.79071150353</v>
       </c>
       <c r="G21">
-        <v>4226.809025588886</v>
+        <v>3792.79071150353</v>
       </c>
       <c r="H21">
-        <v>4226.809025588886</v>
+        <v>3792.79071150353</v>
       </c>
       <c r="I21">
-        <v>1800387.930805606</v>
+        <v>1628453.099250089</v>
       </c>
       <c r="J21">
-        <v>886.1106742954989</v>
+        <v>871.8465729822458</v>
       </c>
       <c r="K21">
-        <v>140.8936341862962</v>
+        <v>126.4263570501176</v>
       </c>
       <c r="L21">
-        <v>19.89166916474305</v>
+        <v>19.22424550420011</v>
       </c>
       <c r="M21">
-        <v>2.357416394267291</v>
+        <v>0.590411018217013</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10351,37 +10351,37 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>7879.31469165155</v>
+        <v>7698.171995471122</v>
       </c>
       <c r="D22">
-        <v>88.80529918350291</v>
+        <v>80.23450191206977</v>
       </c>
       <c r="E22">
-        <v>1.114443859631739</v>
+        <v>1.13380423180487</v>
       </c>
       <c r="F22">
-        <v>8953.66773652896</v>
+        <v>8806.891950833133</v>
       </c>
       <c r="G22">
-        <v>953.6677365289597</v>
+        <v>806.8919508331328</v>
       </c>
       <c r="H22">
-        <v>953.6677365289597</v>
+        <v>806.8919508331328</v>
       </c>
       <c r="I22">
-        <v>1755842.641850139</v>
+        <v>1579584.175303549</v>
       </c>
       <c r="J22">
-        <v>889.4885274071719</v>
+        <v>868.59884187479</v>
       </c>
       <c r="K22">
-        <v>11.920846706612</v>
+        <v>10.08614938541416</v>
       </c>
       <c r="L22">
-        <v>19.4931280418365</v>
+        <v>18.76734069826081</v>
       </c>
       <c r="M22">
-        <v>3.420616987739555</v>
+        <v>1.52157671643213</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10392,37 +10392,37 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>7882.96075580743</v>
+        <v>7738.048102181743</v>
       </c>
       <c r="D23">
-        <v>80.28937568074068</v>
+        <v>78.21658215199736</v>
       </c>
       <c r="E23">
-        <v>1.690270953043106</v>
+        <v>1.712829398723333</v>
       </c>
       <c r="F23">
-        <v>13617.02025582421</v>
+        <v>13389.42523894979</v>
       </c>
       <c r="G23">
-        <v>1617.020255824211</v>
+        <v>1389.425238949789</v>
       </c>
       <c r="H23">
-        <v>1617.020255824211</v>
+        <v>1389.425238949789</v>
       </c>
       <c r="I23">
-        <v>1796743.20689279</v>
+        <v>1596294.571461984</v>
       </c>
       <c r="J23">
-        <v>924.1328954270308</v>
+        <v>893.4000988783614</v>
       </c>
       <c r="K23">
-        <v>13.47516879853509</v>
+        <v>11.57854365791491</v>
       </c>
       <c r="L23">
-        <v>19.20655855406024</v>
+        <v>18.42501702967291</v>
       </c>
       <c r="M23">
-        <v>5.042153402535757</v>
+        <v>3.034547473265392</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10433,37 +10433,37 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>7854.162819462396</v>
+        <v>7762.867464495938</v>
       </c>
       <c r="D24">
-        <v>69.38064447816321</v>
+        <v>75.54672116010725</v>
       </c>
       <c r="E24">
-        <v>1.752508199245115</v>
+        <v>1.766600294379017</v>
       </c>
       <c r="F24">
-        <v>14154.43802114039</v>
+        <v>13899.0403855998</v>
       </c>
       <c r="G24">
-        <v>2154.438021140391</v>
+        <v>1899.040385599797</v>
       </c>
       <c r="H24">
-        <v>2154.438021140391</v>
+        <v>1899.040385599797</v>
       </c>
       <c r="I24">
-        <v>1926055.024167451</v>
+        <v>1687660.926674577</v>
       </c>
       <c r="J24">
-        <v>980.055855686729</v>
+        <v>939.111021002063</v>
       </c>
       <c r="K24">
-        <v>17.95365017616993</v>
+        <v>15.82533654666498</v>
       </c>
       <c r="L24">
-        <v>19.14960817324704</v>
+        <v>18.30684973499073</v>
       </c>
       <c r="M24">
-        <v>6.952723974531408</v>
+        <v>4.909010005384712</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10474,37 +10474,37 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>7890.78867994774</v>
+        <v>7823.770749666351</v>
       </c>
       <c r="D25">
-        <v>66.10516607888127</v>
+        <v>74.81454936062251</v>
       </c>
       <c r="E25">
-        <v>2.107630404532515</v>
+        <v>2.116686042863808</v>
       </c>
       <c r="F25">
-        <v>16770.28832429651</v>
+        <v>16621.01534447078</v>
       </c>
       <c r="G25">
-        <v>770.2883242965145</v>
+        <v>621.0153444707757</v>
       </c>
       <c r="H25">
-        <v>770.2883242965145</v>
+        <v>621.0153444707757</v>
       </c>
       <c r="I25">
-        <v>1868111.071053541</v>
+        <v>1631052.193256906</v>
       </c>
       <c r="J25">
-        <v>970.9355282349806</v>
+        <v>925.2807741963549</v>
       </c>
       <c r="K25">
-        <v>4.814302026853215</v>
+        <v>3.881345902942348</v>
       </c>
       <c r="L25">
-        <v>18.52633399296905</v>
+        <v>17.67965391620602</v>
       </c>
       <c r="M25">
-        <v>7.8113797960373</v>
+        <v>5.653549591236674</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10515,37 +10515,37 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>8058.455814972745</v>
+        <v>7959.019673541957</v>
       </c>
       <c r="D26">
-        <v>76.26136297349368</v>
+        <v>77.83626808637169</v>
       </c>
       <c r="E26">
-        <v>1.114697900275149</v>
+        <v>1.105944179880354</v>
       </c>
       <c r="F26">
-        <v>8757.92890892574</v>
+        <v>8672.832670921845</v>
       </c>
       <c r="G26">
-        <v>-1242.07109107426</v>
+        <v>-1327.167329078155</v>
       </c>
       <c r="H26">
-        <v>1242.07109107426</v>
+        <v>1327.167329078155</v>
       </c>
       <c r="I26">
-        <v>1854553.96789641</v>
+        <v>1636482.231845054</v>
       </c>
       <c r="J26">
-        <v>982.232843353284</v>
+        <v>942.0260473164299</v>
       </c>
       <c r="K26">
-        <v>12.4207109107426</v>
+        <v>13.27167329078155</v>
       </c>
       <c r="L26">
-        <v>18.27193303120961</v>
+        <v>17.49598805681334</v>
       </c>
       <c r="M26">
-        <v>6.456997564633578</v>
+        <v>4.14420962645362</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10556,37 +10556,37 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>7832.635745865207</v>
+        <v>7871.773478878381</v>
       </c>
       <c r="D27">
-        <v>46.05321976539051</v>
+        <v>69.58214494887432</v>
       </c>
       <c r="E27">
-        <v>0.4022406043997565</v>
+        <v>0.413953262161259</v>
       </c>
       <c r="F27">
-        <v>3404.889055506665</v>
+        <v>3394.511147452841</v>
       </c>
       <c r="G27">
-        <v>1404.889055506665</v>
+        <v>1394.511147452841</v>
       </c>
       <c r="H27">
-        <v>1404.889055506665</v>
+        <v>1394.511147452841</v>
       </c>
       <c r="I27">
-        <v>1859320.33951185</v>
+        <v>1648809.396186061</v>
       </c>
       <c r="J27">
-        <v>999.1390918394193</v>
+        <v>960.1254513218863</v>
       </c>
       <c r="K27">
-        <v>70.24445277533323</v>
+        <v>69.72555737264203</v>
       </c>
       <c r="L27">
-        <v>20.35083382097456</v>
+        <v>19.58517082944648</v>
       </c>
       <c r="M27">
-        <v>7.753839476623193</v>
+        <v>5.51851276707309</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10597,37 +10597,37 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>8098.202017604459</v>
+        <v>8065.291769509406</v>
       </c>
       <c r="D28">
-        <v>68.00452496277661</v>
+        <v>75.77895223298182</v>
       </c>
       <c r="E28">
-        <v>0.4978848473314668</v>
+        <v>0.4868477095731037</v>
       </c>
       <c r="F28">
-        <v>3818.03672184905</v>
+        <v>3810.602576204388</v>
       </c>
       <c r="G28">
-        <v>-1181.96327815095</v>
+        <v>-1189.397423795612</v>
       </c>
       <c r="H28">
-        <v>1181.96327815095</v>
+        <v>1189.397423795612</v>
       </c>
       <c r="I28">
-        <v>1841540.218411292</v>
+        <v>1639803.889860891</v>
       </c>
       <c r="J28">
-        <v>1006.17079131294</v>
+        <v>968.9436041093375</v>
       </c>
       <c r="K28">
-        <v>23.639265563019</v>
+        <v>23.78794847591224</v>
       </c>
       <c r="L28">
-        <v>20.47731196489934</v>
+        <v>19.74681612354132</v>
       </c>
       <c r="M28">
-        <v>6.524936831275072</v>
+        <v>4.240770174744199</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10638,37 +10638,37 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>8408.834762047776</v>
+        <v>8275.596598473981</v>
       </c>
       <c r="D29">
-        <v>92.26734691083068</v>
+        <v>82.50524606956152</v>
       </c>
       <c r="E29">
-        <v>0.4737467301087414</v>
+        <v>0.4687414813686958</v>
       </c>
       <c r="F29">
-        <v>3759.045143522405</v>
+        <v>3758.022613604913</v>
       </c>
       <c r="G29">
-        <v>-1240.954856477595</v>
+        <v>-1241.977386395087</v>
       </c>
       <c r="H29">
-        <v>1240.954856477595</v>
+        <v>1241.977386395087</v>
       </c>
       <c r="I29">
-        <v>1830370.91238922</v>
+        <v>1636200.332025923</v>
       </c>
       <c r="J29">
-        <v>1014.866497430149</v>
+        <v>979.055966416217</v>
       </c>
       <c r="K29">
-        <v>24.81909712955189</v>
+        <v>24.83954772790174</v>
       </c>
       <c r="L29">
-        <v>20.63811882284944</v>
+        <v>19.93543581259171</v>
       </c>
       <c r="M29">
-        <v>5.246252597553942</v>
+        <v>2.928422735030944</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10679,37 +10679,37 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>8364.229765123247</v>
+        <v>8301.293539963119</v>
       </c>
       <c r="D30">
-        <v>78.58011252729474</v>
+        <v>79.6648308405403</v>
       </c>
       <c r="E30">
-        <v>0.4226699747584565</v>
+        <v>0.412700510708886</v>
       </c>
       <c r="F30">
-        <v>3653.612678508636</v>
+        <v>3471.964635442831</v>
       </c>
       <c r="G30">
-        <v>653.6126785086362</v>
+        <v>471.9646354428314</v>
       </c>
       <c r="H30">
-        <v>653.6126785086362</v>
+        <v>471.9646354428314</v>
       </c>
       <c r="I30">
-        <v>1780258.006000577</v>
+        <v>1585719.985064594</v>
       </c>
       <c r="J30">
-        <v>1001.964575325809</v>
+        <v>960.9455617385962</v>
       </c>
       <c r="K30">
-        <v>21.78708928362121</v>
+        <v>15.73215451476105</v>
       </c>
       <c r="L30">
-        <v>20.67915348216271</v>
+        <v>19.78531862338347</v>
       </c>
       <c r="M30">
-        <v>5.966137749808373</v>
+        <v>3.474759153185089</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10720,37 +10720,37 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>8260.897393882306</v>
+        <v>8282.698219282454</v>
       </c>
       <c r="D31">
-        <v>60.38886415047108</v>
+        <v>74.75182326448007</v>
       </c>
       <c r="E31">
-        <v>0.6090323246615289</v>
+        <v>0.616438633027546</v>
       </c>
       <c r="F31">
-        <v>5259.039735758859</v>
+        <v>5225.235643295474</v>
       </c>
       <c r="G31">
-        <v>1259.039735758859</v>
+        <v>1225.235643295474</v>
       </c>
       <c r="H31">
-        <v>1259.039735758859</v>
+        <v>1225.235643295474</v>
       </c>
       <c r="I31">
-        <v>1773531.214628824</v>
+        <v>1582805.584945183</v>
       </c>
       <c r="J31">
-        <v>1010.829236030397</v>
+        <v>970.0590128267643</v>
       </c>
       <c r="K31">
-        <v>31.47599339397147</v>
+        <v>30.63089108238685</v>
       </c>
       <c r="L31">
-        <v>21.05145830670785</v>
+        <v>20.15930388059048</v>
       </c>
       <c r="M31">
-        <v>7.159367927465902</v>
+        <v>4.705167386011753</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10761,37 +10761,37 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>8202.779747206065</v>
+        <v>8293.168753304499</v>
       </c>
       <c r="D32">
-        <v>48.53821306779989</v>
+        <v>71.53775880235827</v>
       </c>
       <c r="E32">
-        <v>0.8440737070746839</v>
+        <v>0.8421898562673443</v>
       </c>
       <c r="F32">
-        <v>7127.900744250745</v>
+        <v>7090.772964372683</v>
       </c>
       <c r="G32">
-        <v>1127.900744250745</v>
+        <v>1090.772964372683</v>
       </c>
       <c r="H32">
-        <v>1127.900744250745</v>
+        <v>1090.772964372683</v>
       </c>
       <c r="I32">
-        <v>1756818.843770576</v>
+        <v>1569704.920773889</v>
       </c>
       <c r="J32">
-        <v>1014.731619637742</v>
+        <v>974.0828112116283</v>
       </c>
       <c r="K32">
-        <v>18.79834573751242</v>
+        <v>18.17954940621139</v>
       </c>
       <c r="L32">
-        <v>20.97635455440133</v>
+        <v>20.09331206477784</v>
       </c>
       <c r="M32">
-        <v>8.243361096619671</v>
+        <v>5.805525904925672</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10802,37 +10802,37 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>8274.940165842814</v>
+        <v>8363.419736060567</v>
       </c>
       <c r="D33">
-        <v>50.90043362469485</v>
+        <v>71.47342000004376</v>
       </c>
       <c r="E33">
-        <v>0.8245689935576525</v>
+        <v>0.8393094128852652</v>
       </c>
       <c r="F33">
-        <v>6784.199126127964</v>
+        <v>7021.603222588404</v>
       </c>
       <c r="G33">
-        <v>-215.8008738720364</v>
+        <v>21.6032225884037</v>
       </c>
       <c r="H33">
-        <v>215.8008738720364</v>
+        <v>21.6032225884037</v>
       </c>
       <c r="I33">
-        <v>1701649.526783265</v>
+        <v>1519084.332982028</v>
       </c>
       <c r="J33">
-        <v>988.9596600969129</v>
+        <v>943.3576631915242</v>
       </c>
       <c r="K33">
-        <v>3.082869626743377</v>
+        <v>0.3086174655486242</v>
       </c>
       <c r="L33">
-        <v>20.39914536318656</v>
+        <v>19.455096109964</v>
       </c>
       <c r="M33">
-        <v>8.23997035648657</v>
+        <v>6.017512167564632</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10843,37 +10843,37 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>8384.092637493026</v>
+        <v>8454.141736749963</v>
       </c>
       <c r="D34">
-        <v>56.72563742724654</v>
+        <v>72.43584903451141</v>
       </c>
       <c r="E34">
-        <v>1.122272964937981</v>
+        <v>1.136256629313137</v>
       </c>
       <c r="F34">
-        <v>9278.681932349202</v>
+        <v>9563.51755516346</v>
       </c>
       <c r="G34">
-        <v>-721.3180676507982</v>
+        <v>-436.4824448365398</v>
       </c>
       <c r="H34">
-        <v>721.3180676507982</v>
+        <v>436.4824448365398</v>
       </c>
       <c r="I34">
-        <v>1664732.346406272</v>
+        <v>1477566.601471667</v>
       </c>
       <c r="J34">
-        <v>980.5958603329718</v>
+        <v>927.517812617931</v>
       </c>
       <c r="K34">
-        <v>7.213180676507982</v>
+        <v>4.364824448365398</v>
       </c>
       <c r="L34">
-        <v>19.98708396672785</v>
+        <v>18.98352512053904</v>
       </c>
       <c r="M34">
-        <v>7.574659975401739</v>
+        <v>5.649685321938249</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10884,37 +10884,37 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>8479.833146695766</v>
+        <v>8538.12068636611</v>
       </c>
       <c r="D35">
-        <v>60.62712460479591</v>
+        <v>73.01300406359317</v>
       </c>
       <c r="E35">
-        <v>1.69813413070183</v>
+        <v>1.715029273217636</v>
       </c>
       <c r="F35">
-        <v>14267.26995001316</v>
+        <v>14604.57275942707</v>
       </c>
       <c r="G35">
-        <v>-732.7300499868415</v>
+        <v>-395.4272405729298</v>
       </c>
       <c r="H35">
-        <v>732.7300499868415</v>
+        <v>395.4272405729298</v>
       </c>
       <c r="I35">
-        <v>1630555.406398619</v>
+        <v>1437530.119687287</v>
       </c>
       <c r="J35">
-        <v>973.084775170968</v>
+        <v>911.3938558892945</v>
       </c>
       <c r="K35">
-        <v>4.884866999912277</v>
+        <v>2.636181603819532</v>
       </c>
       <c r="L35">
-        <v>19.5294410283395</v>
+        <v>18.48815107457784</v>
       </c>
       <c r="M35">
-        <v>6.88013042249651</v>
+        <v>5.315766065246934</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -10925,37 +10925,37 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>8542.143345554336</v>
+        <v>8605.121257591158</v>
       </c>
       <c r="D36">
-        <v>60.79543203017327</v>
+        <v>72.71238242166589</v>
       </c>
       <c r="E36">
-        <v>1.752857335832767</v>
+        <v>1.765427680183431</v>
       </c>
       <c r="F36">
-        <v>14967.2266507814</v>
+        <v>15212.43131245018</v>
       </c>
       <c r="G36">
-        <v>-32.77334921860165</v>
+        <v>212.4313124501841</v>
       </c>
       <c r="H36">
-        <v>32.77334921860165</v>
+        <v>212.4313124501841</v>
       </c>
       <c r="I36">
-        <v>1582629.485399218</v>
+        <v>1396577.088593817</v>
       </c>
       <c r="J36">
-        <v>945.4285567606042</v>
+        <v>890.8361340234384</v>
       </c>
       <c r="K36">
-        <v>0.2184889947906777</v>
+        <v>1.416208749667894</v>
       </c>
       <c r="L36">
-        <v>18.96147185088219</v>
+        <v>17.9860351238452</v>
       </c>
       <c r="M36">
-        <v>7.046726871600419</v>
+        <v>5.676900218248211</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -10966,37 +10966,37 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>8597.310001205267</v>
+        <v>8669.134916143246</v>
       </c>
       <c r="D37">
-        <v>60.23255439224912</v>
+        <v>72.27744622818703</v>
       </c>
       <c r="E37">
-        <v>2.106235177935884</v>
+        <v>2.114668327808686</v>
       </c>
       <c r="F37">
-        <v>18131.8153359689</v>
+        <v>18368.24934810917</v>
       </c>
       <c r="G37">
-        <v>131.8153359688986</v>
+        <v>368.2493481091733</v>
       </c>
       <c r="H37">
-        <v>131.8153359688986</v>
+        <v>368.2493481091733</v>
       </c>
       <c r="I37">
-        <v>1537907.936753429</v>
+        <v>1360549.38841636</v>
       </c>
       <c r="J37">
-        <v>922.1824647379841</v>
+        <v>875.9050829973165</v>
       </c>
       <c r="K37">
-        <v>0.7323074220494366</v>
+        <v>2.045829711717629</v>
       </c>
       <c r="L37">
-        <v>18.44063858148697</v>
+        <v>17.5306006834987</v>
       </c>
       <c r="M37">
-        <v>7.367297050050284</v>
+        <v>6.194092598714655</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -11007,37 +11007,37 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>8524.2786410361</v>
+        <v>8666.02365123959</v>
       </c>
       <c r="D38">
-        <v>46.90616293610752</v>
+        <v>68.50801067159485</v>
       </c>
       <c r="E38">
-        <v>1.097077693735999</v>
+        <v>1.096804241636779</v>
       </c>
       <c r="F38">
-        <v>9650.544508267296</v>
+        <v>9667.514126098866</v>
       </c>
       <c r="G38">
-        <v>1650.544508267296</v>
+        <v>1667.514126098866</v>
       </c>
       <c r="H38">
-        <v>1650.544508267296</v>
+        <v>1667.514126098866</v>
       </c>
       <c r="I38">
-        <v>1570863.193337259</v>
+        <v>1399995.332091996</v>
       </c>
       <c r="J38">
-        <v>942.4147437249093</v>
+        <v>897.8942230834707</v>
       </c>
       <c r="K38">
-        <v>20.6318063533412</v>
+        <v>20.84392657623582</v>
       </c>
       <c r="L38">
-        <v>18.50150435292736</v>
+        <v>17.62263751385251</v>
       </c>
       <c r="M38">
-        <v>8.960531142543864</v>
+        <v>7.899539985357172</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -11048,37 +11048,37 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>8918.511574154993</v>
+        <v>8901.737993113109</v>
       </c>
       <c r="D39">
-        <v>81.63883995438599</v>
+        <v>76.86832723169107</v>
       </c>
       <c r="E39">
-        <v>0.4180797105366963</v>
+        <v>0.4213400023678537</v>
       </c>
       <c r="F39">
-        <v>3447.67855597179</v>
+        <v>3615.687874898937</v>
       </c>
       <c r="G39">
-        <v>-1552.32144402821</v>
+        <v>-1384.312125101063</v>
       </c>
       <c r="H39">
-        <v>1552.32144402821</v>
+        <v>1384.312125101063</v>
       </c>
       <c r="I39">
-        <v>1593534.508803545</v>
+        <v>1413950.05445983</v>
       </c>
       <c r="J39">
-        <v>958.8987085979714</v>
+        <v>911.0406528677299</v>
       </c>
       <c r="K39">
-        <v>31.04642888056421</v>
+        <v>27.68624250202125</v>
       </c>
       <c r="L39">
-        <v>18.84055636718782</v>
+        <v>17.89462683785707</v>
       </c>
       <c r="M39">
-        <v>7.187636352528419</v>
+        <v>6.266064170461162</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -11089,37 +11089,37 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>8913.195636168135</v>
+        <v>8940.482086121334</v>
       </c>
       <c r="D40">
-        <v>72.94336216026164</v>
+        <v>74.96211552051776</v>
       </c>
       <c r="E40">
-        <v>0.4929736452618883</v>
+        <v>0.4848754824453576</v>
       </c>
       <c r="F40">
-        <v>4481.038514889085</v>
+        <v>4371.213922218459</v>
       </c>
       <c r="G40">
-        <v>481.0385148890855</v>
+        <v>371.2139222184587</v>
       </c>
       <c r="H40">
-        <v>481.0385148890855</v>
+        <v>371.2139222184587</v>
       </c>
       <c r="I40">
-        <v>1557688.812593102</v>
+        <v>1380367.152396382</v>
       </c>
       <c r="J40">
-        <v>946.3234403424744</v>
+        <v>896.8346862716963</v>
       </c>
       <c r="K40">
-        <v>12.02596287222714</v>
+        <v>9.280348055461468</v>
       </c>
       <c r="L40">
-        <v>18.66122495942569</v>
+        <v>17.66793529095192</v>
       </c>
       <c r="M40">
-        <v>7.791473207650906</v>
+        <v>6.779235022968985</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -11130,37 +11130,37 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>8937.28619251979</v>
+        <v>8991.346412214854</v>
       </c>
       <c r="D41">
-        <v>68.05808157940101</v>
+        <v>73.75722604916788</v>
       </c>
       <c r="E41">
-        <v>0.4711283725367514</v>
+        <v>0.4675480169701429</v>
       </c>
       <c r="F41">
-        <v>4257.153966760719</v>
+        <v>4225.912670274421</v>
       </c>
       <c r="G41">
-        <v>257.1539667607185</v>
+        <v>225.9126702744206</v>
       </c>
       <c r="H41">
-        <v>257.1539667607185</v>
+        <v>225.9126702744206</v>
       </c>
       <c r="I41">
-        <v>1519443.667722016</v>
+        <v>1346281.751939821</v>
       </c>
       <c r="J41">
-        <v>928.6524281993526</v>
+        <v>879.6315576563816</v>
       </c>
       <c r="K41">
-        <v>6.428849169017963</v>
+        <v>5.647816756860516</v>
       </c>
       <c r="L41">
-        <v>18.34757429813319</v>
+        <v>17.35972712341112</v>
       </c>
       <c r="M41">
-        <v>8.216645395259905</v>
+        <v>7.168644337933342</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -11171,37 +11171,37 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>8620.727464198924</v>
+        <v>8854.154916859512</v>
       </c>
       <c r="D42">
-        <v>29.5964005893743</v>
+        <v>63.20978997894237</v>
       </c>
       <c r="E42">
-        <v>0.4036028755314049</v>
+        <v>0.4033596178082329</v>
       </c>
       <c r="F42">
-        <v>3806.288637024717</v>
+        <v>3741.172901140542</v>
       </c>
       <c r="G42">
-        <v>1806.288637024717</v>
+        <v>1741.172901140542</v>
       </c>
       <c r="H42">
-        <v>1806.288637024717</v>
+        <v>1741.172901140542</v>
       </c>
       <c r="I42">
-        <v>1563024.542035081</v>
+        <v>1388416.78493298</v>
       </c>
       <c r="J42">
-        <v>950.5933334199868</v>
+        <v>901.1700912434859</v>
       </c>
       <c r="K42">
-        <v>90.31443185123582</v>
+        <v>87.05864505702712</v>
       </c>
       <c r="L42">
-        <v>20.14674573696075</v>
+        <v>19.10220007175151</v>
       </c>
       <c r="M42">
-        <v>9.927164438482947</v>
+        <v>8.929433815649409</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -11212,37 +11212,37 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>8610.671754806022</v>
+        <v>8877.051844903554</v>
       </c>
       <c r="D43">
-        <v>25.63118959114668</v>
+        <v>61.19414688219732</v>
       </c>
       <c r="E43">
-        <v>0.6061965710446221</v>
+        <v>0.6137792044647958</v>
       </c>
       <c r="F43">
-        <v>5268.326852447119</v>
+        <v>5497.00811009158</v>
       </c>
       <c r="G43">
-        <v>268.3268524471187</v>
+        <v>497.0081100915804</v>
       </c>
       <c r="H43">
-        <v>268.3268524471187</v>
+        <v>497.0081100915804</v>
       </c>
       <c r="I43">
-        <v>1526658.072710913</v>
+        <v>1360577.767288195</v>
       </c>
       <c r="J43">
-        <v>933.9526875425998</v>
+        <v>891.3124819470979</v>
       </c>
       <c r="K43">
-        <v>5.366537048942373</v>
+        <v>9.940162201831608</v>
       </c>
       <c r="L43">
-        <v>19.78625284213103</v>
+        <v>18.87873573346079</v>
       </c>
       <c r="M43">
-        <v>10.3913434983186</v>
+        <v>9.585804046891083</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -11253,37 +11253,37 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>8605.415995148254</v>
+        <v>8906.916945064442</v>
       </c>
       <c r="D44">
-        <v>22.54249466625521</v>
+        <v>59.62769454613189</v>
       </c>
       <c r="E44">
-        <v>0.8410104573713204</v>
+        <v>0.8393756664368958</v>
       </c>
       <c r="F44">
-        <v>7289.676241697325</v>
+        <v>7527.700107104208</v>
       </c>
       <c r="G44">
-        <v>289.6762416973252</v>
+        <v>527.7001071042077</v>
       </c>
       <c r="H44">
-        <v>289.6762416973252</v>
+        <v>527.7001071042077</v>
       </c>
       <c r="I44">
-        <v>1492306.983479793</v>
+        <v>1334813.234806043</v>
       </c>
       <c r="J44">
-        <v>918.6127721653313</v>
+        <v>882.6550444508387</v>
       </c>
       <c r="K44">
-        <v>4.138232024247503</v>
+        <v>7.53857295863154</v>
       </c>
       <c r="L44">
-        <v>19.41368091789571</v>
+        <v>18.60873185786961</v>
       </c>
       <c r="M44">
-        <v>10.88020952024327</v>
+        <v>10.27768091354572</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -11294,37 +11294,37 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>8942.92154041765</v>
+        <v>9113.945267134404</v>
       </c>
       <c r="D45">
-        <v>54.03879972656928</v>
+        <v>66.9977259223234</v>
       </c>
       <c r="E45">
-        <v>0.8539323752454463</v>
+        <v>0.8522049256400397</v>
       </c>
       <c r="F45">
-        <v>7114.347048403553</v>
+        <v>7525.705317081073</v>
       </c>
       <c r="G45">
-        <v>-2885.652951596447</v>
+        <v>-2474.294682918927</v>
       </c>
       <c r="H45">
-        <v>2885.652951596447</v>
+        <v>2474.294682918927</v>
       </c>
       <c r="I45">
-        <v>1651253.168911828</v>
+        <v>1446146.27999476</v>
       </c>
       <c r="J45">
-        <v>964.3578926172178</v>
+        <v>919.66991976405</v>
       </c>
       <c r="K45">
-        <v>28.85652951596447</v>
+        <v>24.74294682918927</v>
       </c>
       <c r="L45">
-        <v>19.63328204808336</v>
+        <v>18.75138801999332</v>
       </c>
       <c r="M45">
-        <v>7.371792704719061</v>
+        <v>7.173608790391796</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -11335,37 +11335,37 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>9309.955421467181</v>
+        <v>9337.953855248581</v>
       </c>
       <c r="D46">
-        <v>85.33830785886541</v>
+        <v>74.84826903191606</v>
       </c>
       <c r="E46">
-        <v>1.160422328333643</v>
+        <v>1.15440668702545</v>
       </c>
       <c r="F46">
-        <v>10097.04535636308</v>
+        <v>10431.9073392067</v>
       </c>
       <c r="G46">
-        <v>-3902.95464363692</v>
+        <v>-3568.092660793303</v>
       </c>
       <c r="H46">
-        <v>3902.95464363692</v>
+        <v>3568.092660793303</v>
       </c>
       <c r="I46">
-        <v>1959930.4821249</v>
+        <v>1702626.710813221</v>
       </c>
       <c r="J46">
-        <v>1031.14418241312</v>
+        <v>979.8613456965329</v>
       </c>
       <c r="K46">
-        <v>27.87824745454943</v>
+        <v>25.48637614852359</v>
       </c>
       <c r="L46">
-        <v>19.82066762550304</v>
+        <v>18.90445593200538</v>
       </c>
       <c r="M46">
-        <v>3.109256579806253</v>
+        <v>3.091518583919298</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -11376,37 +11376,37 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>9397.706845256962</v>
+        <v>9408.626359225553</v>
       </c>
       <c r="D47">
-        <v>85.579619451957</v>
+        <v>74.63948077916884</v>
       </c>
       <c r="E47">
-        <v>1.698575017573714</v>
+        <v>1.714306162204169</v>
       </c>
       <c r="F47">
-        <v>15954.46894973744</v>
+        <v>16143.2311861462</v>
       </c>
       <c r="G47">
-        <v>-45.53105026256162</v>
+        <v>143.2311861461967</v>
       </c>
       <c r="H47">
-        <v>45.53105026256162</v>
+        <v>143.2311861461967</v>
       </c>
       <c r="I47">
-        <v>1916422.539778525</v>
+        <v>1665246.454410368</v>
       </c>
       <c r="J47">
-        <v>1009.24166836533</v>
+        <v>961.269564373192</v>
       </c>
       <c r="K47">
-        <v>0.2845690641410101</v>
+        <v>0.8951949134137294</v>
       </c>
       <c r="L47">
-        <v>19.38653210191722</v>
+        <v>18.50425013159223</v>
       </c>
       <c r="M47">
-        <v>3.131619395732577</v>
+        <v>3.300313318564145</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -11417,37 +11417,37 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>9451.306484863302</v>
+        <v>9462.250535305149</v>
       </c>
       <c r="D48">
-        <v>82.38162146739532</v>
+        <v>73.58871554419022</v>
       </c>
       <c r="E48">
-        <v>1.746860366989314</v>
+        <v>1.761702778748894</v>
       </c>
       <c r="F48">
-        <v>16622.84824746861</v>
+        <v>16742.02001248231</v>
       </c>
       <c r="G48">
-        <v>622.8482474686134</v>
+        <v>742.0200124823132</v>
       </c>
       <c r="H48">
-        <v>622.8482474686134</v>
+        <v>742.0200124823132</v>
       </c>
       <c r="I48">
-        <v>1883194.657161051</v>
+        <v>1641014.872769366</v>
       </c>
       <c r="J48">
-        <v>1000.841811389314</v>
+        <v>956.5032697668686</v>
       </c>
       <c r="K48">
-        <v>3.892801546678834</v>
+        <v>4.637625078014458</v>
       </c>
       <c r="L48">
-        <v>19.04971187245551</v>
+        <v>18.20280176086228</v>
       </c>
       <c r="M48">
-        <v>3.780226793134333</v>
+        <v>4.092522087736938</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -11458,37 +11458,37 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>9530.261597302815</v>
+        <v>9531.934684807602</v>
       </c>
       <c r="D49">
-        <v>82.03897056460708</v>
+        <v>73.39348724210335</v>
       </c>
       <c r="E49">
-        <v>2.105469488238644</v>
+        <v>2.113845407877469</v>
       </c>
       <c r="F49">
-        <v>20080.18926502265</v>
+        <v>20165.137242846</v>
       </c>
       <c r="G49">
-        <v>80.18926502265458</v>
+        <v>165.1372428460018</v>
       </c>
       <c r="H49">
-        <v>80.18926502265458</v>
+        <v>165.1372428460018</v>
       </c>
       <c r="I49">
-        <v>1843263.501013473</v>
+        <v>1606679.882050332</v>
       </c>
       <c r="J49">
-        <v>981.2534593389598</v>
+        <v>939.6656947259992</v>
       </c>
       <c r="K49">
-        <v>0.4009463251132729</v>
+        <v>0.8256862142300087</v>
       </c>
       <c r="L49">
-        <v>18.65292962676738</v>
+        <v>17.83307589816798</v>
       </c>
       <c r="M49">
-        <v>3.937411134049328</v>
+        <v>4.341595127136268</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -11499,37 +11499,37 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>9731.626985935232</v>
+        <v>9672.105599733457</v>
       </c>
       <c r="D50">
-        <v>93.97161237138812</v>
+        <v>76.73235862629093</v>
       </c>
       <c r="E50">
-        <v>1.110679212905241</v>
+        <v>1.103998091715772</v>
       </c>
       <c r="F50">
-        <v>10545.44053849322</v>
+        <v>10535.16468141736</v>
       </c>
       <c r="G50">
-        <v>-1454.55946150678</v>
+        <v>-1464.835318582638</v>
       </c>
       <c r="H50">
-        <v>1454.55946150678</v>
+        <v>1464.835318582638</v>
       </c>
       <c r="I50">
-        <v>1848940.161972752</v>
+        <v>1617910.353477764</v>
       </c>
       <c r="J50">
-        <v>991.1140010507894</v>
+        <v>950.6067285563458</v>
       </c>
       <c r="K50">
-        <v>12.12132884588983</v>
+        <v>12.20696098818865</v>
       </c>
       <c r="L50">
-        <v>18.5168546104991</v>
+        <v>17.71586517087674</v>
       </c>
       <c r="M50">
-        <v>2.430637476682572</v>
+        <v>2.75067765062836</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -11540,37 +11540,37 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>10017.64449379446</v>
+        <v>9854.741099116098</v>
       </c>
       <c r="D51">
-        <v>113.1762019201724</v>
+        <v>82.02751566410842</v>
       </c>
       <c r="E51">
-        <v>0.4261836724039574</v>
+        <v>0.4256415022927978</v>
       </c>
       <c r="F51">
-        <v>4107.883417829801</v>
+        <v>4107.575408459118</v>
       </c>
       <c r="G51">
-        <v>-892.1165821701989</v>
+        <v>-892.4245915408819</v>
       </c>
       <c r="H51">
-        <v>892.1165821701989</v>
+        <v>892.4245915408819</v>
       </c>
       <c r="I51">
-        <v>1827448.974915819</v>
+        <v>1601145.277928971</v>
       </c>
       <c r="J51">
-        <v>989.0936455634305</v>
+        <v>949.4193380050099</v>
       </c>
       <c r="K51">
-        <v>17.84233164340398</v>
+        <v>17.84849183081764</v>
       </c>
       <c r="L51">
-        <v>18.50308883566042</v>
+        <v>17.71857183740615</v>
       </c>
       <c r="M51">
-        <v>1.533648769510147</v>
+        <v>1.814148945875915</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -11581,37 +11581,37 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>9584.17791410238</v>
+        <v>9646.16870015604</v>
       </c>
       <c r="D52">
-        <v>58.51192375894681</v>
+        <v>67.49751993290012</v>
       </c>
       <c r="E52">
-        <v>0.4645440068768968</v>
+        <v>0.4709985185156569</v>
       </c>
       <c r="F52">
-        <v>4994.227607861023</v>
+        <v>4818.095476039441</v>
       </c>
       <c r="G52">
-        <v>2994.227607861023</v>
+        <v>2818.095476039441</v>
       </c>
       <c r="H52">
-        <v>2994.227607861023</v>
+        <v>2818.095476039441</v>
       </c>
       <c r="I52">
-        <v>1970207.974771045</v>
+        <v>1727955.614611871</v>
       </c>
       <c r="J52">
-        <v>1029.196324809382</v>
+        <v>986.7928607656984</v>
       </c>
       <c r="K52">
-        <v>149.7113803930511</v>
+        <v>140.904773801972</v>
       </c>
       <c r="L52">
-        <v>21.12725466680823</v>
+        <v>20.18229587669747</v>
       </c>
       <c r="M52">
-        <v>4.383177195220935</v>
+        <v>4.601252955713793</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -11622,37 +11622,37 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>9347.93996200639</v>
+        <v>9548.805572331034</v>
       </c>
       <c r="D53">
-        <v>29.03693617345319</v>
+        <v>59.25448754500478</v>
       </c>
       <c r="E53">
-        <v>0.4561081675870187</v>
+        <v>0.4598793871154284</v>
       </c>
       <c r="F53">
-        <v>4542.944770188278</v>
+        <v>4541.605378712447</v>
       </c>
       <c r="G53">
-        <v>1542.944770188278</v>
+        <v>1541.605378712447</v>
       </c>
       <c r="H53">
-        <v>1542.944770188278</v>
+        <v>1541.605378712447</v>
       </c>
       <c r="I53">
-        <v>1978256.417694189</v>
+        <v>1740673.095573896</v>
       </c>
       <c r="J53">
-        <v>1039.26982373838</v>
+        <v>997.6715375881837</v>
       </c>
       <c r="K53">
-        <v>51.43149233960928</v>
+        <v>51.38684595708158</v>
       </c>
       <c r="L53">
-        <v>21.72145540549061</v>
+        <v>20.79414979984225</v>
       </c>
       <c r="M53">
-        <v>5.825334761208254</v>
+        <v>6.09628391393324</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -11663,37 +11663,37 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>8979.031924722321</v>
+        <v>9375.574784847613</v>
       </c>
       <c r="D54">
-        <v>-10.75756117229903</v>
+        <v>47.63022379358351</v>
       </c>
       <c r="E54">
-        <v>0.385516704127616</v>
+        <v>0.3938576496471545</v>
       </c>
       <c r="F54">
-        <v>3784.574839896939</v>
+        <v>3875.503433630146</v>
       </c>
       <c r="G54">
-        <v>1784.574839896939</v>
+        <v>1875.503433630146</v>
       </c>
       <c r="H54">
-        <v>1784.574839896939</v>
+        <v>1875.503433630146</v>
       </c>
       <c r="I54">
-        <v>2001457.3973384</v>
+        <v>1774843.096227446</v>
       </c>
       <c r="J54">
-        <v>1053.60261251066</v>
+        <v>1014.552920204375</v>
       </c>
       <c r="K54">
-        <v>89.22874199484697</v>
+        <v>93.7751716815073</v>
       </c>
       <c r="L54">
-        <v>23.01967245528592</v>
+        <v>22.19763098987427</v>
       </c>
       <c r="M54">
-        <v>7.439872848944355</v>
+        <v>7.843447316691007</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -11704,37 +11704,37 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>9200.396519394773</v>
+        <v>9522.282390005726</v>
       </c>
       <c r="D55">
-        <v>12.45465441217606</v>
+        <v>52.58409286181001</v>
       </c>
       <c r="E55">
-        <v>0.6216605912604118</v>
+        <v>0.6198461380141822</v>
       </c>
       <c r="F55">
-        <v>5436.537167371414</v>
+        <v>5783.767273712473</v>
       </c>
       <c r="G55">
-        <v>-1563.462832628586</v>
+        <v>-1216.232726287527</v>
       </c>
       <c r="H55">
-        <v>1563.462832628586</v>
+        <v>1216.232726287527</v>
       </c>
       <c r="I55">
-        <v>2009815.107369959</v>
+        <v>1769265.340534339</v>
       </c>
       <c r="J55">
-        <v>1063.222616663829</v>
+        <v>1018.358199564435</v>
       </c>
       <c r="K55">
-        <v>22.33518332326551</v>
+        <v>17.37475323267896</v>
       </c>
       <c r="L55">
-        <v>23.00675756600252</v>
+        <v>22.10663329634229</v>
       </c>
       <c r="M55">
-        <v>5.902062784797232</v>
+        <v>6.619831466191243</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -11745,37 +11745,37 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>9025.779330924392</v>
+        <v>9453.531661252573</v>
       </c>
       <c r="D56">
-        <v>-6.252529876079716</v>
+        <v>46.51735178106183</v>
       </c>
       <c r="E56">
-        <v>0.8233856657061511</v>
+        <v>0.8291410551419578</v>
       </c>
       <c r="F56">
-        <v>7748.104179377289</v>
+        <v>8036.909935101236</v>
       </c>
       <c r="G56">
-        <v>1748.104179377289</v>
+        <v>2036.909935101236</v>
       </c>
       <c r="H56">
-        <v>1748.104179377289</v>
+        <v>2036.909935101236</v>
       </c>
       <c r="I56">
-        <v>2029186.461343781</v>
+        <v>1813334.539482113</v>
       </c>
       <c r="J56">
-        <v>1075.90560856593</v>
+        <v>1037.220268741042</v>
       </c>
       <c r="K56">
-        <v>29.13506965628815</v>
+        <v>33.94849891835393</v>
       </c>
       <c r="L56">
-        <v>23.12024482693374</v>
+        <v>22.32592710415732</v>
       </c>
       <c r="M56">
-        <v>7.457262749878072</v>
+        <v>8.463264605392482</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -11786,37 +11786,37 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>9050.927490077662</v>
+        <v>9494.41723599028</v>
       </c>
       <c r="D57">
-        <v>-3.112460973144728</v>
+        <v>46.23576292889411</v>
       </c>
       <c r="E57">
-        <v>0.8569278692489161</v>
+        <v>0.8517247006176605</v>
       </c>
       <c r="F57">
-        <v>7702.065944809147</v>
+        <v>8095.988562729061</v>
       </c>
       <c r="G57">
-        <v>-297.9340551908526</v>
+        <v>95.98856272906141</v>
       </c>
       <c r="H57">
-        <v>297.9340551908526</v>
+        <v>95.98856272906141</v>
       </c>
       <c r="I57">
-        <v>1993906.065705575</v>
+        <v>1780532.344294707</v>
       </c>
       <c r="J57">
-        <v>1061.760671231837</v>
+        <v>1020.10696499537</v>
       </c>
       <c r="K57">
-        <v>3.724175689885658</v>
+        <v>1.199857034113267</v>
       </c>
       <c r="L57">
-        <v>22.76758902444195</v>
+        <v>21.94181673924742</v>
       </c>
       <c r="M57">
-        <v>7.276005762192995</v>
+        <v>8.699340810011115</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -11827,37 +11827,37 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>9009.091375380074</v>
+        <v>9496.743273172786</v>
       </c>
       <c r="D58">
-        <v>-6.984826345589017</v>
+        <v>44.04027664157468</v>
       </c>
       <c r="E58">
-        <v>1.155379080673499</v>
+        <v>1.149335980616889</v>
       </c>
       <c r="F58">
-        <v>10499.28658240559</v>
+        <v>11013.79362054171</v>
       </c>
       <c r="G58">
-        <v>499.286582405588</v>
+        <v>1013.79362054171</v>
       </c>
       <c r="H58">
-        <v>499.286582405588</v>
+        <v>1013.79362054171</v>
       </c>
       <c r="I58">
-        <v>1962752.155449587</v>
+        <v>1767090.293593928</v>
       </c>
       <c r="J58">
-        <v>1051.716491074226</v>
+        <v>1019.994226701554</v>
       </c>
       <c r="K58">
-        <v>4.99286582405588</v>
+        <v>10.1379362054171</v>
       </c>
       <c r="L58">
-        <v>22.45018325300649</v>
+        <v>21.73103315828617</v>
       </c>
       <c r="M58">
-        <v>7.820228563648032</v>
+        <v>9.694223273869286</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -11868,37 +11868,37 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9251.628765916026</v>
+        <v>9647.070747767717</v>
       </c>
       <c r="D59">
-        <v>17.96739534256508</v>
+        <v>49.3546365392425</v>
       </c>
       <c r="E59">
-        <v>1.744895666778065</v>
+        <v>1.732249262552445</v>
       </c>
       <c r="F59">
-        <v>15290.7532897267</v>
+        <v>16355.82403170293</v>
       </c>
       <c r="G59">
-        <v>-4709.246710273301</v>
+        <v>-3644.175968297071</v>
       </c>
       <c r="H59">
-        <v>4709.246710273301</v>
+        <v>3644.175968297071</v>
       </c>
       <c r="I59">
-        <v>2317388.162866611</v>
+        <v>1969071.489985506</v>
       </c>
       <c r="J59">
-        <v>1115.88368790228</v>
+        <v>1066.032502869897</v>
       </c>
       <c r="K59">
-        <v>23.54623355136651</v>
+        <v>18.22087984148536</v>
       </c>
       <c r="L59">
-        <v>22.46941220560929</v>
+        <v>21.66945152114931</v>
       </c>
       <c r="M59">
-        <v>3.150343241143331</v>
+        <v>5.857115788304879</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -11909,37 +11909,37 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>9465.752587259405</v>
+        <v>9779.236755547665</v>
       </c>
       <c r="D60">
-        <v>37.58303794264647</v>
+        <v>53.49520510127776</v>
       </c>
       <c r="E60">
-        <v>1.783462337404781</v>
+        <v>1.775875108875455</v>
       </c>
       <c r="F60">
-        <v>16192.69015209892</v>
+        <v>17082.21954346488</v>
       </c>
       <c r="G60">
-        <v>-3807.309847901079</v>
+        <v>-2917.780456535118</v>
       </c>
       <c r="H60">
-        <v>3807.309847901079</v>
+        <v>2917.780456535118</v>
       </c>
       <c r="I60">
-        <v>2527357.475195195</v>
+        <v>2081905.477960554</v>
       </c>
       <c r="J60">
-        <v>1162.287587212604</v>
+        <v>1097.959191726194</v>
       </c>
       <c r="K60">
-        <v>19.03654923950539</v>
+        <v>14.58890228267559</v>
       </c>
       <c r="L60">
-        <v>22.41022491309026</v>
+        <v>21.54737308600322</v>
       </c>
       <c r="M60">
-        <v>-0.2511368245066231</v>
+        <v>3.029343323444551</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -11950,37 +11950,37 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>9588.443252464807</v>
+        <v>9861.47400331592</v>
       </c>
       <c r="D61">
-        <v>46.09380066892204</v>
+        <v>54.93230723462661</v>
       </c>
       <c r="E61">
-        <v>2.124365415810222</v>
+        <v>2.11969832835771</v>
       </c>
       <c r="F61">
-        <v>20008.98319535423</v>
+        <v>20784.87530190778</v>
       </c>
       <c r="G61">
-        <v>-1991.016804645769</v>
+        <v>-1215.124698092215</v>
       </c>
       <c r="H61">
-        <v>1991.016804645769</v>
+        <v>1215.124698092215</v>
       </c>
       <c r="I61">
-        <v>2551709.855554291</v>
+        <v>2071644.843281794</v>
       </c>
       <c r="J61">
-        <v>1176.3338451352</v>
+        <v>1099.945047766296</v>
       </c>
       <c r="K61">
-        <v>9.050076384753497</v>
+        <v>5.523294082237341</v>
       </c>
       <c r="L61">
-        <v>22.18378171769472</v>
+        <v>21.27577852661735</v>
       </c>
       <c r="M61">
-        <v>-1.940699086320538</v>
+        <v>1.91916010082953</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -11991,37 +11991,37 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>9415.680699332477</v>
+        <v>9782.905461878567</v>
       </c>
       <c r="D62">
-        <v>24.20816528879683</v>
+        <v>48.25726480102764</v>
       </c>
       <c r="E62">
-        <v>1.084575940007766</v>
+        <v>1.08968583564695</v>
       </c>
       <c r="F62">
-        <v>10700.88003088095</v>
+        <v>10947.69364352604</v>
       </c>
       <c r="G62">
-        <v>2700.880030880951</v>
+        <v>2947.693643526043</v>
       </c>
       <c r="H62">
-        <v>2700.880030880951</v>
+        <v>2947.693643526043</v>
       </c>
       <c r="I62">
-        <v>2630760.573648578</v>
+        <v>2181932.392828495</v>
       </c>
       <c r="J62">
-        <v>1201.742948230962</v>
+        <v>1130.740857695625</v>
       </c>
       <c r="K62">
-        <v>33.76100038601189</v>
+        <v>36.84617054407554</v>
       </c>
       <c r="L62">
-        <v>22.37673536216667</v>
+        <v>21.53528506024166</v>
       </c>
       <c r="M62">
-        <v>0.347803174576078</v>
+        <v>4.47376094874061</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -12029,10 +12029,10 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>0.4261836724039574</v>
+        <v>0.4256415022927978</v>
       </c>
       <c r="F63">
-        <v>4086.437957972398</v>
+        <v>4197.452609592759</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -12040,10 +12040,10 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>0.4645440068768968</v>
+        <v>0.4709985185156569</v>
       </c>
       <c r="F64">
-        <v>4475.666447066672</v>
+        <v>4670.612681268618</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12051,10 +12051,10 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>0.4561081675870187</v>
+        <v>0.4598793871154284</v>
       </c>
       <c r="F65">
-        <v>4415.414799814283</v>
+        <v>4585.613092267448</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>0.385516704127616</v>
+        <v>0.3938576496471545</v>
       </c>
       <c r="F66">
-        <v>3749.814830748705</v>
+        <v>3948.923501253899</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -12073,10 +12073,10 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>0.6216605912604118</v>
+        <v>0.6198461380141822</v>
       </c>
       <c r="F67">
-        <v>6075.376099103305</v>
+        <v>6248.794890048996</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -12084,10 +12084,10 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>0.8233856657061511</v>
+        <v>0.8291410551419578</v>
       </c>
       <c r="F68">
-        <v>8084.751604259923</v>
+        <v>8404.28611627385</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -12095,10 +12095,10 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>0.8569278692489161</v>
+        <v>0.8517247006176605</v>
       </c>
       <c r="F69">
-        <v>8453.598620105637</v>
+        <v>8679.984210724991</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -12106,10 +12106,10 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>1.155379080673499</v>
+        <v>1.149335980616889</v>
       </c>
       <c r="F70">
-        <v>11451.07744141405</v>
+        <v>11776.09663435047</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -12117,10 +12117,10 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>1.744895666778065</v>
+        <v>1.732249262552445</v>
       </c>
       <c r="F71">
-        <v>17374.26406679349</v>
+        <v>17843.782659504</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -12128,10 +12128,10 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>1.783462337404781</v>
+        <v>1.775875108875455</v>
       </c>
       <c r="F72">
-        <v>17840.48643244178</v>
+        <v>18390.72247313077</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -12139,10 +12139,10 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>2.124365415810222</v>
+        <v>2.11969832835771</v>
       </c>
       <c r="F73">
-        <v>21348.5579972382</v>
+        <v>22067.74915815247</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -12150,10 +12150,10 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>1.084575940007766</v>
+        <v>1.08968583564695</v>
       </c>
       <c r="F74">
-        <v>10949.30935283243</v>
+        <v>11404.35706825675</v>
       </c>
     </row>
   </sheetData>
